--- a/src/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Avr" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -1223,6 +1220,9 @@
   </si>
   <si>
     <t>Luxeon SVR-10000VA SERVO Black</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -2002,13 +2002,14 @@
   <dimension ref="A1:AO262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S174" sqref="S174"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
@@ -2016,16 +2017,16 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>402</v>
       </c>
       <c r="E1" t="s">
         <v>95</v>
@@ -2064,10 +2065,10 @@
         <v>84</v>
       </c>
       <c r="Q1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" t="s">
         <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>101</v>
       </c>
       <c r="S1" t="s">
         <v>83</v>
@@ -2149,8 +2150,8 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -2189,7 +2190,7 @@
         <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S2">
         <v>0.6</v>
@@ -2268,8 +2269,8 @@
       <c r="B3">
         <v>1950</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -2293,7 +2294,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S3">
         <v>2.5</v>
@@ -2329,8 +2330,8 @@
       <c r="B4">
         <v>3195</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -2354,7 +2355,7 @@
         <v>17.5</v>
       </c>
       <c r="R4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S4">
         <v>6</v>
@@ -2390,8 +2391,8 @@
       <c r="B5">
         <v>3755</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -2415,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S5">
         <v>8</v>
@@ -2451,8 +2452,8 @@
       <c r="B6">
         <v>4860</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -2476,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -2512,8 +2513,8 @@
       <c r="B7">
         <v>5550</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -2537,7 +2538,7 @@
         <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S7">
         <v>12</v>
@@ -2573,8 +2574,8 @@
       <c r="B8">
         <v>5975</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -2598,7 +2599,7 @@
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S8">
         <v>15</v>
@@ -2634,8 +2635,8 @@
       <c r="B9">
         <v>5200</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -2659,7 +2660,7 @@
         <v>17.5</v>
       </c>
       <c r="R9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S9">
         <v>6</v>
@@ -2695,8 +2696,8 @@
       <c r="B10">
         <v>6200</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2720,7 +2721,7 @@
         <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -2756,8 +2757,8 @@
       <c r="B11">
         <v>7200</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -2781,7 +2782,7 @@
         <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -2817,8 +2818,8 @@
       <c r="B12">
         <v>9200</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -2842,7 +2843,7 @@
         <v>26</v>
       </c>
       <c r="R12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S12">
         <v>12</v>
@@ -2878,8 +2879,8 @@
       <c r="B13">
         <v>10200</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -2903,7 +2904,7 @@
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S13">
         <v>15</v>
@@ -2939,8 +2940,8 @@
       <c r="B14">
         <v>16200</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -2964,7 +2965,7 @@
         <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S14">
         <v>18</v>
@@ -3000,8 +3001,8 @@
       <c r="B15">
         <v>18200</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -3025,7 +3026,7 @@
         <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S15">
         <v>20</v>
@@ -3061,8 +3062,8 @@
       <c r="B16">
         <v>5500</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -3086,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -3122,8 +3123,8 @@
       <c r="B17">
         <v>6500</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -3147,7 +3148,7 @@
         <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S17">
         <v>8</v>
@@ -3183,8 +3184,8 @@
       <c r="B18">
         <v>7500</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -3208,7 +3209,7 @@
         <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -3244,8 +3245,8 @@
       <c r="B19">
         <v>9500</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -3269,7 +3270,7 @@
         <v>27</v>
       </c>
       <c r="R19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S19">
         <v>12</v>
@@ -3305,8 +3306,8 @@
       <c r="B20">
         <v>10500</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -3330,7 +3331,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S20">
         <v>15</v>
@@ -3366,8 +3367,8 @@
       <c r="B21">
         <v>17000</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -3391,7 +3392,7 @@
         <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S21">
         <v>18</v>
@@ -3427,8 +3428,8 @@
       <c r="B22">
         <v>19000</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -3452,7 +3453,7 @@
         <v>46</v>
       </c>
       <c r="R22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S22">
         <v>20</v>
@@ -3488,8 +3489,8 @@
       <c r="B23">
         <v>5150</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -3513,7 +3514,7 @@
         <v>17</v>
       </c>
       <c r="R23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S23">
         <v>6</v>
@@ -3549,8 +3550,8 @@
       <c r="B24">
         <v>5150</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -3574,7 +3575,7 @@
         <v>17</v>
       </c>
       <c r="R24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S24">
         <v>6</v>
@@ -3610,8 +3611,8 @@
       <c r="B25">
         <v>5150</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -3635,7 +3636,7 @@
         <v>17.5</v>
       </c>
       <c r="R25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S25">
         <v>6</v>
@@ -3671,8 +3672,8 @@
       <c r="B26">
         <v>5150</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -3696,7 +3697,7 @@
         <v>17.5</v>
       </c>
       <c r="R26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S26">
         <v>6</v>
@@ -3732,8 +3733,8 @@
       <c r="B27">
         <v>5950</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -3757,7 +3758,7 @@
         <v>19</v>
       </c>
       <c r="R27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S27">
         <v>8</v>
@@ -3793,8 +3794,8 @@
       <c r="B28">
         <v>5950</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -3818,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="R28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S28">
         <v>8</v>
@@ -3854,8 +3855,8 @@
       <c r="B29">
         <v>5950</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -3879,7 +3880,7 @@
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S29">
         <v>8</v>
@@ -3915,8 +3916,8 @@
       <c r="B30">
         <v>5950</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -3940,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="R30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S30">
         <v>8</v>
@@ -3976,8 +3977,8 @@
       <c r="B31">
         <v>6950</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -4001,7 +4002,7 @@
         <v>22</v>
       </c>
       <c r="R31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S31">
         <v>10</v>
@@ -4037,8 +4038,8 @@
       <c r="B32">
         <v>6950</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -4062,7 +4063,7 @@
         <v>22</v>
       </c>
       <c r="R32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S32">
         <v>10</v>
@@ -4098,8 +4099,8 @@
       <c r="B33">
         <v>6950</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -4123,7 +4124,7 @@
         <v>23.5</v>
       </c>
       <c r="R33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S33">
         <v>10</v>
@@ -4159,8 +4160,8 @@
       <c r="B34">
         <v>6950</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -4184,7 +4185,7 @@
         <v>23.5</v>
       </c>
       <c r="R34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S34">
         <v>10</v>
@@ -4220,8 +4221,8 @@
       <c r="B35">
         <v>8450</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -4245,7 +4246,7 @@
         <v>25</v>
       </c>
       <c r="R35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S35">
         <v>12</v>
@@ -4281,8 +4282,8 @@
       <c r="B36">
         <v>8450</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -4306,7 +4307,7 @@
         <v>25</v>
       </c>
       <c r="R36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S36">
         <v>12</v>
@@ -4342,8 +4343,8 @@
       <c r="B37">
         <v>8450</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -4367,7 +4368,7 @@
         <v>26</v>
       </c>
       <c r="R37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S37">
         <v>12</v>
@@ -4403,8 +4404,8 @@
       <c r="B38">
         <v>8450</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -4428,7 +4429,7 @@
         <v>26</v>
       </c>
       <c r="R38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S38">
         <v>12</v>
@@ -4464,8 +4465,8 @@
       <c r="B39">
         <v>9350</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -4489,7 +4490,7 @@
         <v>27</v>
       </c>
       <c r="R39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S39">
         <v>15</v>
@@ -4525,8 +4526,8 @@
       <c r="B40">
         <v>9350</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
@@ -4550,7 +4551,7 @@
         <v>27</v>
       </c>
       <c r="R40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S40">
         <v>15</v>
@@ -4586,8 +4587,8 @@
       <c r="B41">
         <v>9350</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -4611,7 +4612,7 @@
         <v>28</v>
       </c>
       <c r="R41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S41">
         <v>15</v>
@@ -4647,8 +4648,8 @@
       <c r="B42">
         <v>9350</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -4672,7 +4673,7 @@
         <v>28</v>
       </c>
       <c r="R42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S42">
         <v>15</v>
@@ -4708,8 +4709,8 @@
       <c r="B43">
         <v>11550</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -4733,7 +4734,7 @@
         <v>35</v>
       </c>
       <c r="R43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S43">
         <v>18</v>
@@ -4769,8 +4770,8 @@
       <c r="B44">
         <v>11550</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -4794,7 +4795,7 @@
         <v>35</v>
       </c>
       <c r="R44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S44">
         <v>18</v>
@@ -4830,8 +4831,8 @@
       <c r="B45">
         <v>11550</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
@@ -4855,7 +4856,7 @@
         <v>37</v>
       </c>
       <c r="R45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S45">
         <v>18</v>
@@ -4891,8 +4892,8 @@
       <c r="B46">
         <v>11550</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
@@ -4916,7 +4917,7 @@
         <v>37</v>
       </c>
       <c r="R46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S46">
         <v>18</v>
@@ -4952,8 +4953,8 @@
       <c r="B47">
         <v>12850</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
@@ -4977,7 +4978,7 @@
         <v>38</v>
       </c>
       <c r="R47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S47">
         <v>20</v>
@@ -5013,8 +5014,8 @@
       <c r="B48">
         <v>12850</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
@@ -5038,7 +5039,7 @@
         <v>38</v>
       </c>
       <c r="R48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S48">
         <v>20</v>
@@ -5074,8 +5075,8 @@
       <c r="B49">
         <v>12850</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
@@ -5099,7 +5100,7 @@
         <v>42</v>
       </c>
       <c r="R49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S49">
         <v>20</v>
@@ -5135,8 +5136,8 @@
       <c r="B50">
         <v>12850</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
@@ -5160,7 +5161,7 @@
         <v>42</v>
       </c>
       <c r="R50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S50">
         <v>20</v>
@@ -5191,19 +5192,19 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>68</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
         <v>102</v>
-      </c>
-      <c r="F51" t="s">
-        <v>103</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -5218,7 +5219,7 @@
         <v>3.5</v>
       </c>
       <c r="R51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S51">
         <v>0.35</v>
@@ -5240,19 +5241,19 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52">
         <v>75</v>
       </c>
-      <c r="D52" t="b">
-        <v>1</v>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -5267,7 +5268,7 @@
         <v>4.2</v>
       </c>
       <c r="R52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S52">
         <v>0.7</v>
@@ -5289,19 +5290,19 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53">
         <v>97</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -5316,7 +5317,7 @@
         <v>6.3</v>
       </c>
       <c r="R53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S53">
         <v>1.4</v>
@@ -5338,19 +5339,19 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="D54" t="b">
-        <v>1</v>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -5365,7 +5366,7 @@
         <v>12</v>
       </c>
       <c r="R54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S54">
         <v>2.1</v>
@@ -5387,19 +5388,19 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55">
         <v>225</v>
       </c>
-      <c r="D55" t="b">
-        <v>1</v>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -5414,7 +5415,7 @@
         <v>17.3</v>
       </c>
       <c r="R55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S55">
         <v>3.5</v>
@@ -5436,19 +5437,19 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56">
         <v>310</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -5463,7 +5464,7 @@
         <v>21.3</v>
       </c>
       <c r="R56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S56">
         <v>7</v>
@@ -5485,19 +5486,19 @@
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57">
         <v>18</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5509,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="R57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S57">
         <v>0.35</v>
@@ -5525,19 +5526,19 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58">
         <v>18</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5549,7 +5550,7 @@
         <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S58">
         <v>0.35</v>
@@ -5565,19 +5566,19 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -5589,7 +5590,7 @@
         <v>5</v>
       </c>
       <c r="R59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S59">
         <v>0.35</v>
@@ -5605,19 +5606,19 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60">
         <v>19</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5629,7 +5630,7 @@
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S60">
         <v>0.35</v>
@@ -5645,19 +5646,19 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61">
         <v>19</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5669,7 +5670,7 @@
         <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S61">
         <v>0.35</v>
@@ -5685,19 +5686,19 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62">
         <v>22</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5709,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S62">
         <v>0.35</v>
@@ -5725,19 +5726,19 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63">
         <v>21</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5749,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="R63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S63">
         <v>0.35</v>
@@ -5765,19 +5766,19 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64">
         <v>24</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -5789,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="R64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S64">
         <v>0.35</v>
@@ -5805,19 +5806,19 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65">
         <v>17</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5829,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="R65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S65">
         <v>0.46</v>
@@ -5842,19 +5843,19 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66">
         <v>22</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5876,19 +5877,19 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67">
         <v>23</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
+      <c r="D67">
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5910,19 +5911,19 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68">
         <v>22</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5934,7 +5935,7 @@
         <v>5</v>
       </c>
       <c r="R68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S68">
         <v>0.56000000000000005</v>
@@ -5947,19 +5948,19 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69">
         <v>23</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5981,19 +5982,19 @@
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70">
         <v>25</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6005,7 +6006,7 @@
         <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S70">
         <v>0.56000000000000005</v>
@@ -6021,19 +6022,19 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71">
         <v>28</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
+      <c r="D71">
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6045,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S71">
         <v>0.7</v>
@@ -6058,19 +6059,19 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72">
         <v>28.5</v>
       </c>
-      <c r="D72" t="b">
-        <v>1</v>
+      <c r="D72">
+        <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6082,7 +6083,7 @@
         <v>5</v>
       </c>
       <c r="R72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S72">
         <v>0.7</v>
@@ -6095,19 +6096,19 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73">
         <v>30</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
+      <c r="D73">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6119,7 +6120,7 @@
         <v>5</v>
       </c>
       <c r="R73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S73">
         <v>0.7</v>
@@ -6135,19 +6136,19 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74">
         <v>35</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
+      <c r="D74">
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6159,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="R74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S74">
         <v>1.05</v>
@@ -6175,19 +6176,19 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75">
         <v>38</v>
       </c>
-      <c r="D75" t="b">
-        <v>1</v>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6199,7 +6200,7 @@
         <v>5</v>
       </c>
       <c r="R75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S75">
         <v>1.4</v>
@@ -6212,19 +6213,19 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76">
         <v>39</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -6236,7 +6237,7 @@
         <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S76">
         <v>1.4</v>
@@ -6249,19 +6250,19 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77">
         <v>38</v>
       </c>
-      <c r="D77" t="b">
-        <v>1</v>
+      <c r="D77">
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6273,7 +6274,7 @@
         <v>5</v>
       </c>
       <c r="R77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S77">
         <v>1.4</v>
@@ -6286,19 +6287,19 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78">
         <v>38</v>
       </c>
-      <c r="D78" t="b">
-        <v>1</v>
+      <c r="D78">
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -6310,7 +6311,7 @@
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S78">
         <v>1.4</v>
@@ -6323,19 +6324,19 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B79">
         <v>41</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6347,7 +6348,7 @@
         <v>5</v>
       </c>
       <c r="R79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S79">
         <v>1.4</v>
@@ -6360,19 +6361,19 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B80">
         <v>49</v>
       </c>
-      <c r="D80" t="b">
-        <v>1</v>
+      <c r="D80">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -6384,7 +6385,7 @@
         <v>5</v>
       </c>
       <c r="R80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S80">
         <v>1.75</v>
@@ -6400,19 +6401,19 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B81">
         <v>64</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
+      <c r="D81">
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -6424,7 +6425,7 @@
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S81">
         <v>1.8</v>
@@ -6437,19 +6438,19 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82">
         <v>64</v>
       </c>
-      <c r="D82" t="b">
-        <v>1</v>
+      <c r="D82">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6461,7 +6462,7 @@
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S82">
         <v>2.1</v>
@@ -6474,19 +6475,19 @@
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83">
         <v>66</v>
       </c>
-      <c r="D83" t="b">
-        <v>1</v>
+      <c r="D83">
+        <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6498,7 +6499,7 @@
         <v>5</v>
       </c>
       <c r="R83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S83">
         <v>2.1</v>
@@ -6511,19 +6512,19 @@
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84">
         <v>64</v>
       </c>
-      <c r="D84" t="b">
-        <v>1</v>
+      <c r="D84">
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6535,7 +6536,7 @@
         <v>5</v>
       </c>
       <c r="R84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S84">
         <v>2.1</v>
@@ -6548,19 +6549,19 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85">
         <v>68</v>
       </c>
-      <c r="D85" t="b">
-        <v>1</v>
+      <c r="D85">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6572,7 +6573,7 @@
         <v>5</v>
       </c>
       <c r="R85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S85">
         <v>2.1</v>
@@ -6588,19 +6589,19 @@
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86">
         <v>70</v>
       </c>
-      <c r="D86" t="b">
-        <v>1</v>
+      <c r="D86">
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6612,7 +6613,7 @@
         <v>5</v>
       </c>
       <c r="R86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S86">
         <v>2.1</v>
@@ -6628,19 +6629,19 @@
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87">
         <v>82</v>
       </c>
-      <c r="D87" t="b">
-        <v>1</v>
+      <c r="D87">
+        <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6652,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S87">
         <v>3.5</v>
@@ -6665,19 +6666,19 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88">
         <v>82</v>
       </c>
-      <c r="D88" t="b">
-        <v>1</v>
+      <c r="D88">
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -6689,7 +6690,7 @@
         <v>5</v>
       </c>
       <c r="R88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S88">
         <v>3.5</v>
@@ -6702,19 +6703,19 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89">
         <v>82</v>
       </c>
-      <c r="D89" t="b">
-        <v>1</v>
+      <c r="D89">
+        <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6726,7 +6727,7 @@
         <v>5</v>
       </c>
       <c r="R89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S89">
         <v>3.5</v>
@@ -6739,19 +6740,19 @@
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90">
         <v>85</v>
       </c>
-      <c r="D90" t="b">
-        <v>1</v>
+      <c r="D90">
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6763,7 +6764,7 @@
         <v>5</v>
       </c>
       <c r="R90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S90">
         <v>3.5</v>
@@ -6776,19 +6777,19 @@
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91">
         <v>110</v>
       </c>
-      <c r="D91" t="b">
-        <v>1</v>
+      <c r="D91">
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6800,7 +6801,7 @@
         <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S91">
         <v>3.5</v>
@@ -6816,19 +6817,19 @@
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92">
         <v>155</v>
       </c>
-      <c r="D92" t="b">
-        <v>1</v>
+      <c r="D92">
+        <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6840,7 +6841,7 @@
         <v>5</v>
       </c>
       <c r="R92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S92">
         <v>5.6</v>
@@ -6856,19 +6857,19 @@
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93">
         <v>160</v>
       </c>
-      <c r="D93" t="b">
-        <v>1</v>
+      <c r="D93">
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6880,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="R93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S93">
         <v>7</v>
@@ -6893,19 +6894,19 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94">
         <v>160</v>
       </c>
-      <c r="D94" t="b">
-        <v>1</v>
+      <c r="D94">
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6917,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="R94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S94">
         <v>7</v>
@@ -6930,19 +6931,19 @@
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95">
         <v>150</v>
       </c>
-      <c r="D95" t="b">
-        <v>1</v>
+      <c r="D95">
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6954,7 +6955,7 @@
         <v>5</v>
       </c>
       <c r="R95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S95">
         <v>7</v>
@@ -6967,19 +6968,19 @@
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96">
         <v>160</v>
       </c>
-      <c r="D96" t="b">
-        <v>1</v>
+      <c r="D96">
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6991,7 +6992,7 @@
         <v>5</v>
       </c>
       <c r="R96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S96">
         <v>7</v>
@@ -7004,19 +7005,19 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B97">
         <v>163</v>
       </c>
-      <c r="D97" t="b">
-        <v>1</v>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7028,7 +7029,7 @@
         <v>5</v>
       </c>
       <c r="R97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S97">
         <v>7</v>
@@ -7041,19 +7042,19 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98">
         <v>188</v>
       </c>
-      <c r="D98" t="b">
-        <v>1</v>
+      <c r="D98">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7065,7 +7066,7 @@
         <v>5</v>
       </c>
       <c r="R98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S98">
         <v>7</v>
@@ -7081,19 +7082,19 @@
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99">
         <v>290</v>
       </c>
-      <c r="D99" t="b">
-        <v>1</v>
+      <c r="D99">
+        <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7105,13 +7106,13 @@
         <v>5</v>
       </c>
       <c r="L99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M99">
         <v>30</v>
       </c>
       <c r="R99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S99">
         <v>9</v>
@@ -7124,19 +7125,19 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100">
         <v>330</v>
       </c>
-      <c r="D100" t="b">
-        <v>1</v>
+      <c r="D100">
+        <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -7148,13 +7149,13 @@
         <v>5</v>
       </c>
       <c r="L100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M100">
         <v>31.5</v>
       </c>
       <c r="R100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S100">
         <v>12</v>
@@ -7167,19 +7168,19 @@
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B101">
         <v>35</v>
       </c>
-      <c r="D101" t="b">
-        <v>1</v>
+      <c r="D101">
+        <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -7191,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="R101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S101">
         <v>0.35</v>
@@ -7204,19 +7205,19 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102">
         <v>54</v>
       </c>
-      <c r="D102" t="b">
-        <v>1</v>
+      <c r="D102">
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7228,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="R102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S102">
         <v>1.05</v>
@@ -7241,19 +7242,19 @@
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103">
         <v>65</v>
       </c>
-      <c r="D103" t="b">
-        <v>1</v>
+      <c r="D103">
+        <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7265,7 +7266,7 @@
         <v>5</v>
       </c>
       <c r="R103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S103">
         <v>1.75</v>
@@ -7278,19 +7279,19 @@
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104">
         <v>155</v>
       </c>
-      <c r="D104" t="b">
-        <v>1</v>
+      <c r="D104">
+        <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7302,7 +7303,7 @@
         <v>5</v>
       </c>
       <c r="R104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S104">
         <v>3.5</v>
@@ -7315,19 +7316,19 @@
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>120</v>
       </c>
-      <c r="D105" t="b">
-        <v>1</v>
+      <c r="D105">
+        <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -7339,7 +7340,7 @@
         <v>5</v>
       </c>
       <c r="R105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S105">
         <v>3.5</v>
@@ -7352,19 +7353,19 @@
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106">
         <v>160</v>
       </c>
-      <c r="D106" t="b">
-        <v>1</v>
+      <c r="D106">
+        <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -7376,7 +7377,7 @@
         <v>5</v>
       </c>
       <c r="R106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S106">
         <v>3.85</v>
@@ -7389,19 +7390,19 @@
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107">
         <v>190</v>
       </c>
-      <c r="D107" t="b">
-        <v>1</v>
+      <c r="D107">
+        <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -7413,7 +7414,7 @@
         <v>5</v>
       </c>
       <c r="R107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S107">
         <v>5.6</v>
@@ -7426,19 +7427,19 @@
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108">
         <v>220</v>
       </c>
-      <c r="D108" t="b">
-        <v>1</v>
+      <c r="D108">
+        <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -7450,7 +7451,7 @@
         <v>5</v>
       </c>
       <c r="R108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S108">
         <v>7</v>
@@ -7463,19 +7464,19 @@
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109">
         <v>220</v>
       </c>
-      <c r="D109" t="b">
-        <v>1</v>
+      <c r="D109">
+        <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -7487,7 +7488,7 @@
         <v>5</v>
       </c>
       <c r="R109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S109">
         <v>7</v>
@@ -7500,19 +7501,19 @@
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>235</v>
       </c>
-      <c r="D110" t="b">
-        <v>1</v>
+      <c r="D110">
+        <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7524,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="R110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S110">
         <v>7</v>
@@ -7537,19 +7538,19 @@
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B111">
         <v>237</v>
       </c>
-      <c r="D111" t="b">
-        <v>1</v>
+      <c r="D111">
+        <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7561,7 +7562,7 @@
         <v>5</v>
       </c>
       <c r="R111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S111">
         <v>7</v>
@@ -7574,19 +7575,19 @@
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112">
         <v>235</v>
       </c>
-      <c r="D112" t="b">
-        <v>1</v>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7598,7 +7599,7 @@
         <v>5</v>
       </c>
       <c r="R112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S112">
         <v>7</v>
@@ -7611,19 +7612,19 @@
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B113">
         <v>240</v>
       </c>
-      <c r="D113" t="b">
-        <v>1</v>
+      <c r="D113">
+        <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7635,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="R113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S113">
         <v>7</v>
@@ -7648,19 +7649,19 @@
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114">
         <v>390</v>
       </c>
-      <c r="D114" t="b">
-        <v>1</v>
+      <c r="D114">
+        <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -7672,13 +7673,13 @@
         <v>5</v>
       </c>
       <c r="L114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M114">
         <v>52</v>
       </c>
       <c r="R114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S114">
         <v>10.5</v>
@@ -7691,19 +7692,19 @@
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115">
         <v>475</v>
       </c>
-      <c r="D115" t="b">
-        <v>1</v>
+      <c r="D115">
+        <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -7715,13 +7716,13 @@
         <v>5</v>
       </c>
       <c r="L115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M115">
         <v>75</v>
       </c>
       <c r="R115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S115">
         <v>14</v>
@@ -7734,19 +7735,19 @@
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B116">
         <v>370</v>
       </c>
-      <c r="D116" t="b">
-        <v>1</v>
+      <c r="D116">
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -7758,13 +7759,13 @@
         <v>5</v>
       </c>
       <c r="L116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M116">
         <v>55</v>
       </c>
       <c r="R116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S116">
         <v>7</v>
@@ -7777,19 +7778,19 @@
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117">
         <v>420</v>
       </c>
-      <c r="D117" t="b">
-        <v>1</v>
+      <c r="D117">
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7801,7 +7802,7 @@
         <v>5</v>
       </c>
       <c r="R117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S117">
         <v>7</v>
@@ -7814,19 +7815,19 @@
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118">
         <v>520</v>
       </c>
-      <c r="D118" t="b">
-        <v>1</v>
+      <c r="D118">
+        <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -7838,13 +7839,13 @@
         <v>5</v>
       </c>
       <c r="L118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M118">
         <v>90</v>
       </c>
       <c r="R118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S118">
         <v>10.5</v>
@@ -7857,19 +7858,19 @@
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119">
         <v>550</v>
       </c>
-      <c r="D119" t="b">
-        <v>1</v>
+      <c r="D119">
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -7881,7 +7882,7 @@
         <v>5</v>
       </c>
       <c r="R119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S119">
         <v>10.5</v>
@@ -7894,19 +7895,19 @@
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B120">
         <v>750</v>
       </c>
-      <c r="D120" t="b">
-        <v>0</v>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -7918,13 +7919,13 @@
         <v>5</v>
       </c>
       <c r="L120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M120">
         <v>110</v>
       </c>
       <c r="R120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S120">
         <v>14</v>
@@ -7937,19 +7938,19 @@
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B121">
         <v>850</v>
       </c>
-      <c r="D121" t="b">
-        <v>0</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -7961,13 +7962,13 @@
         <v>5</v>
       </c>
       <c r="L121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M121">
         <v>125</v>
       </c>
       <c r="R121" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S121">
         <v>21</v>
@@ -7980,19 +7981,19 @@
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B122">
         <v>1350</v>
       </c>
-      <c r="D122" t="b">
-        <v>0</v>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -8004,13 +8005,13 @@
         <v>5</v>
       </c>
       <c r="L122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M122">
         <v>140</v>
       </c>
       <c r="R122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S122">
         <v>28</v>
@@ -8023,19 +8024,19 @@
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B123">
         <v>3500</v>
       </c>
-      <c r="D123" t="b">
-        <v>0</v>
+      <c r="D123">
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -8047,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="R123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S123">
         <v>49</v>
@@ -8060,19 +8061,19 @@
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B124">
         <v>3800</v>
       </c>
-      <c r="D124" t="b">
-        <v>0</v>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -8084,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="R124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S124">
         <v>56</v>
@@ -8097,19 +8098,19 @@
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B125">
         <v>4000</v>
       </c>
-      <c r="D125" t="b">
-        <v>0</v>
+      <c r="D125">
+        <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -8121,7 +8122,7 @@
         <v>5</v>
       </c>
       <c r="R125" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S125">
         <v>70</v>
@@ -8134,19 +8135,19 @@
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B126">
         <v>5500</v>
       </c>
-      <c r="D126" t="b">
-        <v>0</v>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -8158,7 +8159,7 @@
         <v>5</v>
       </c>
       <c r="R126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S126">
         <v>105</v>
@@ -8171,19 +8172,19 @@
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B127">
         <v>6000</v>
       </c>
-      <c r="D127" t="b">
-        <v>0</v>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -8195,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="R127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S127">
         <v>126</v>
@@ -8208,19 +8209,19 @@
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B128">
         <v>7000</v>
       </c>
-      <c r="D128" t="b">
-        <v>0</v>
+      <c r="D128">
+        <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -8232,10 +8233,10 @@
         <v>5</v>
       </c>
       <c r="L128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S128">
         <v>140</v>
@@ -8248,16 +8249,16 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129">
         <v>3360</v>
       </c>
-      <c r="D129" t="b">
-        <v>1</v>
+      <c r="D129">
+        <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8266,13 +8267,13 @@
         <v>60</v>
       </c>
       <c r="L129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M129">
         <v>9.1</v>
       </c>
       <c r="R129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S129">
         <v>2.2000000000000002</v>
@@ -8281,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="U129" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y129">
         <v>270</v>
@@ -8292,16 +8293,16 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130">
         <v>3360</v>
       </c>
-      <c r="D130" t="b">
-        <v>1</v>
+      <c r="D130">
+        <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8310,13 +8311,13 @@
         <v>60</v>
       </c>
       <c r="L130" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M130">
         <v>9.3000000000000007</v>
       </c>
       <c r="R130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S130">
         <v>2.2000000000000002</v>
@@ -8325,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="U130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y130">
         <v>285</v>
@@ -8336,16 +8337,16 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B131">
         <v>3870</v>
       </c>
-      <c r="D131" t="b">
-        <v>1</v>
+      <c r="D131">
+        <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8354,13 +8355,13 @@
         <v>60</v>
       </c>
       <c r="L131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M131">
         <v>10.5</v>
       </c>
       <c r="R131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S131">
         <v>2.2000000000000002</v>
@@ -8369,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="U131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y131">
         <v>260</v>
@@ -8380,16 +8381,16 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132">
         <v>3840</v>
       </c>
-      <c r="D132" t="b">
-        <v>1</v>
+      <c r="D132">
+        <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8398,13 +8399,13 @@
         <v>60</v>
       </c>
       <c r="L132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M132">
         <v>9</v>
       </c>
       <c r="R132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S132">
         <v>2.2000000000000002</v>
@@ -8413,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="U132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y132">
         <v>260</v>
@@ -8424,16 +8425,16 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133">
         <v>3840</v>
       </c>
-      <c r="D133" t="b">
-        <v>1</v>
+      <c r="D133">
+        <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8442,13 +8443,13 @@
         <v>60</v>
       </c>
       <c r="L133" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M133">
         <v>9</v>
       </c>
       <c r="R133" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S133">
         <v>2.2000000000000002</v>
@@ -8457,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="U133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y133">
         <v>285</v>
@@ -8468,16 +8469,16 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B134">
         <v>5550</v>
       </c>
-      <c r="D134" t="b">
-        <v>1</v>
+      <c r="D134">
+        <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -8486,13 +8487,13 @@
         <v>60</v>
       </c>
       <c r="L134" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M134">
         <v>15.5</v>
       </c>
       <c r="R134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S134">
         <v>2.2000000000000002</v>
@@ -8501,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="U134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y134">
         <v>260</v>
@@ -8512,16 +8513,16 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B135">
         <v>6060</v>
       </c>
-      <c r="D135" t="b">
-        <v>1</v>
+      <c r="D135">
+        <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8530,13 +8531,13 @@
         <v>60</v>
       </c>
       <c r="L135" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M135">
         <v>21.8</v>
       </c>
       <c r="R135" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S135">
         <v>3.5</v>
@@ -8545,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="U135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y135">
         <v>270</v>
@@ -8556,16 +8557,16 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B136">
         <v>6060</v>
       </c>
-      <c r="D136" t="b">
-        <v>1</v>
+      <c r="D136">
+        <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8574,13 +8575,13 @@
         <v>60</v>
       </c>
       <c r="L136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M136">
         <v>22.4</v>
       </c>
       <c r="R136" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S136">
         <v>3.5</v>
@@ -8589,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="U136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y136">
         <v>285</v>
@@ -8600,16 +8601,16 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137">
         <v>6060</v>
       </c>
-      <c r="D137" t="b">
-        <v>1</v>
+      <c r="D137">
+        <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -8618,13 +8619,13 @@
         <v>60</v>
       </c>
       <c r="L137" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M137">
         <v>22.4</v>
       </c>
       <c r="R137" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S137">
         <v>3.5</v>
@@ -8633,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="U137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y137">
         <v>325</v>
@@ -8644,16 +8645,16 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B138">
         <v>6060</v>
       </c>
-      <c r="D138" t="b">
-        <v>1</v>
+      <c r="D138">
+        <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -8662,13 +8663,13 @@
         <v>60</v>
       </c>
       <c r="L138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M138">
         <v>22.4</v>
       </c>
       <c r="R138" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S138">
         <v>3.5</v>
@@ -8677,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="U138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y138">
         <v>260</v>
@@ -8688,16 +8689,16 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139">
         <v>6990</v>
       </c>
-      <c r="D139" t="b">
-        <v>1</v>
+      <c r="D139">
+        <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8706,13 +8707,13 @@
         <v>60</v>
       </c>
       <c r="L139" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M139">
         <v>21.6</v>
       </c>
       <c r="R139" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S139">
         <v>3.5</v>
@@ -8721,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="U139" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y139">
         <v>260</v>
@@ -8732,16 +8733,16 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B140">
         <v>6990</v>
       </c>
-      <c r="D140" t="b">
-        <v>1</v>
+      <c r="D140">
+        <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8750,13 +8751,13 @@
         <v>60</v>
       </c>
       <c r="L140" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M140">
         <v>21.6</v>
       </c>
       <c r="R140" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S140">
         <v>3.5</v>
@@ -8765,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="U140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y140">
         <v>285</v>
@@ -8776,16 +8777,16 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B141">
         <v>6990</v>
       </c>
-      <c r="D141" t="b">
-        <v>1</v>
+      <c r="D141">
+        <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8794,13 +8795,13 @@
         <v>60</v>
       </c>
       <c r="L141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M141">
         <v>21.6</v>
       </c>
       <c r="R141" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S141">
         <v>3.5</v>
@@ -8809,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="U141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y141">
         <v>270</v>
@@ -8820,16 +8821,16 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142">
         <v>6990</v>
       </c>
-      <c r="D142" t="b">
-        <v>1</v>
+      <c r="D142">
+        <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8838,13 +8839,13 @@
         <v>60</v>
       </c>
       <c r="L142" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M142">
         <v>21.6</v>
       </c>
       <c r="R142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S142">
         <v>3.5</v>
@@ -8853,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="U142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y142">
         <v>300</v>
@@ -8864,16 +8865,16 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B143">
         <v>7890</v>
       </c>
-      <c r="D143" t="b">
-        <v>1</v>
+      <c r="D143">
+        <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8882,13 +8883,13 @@
         <v>60</v>
       </c>
       <c r="L143" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M143">
         <v>22</v>
       </c>
       <c r="R143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S143">
         <v>3.5</v>
@@ -8897,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="U143" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y143">
         <v>260</v>
@@ -8908,16 +8909,16 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B144">
         <v>7890</v>
       </c>
-      <c r="D144" t="b">
-        <v>1</v>
+      <c r="D144">
+        <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -8926,13 +8927,13 @@
         <v>60</v>
       </c>
       <c r="L144" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M144">
         <v>22</v>
       </c>
       <c r="R144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S144">
         <v>3.5</v>
@@ -8941,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="U144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y144">
         <v>275</v>
@@ -8952,16 +8953,16 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145">
         <v>7890</v>
       </c>
-      <c r="D145" t="b">
-        <v>1</v>
+      <c r="D145">
+        <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -8970,13 +8971,13 @@
         <v>60</v>
       </c>
       <c r="L145" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M145">
         <v>23</v>
       </c>
       <c r="R145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S145">
         <v>3.5</v>
@@ -8985,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="U145" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y145">
         <v>285</v>
@@ -8996,16 +8997,16 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B146">
         <v>7380</v>
       </c>
-      <c r="D146" t="b">
-        <v>1</v>
+      <c r="D146">
+        <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9014,13 +9015,13 @@
         <v>60</v>
       </c>
       <c r="L146" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M146">
         <v>22.6</v>
       </c>
       <c r="R146" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S146">
         <v>5.5</v>
@@ -9029,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="U146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y146">
         <v>270</v>
@@ -9040,16 +9041,16 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147">
         <v>7380</v>
       </c>
-      <c r="D147" t="b">
-        <v>1</v>
+      <c r="D147">
+        <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9058,13 +9059,13 @@
         <v>60</v>
       </c>
       <c r="L147" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M147">
         <v>24.3</v>
       </c>
       <c r="R147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S147">
         <v>5.5</v>
@@ -9073,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="U147" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y147">
         <v>285</v>
@@ -9084,16 +9085,16 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148">
         <v>7380</v>
       </c>
-      <c r="D148" t="b">
-        <v>1</v>
+      <c r="D148">
+        <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9102,13 +9103,13 @@
         <v>60</v>
       </c>
       <c r="L148" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M148">
         <v>24.3</v>
       </c>
       <c r="R148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S148">
         <v>5.5</v>
@@ -9117,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="U148" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y148">
         <v>325</v>
@@ -9128,16 +9129,16 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149">
         <v>7380</v>
       </c>
-      <c r="D149" t="b">
-        <v>1</v>
+      <c r="D149">
+        <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9146,13 +9147,13 @@
         <v>60</v>
       </c>
       <c r="L149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M149">
         <v>24.3</v>
       </c>
       <c r="R149" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S149">
         <v>5.5</v>
@@ -9161,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="U149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y149">
         <v>260</v>
@@ -9172,16 +9173,16 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150">
         <v>8460</v>
       </c>
-      <c r="D150" t="b">
-        <v>1</v>
+      <c r="D150">
+        <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9190,13 +9191,13 @@
         <v>60</v>
       </c>
       <c r="L150" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M150">
         <v>22.5</v>
       </c>
       <c r="R150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S150">
         <v>5.5</v>
@@ -9205,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="U150" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y150">
         <v>260</v>
@@ -9216,16 +9217,16 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B151">
         <v>8460</v>
       </c>
-      <c r="D151" t="b">
-        <v>1</v>
+      <c r="D151">
+        <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9234,13 +9235,13 @@
         <v>60</v>
       </c>
       <c r="L151" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M151">
         <v>22.5</v>
       </c>
       <c r="R151" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S151">
         <v>5.5</v>
@@ -9249,7 +9250,7 @@
         <v>1</v>
       </c>
       <c r="U151" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y151">
         <v>285</v>
@@ -9260,16 +9261,16 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B152">
         <v>8460</v>
       </c>
-      <c r="D152" t="b">
-        <v>1</v>
+      <c r="D152">
+        <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9278,13 +9279,13 @@
         <v>60</v>
       </c>
       <c r="L152" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M152">
         <v>22.5</v>
       </c>
       <c r="R152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S152">
         <v>5.5</v>
@@ -9293,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="U152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y152">
         <v>270</v>
@@ -9304,16 +9305,16 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153">
         <v>8460</v>
       </c>
-      <c r="D153" t="b">
-        <v>1</v>
+      <c r="D153">
+        <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9322,13 +9323,13 @@
         <v>60</v>
       </c>
       <c r="L153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M153">
         <v>22.5</v>
       </c>
       <c r="R153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S153">
         <v>5.5</v>
@@ -9337,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="U153" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y153">
         <v>300</v>
@@ -9348,16 +9349,16 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154">
         <v>8910</v>
       </c>
-      <c r="D154" t="b">
-        <v>1</v>
+      <c r="D154">
+        <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9366,13 +9367,13 @@
         <v>60</v>
       </c>
       <c r="L154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M154">
         <v>30.2</v>
       </c>
       <c r="R154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S154">
         <v>5.5</v>
@@ -9381,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="U154" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y154">
         <v>300</v>
@@ -9392,16 +9393,16 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B155">
         <v>9600</v>
       </c>
-      <c r="D155" t="b">
-        <v>1</v>
+      <c r="D155">
+        <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9410,13 +9411,13 @@
         <v>60</v>
       </c>
       <c r="L155" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M155">
         <v>23</v>
       </c>
       <c r="R155" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S155">
         <v>5.5</v>
@@ -9425,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="U155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y155">
         <v>260</v>
@@ -9436,16 +9437,16 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B156">
         <v>9600</v>
       </c>
-      <c r="D156" t="b">
-        <v>1</v>
+      <c r="D156">
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9454,13 +9455,13 @@
         <v>60</v>
       </c>
       <c r="L156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M156">
         <v>23</v>
       </c>
       <c r="R156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S156">
         <v>5.5</v>
@@ -9469,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="U156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y156">
         <v>275</v>
@@ -9480,16 +9481,16 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B157">
         <v>9600</v>
       </c>
-      <c r="D157" t="b">
-        <v>1</v>
+      <c r="D157">
+        <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9498,13 +9499,13 @@
         <v>60</v>
       </c>
       <c r="L157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M157">
         <v>25</v>
       </c>
       <c r="R157" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S157">
         <v>5.5</v>
@@ -9513,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="U157" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y157">
         <v>285</v>
@@ -9524,16 +9525,16 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B158">
         <v>8430</v>
       </c>
-      <c r="D158" t="b">
-        <v>1</v>
+      <c r="D158">
+        <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9542,13 +9543,13 @@
         <v>60</v>
       </c>
       <c r="L158" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M158">
         <v>26.3</v>
       </c>
       <c r="R158" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S158">
         <v>7</v>
@@ -9557,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="U158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y158">
         <v>270</v>
@@ -9568,16 +9569,16 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159">
         <v>8430</v>
       </c>
-      <c r="D159" t="b">
-        <v>1</v>
+      <c r="D159">
+        <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9586,13 +9587,13 @@
         <v>60</v>
       </c>
       <c r="L159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M159">
         <v>28.4</v>
       </c>
       <c r="R159" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S159">
         <v>7</v>
@@ -9601,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="U159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y159">
         <v>285</v>
@@ -9612,16 +9613,16 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B160">
         <v>8430</v>
       </c>
-      <c r="D160" t="b">
-        <v>1</v>
+      <c r="D160">
+        <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9630,13 +9631,13 @@
         <v>60</v>
       </c>
       <c r="L160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M160">
         <v>28.4</v>
       </c>
       <c r="R160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S160">
         <v>7</v>
@@ -9645,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="U160" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y160">
         <v>325</v>
@@ -9656,16 +9657,16 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B161">
         <v>8430</v>
       </c>
-      <c r="D161" t="b">
-        <v>1</v>
+      <c r="D161">
+        <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9674,13 +9675,13 @@
         <v>60</v>
       </c>
       <c r="L161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M161">
         <v>28.4</v>
       </c>
       <c r="R161" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S161">
         <v>7</v>
@@ -9689,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="U161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y161">
         <v>260</v>
@@ -9700,16 +9701,16 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B162">
         <v>9720</v>
       </c>
-      <c r="D162" t="b">
-        <v>1</v>
+      <c r="D162">
+        <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -9718,13 +9719,13 @@
         <v>60</v>
       </c>
       <c r="L162" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M162">
         <v>26.1</v>
       </c>
       <c r="R162" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S162">
         <v>7</v>
@@ -9733,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="U162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y162">
         <v>260</v>
@@ -9744,16 +9745,16 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B163">
         <v>9720</v>
       </c>
-      <c r="D163" t="b">
-        <v>1</v>
+      <c r="D163">
+        <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -9762,13 +9763,13 @@
         <v>60</v>
       </c>
       <c r="L163" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M163">
         <v>26.1</v>
       </c>
       <c r="R163" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S163">
         <v>7</v>
@@ -9777,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="U163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y163">
         <v>285</v>
@@ -9788,16 +9789,16 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B164">
         <v>9720</v>
       </c>
-      <c r="D164" t="b">
-        <v>1</v>
+      <c r="D164">
+        <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9806,13 +9807,13 @@
         <v>60</v>
       </c>
       <c r="L164" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M164">
         <v>26.1</v>
       </c>
       <c r="R164" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S164">
         <v>7</v>
@@ -9821,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="U164" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y164">
         <v>270</v>
@@ -9832,16 +9833,16 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B165">
         <v>9720</v>
       </c>
-      <c r="D165" t="b">
-        <v>1</v>
+      <c r="D165">
+        <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9850,13 +9851,13 @@
         <v>60</v>
       </c>
       <c r="L165" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M165">
         <v>26.1</v>
       </c>
       <c r="R165" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S165">
         <v>7</v>
@@ -9865,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="U165" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y165">
         <v>300</v>
@@ -9876,16 +9877,16 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B166">
         <v>10230</v>
       </c>
-      <c r="D166" t="b">
-        <v>1</v>
+      <c r="D166">
+        <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9894,13 +9895,13 @@
         <v>60</v>
       </c>
       <c r="L166" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M166">
         <v>31.9</v>
       </c>
       <c r="R166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S166">
         <v>7</v>
@@ -9909,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="U166" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y166">
         <v>300</v>
@@ -9920,16 +9921,16 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B167">
         <v>10950</v>
       </c>
-      <c r="D167" t="b">
-        <v>1</v>
+      <c r="D167">
+        <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9938,13 +9939,13 @@
         <v>60</v>
       </c>
       <c r="L167" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M167">
         <v>27</v>
       </c>
       <c r="R167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S167">
         <v>7</v>
@@ -9953,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="U167" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y167">
         <v>260</v>
@@ -9964,16 +9965,16 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B168">
         <v>10950</v>
       </c>
-      <c r="D168" t="b">
-        <v>1</v>
+      <c r="D168">
+        <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -9982,13 +9983,13 @@
         <v>60</v>
       </c>
       <c r="L168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M168">
         <v>27</v>
       </c>
       <c r="R168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S168">
         <v>7</v>
@@ -9997,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="U168" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y168">
         <v>275</v>
@@ -10008,16 +10009,16 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B169">
         <v>10950</v>
       </c>
-      <c r="D169" t="b">
-        <v>1</v>
+      <c r="D169">
+        <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10026,13 +10027,13 @@
         <v>60</v>
       </c>
       <c r="L169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M169">
         <v>29</v>
       </c>
       <c r="R169" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S169">
         <v>7</v>
@@ -10041,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="U169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y169">
         <v>285</v>
@@ -10052,16 +10053,16 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B170">
         <v>9990</v>
       </c>
-      <c r="D170" t="b">
-        <v>1</v>
+      <c r="D170">
+        <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -10070,13 +10071,13 @@
         <v>60</v>
       </c>
       <c r="L170" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M170">
         <v>29.5</v>
       </c>
       <c r="R170" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S170">
         <v>9</v>
@@ -10085,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="U170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y170">
         <v>270</v>
@@ -10096,16 +10097,16 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B171">
         <v>9990</v>
       </c>
-      <c r="D171" t="b">
-        <v>1</v>
+      <c r="D171">
+        <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -10114,13 +10115,13 @@
         <v>60</v>
       </c>
       <c r="L171" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M171">
         <v>29.9</v>
       </c>
       <c r="R171" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S171">
         <v>9</v>
@@ -10129,7 +10130,7 @@
         <v>1</v>
       </c>
       <c r="U171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y171">
         <v>285</v>
@@ -10140,16 +10141,16 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B172">
         <v>9990</v>
       </c>
-      <c r="D172" t="b">
-        <v>1</v>
+      <c r="D172">
+        <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -10158,13 +10159,13 @@
         <v>60</v>
       </c>
       <c r="L172" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M172">
         <v>29.9</v>
       </c>
       <c r="R172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S172">
         <v>9</v>
@@ -10173,7 +10174,7 @@
         <v>1</v>
       </c>
       <c r="U172" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y172">
         <v>325</v>
@@ -10184,16 +10185,16 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B173">
         <v>9990</v>
       </c>
-      <c r="D173" t="b">
-        <v>1</v>
+      <c r="D173">
+        <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -10202,13 +10203,13 @@
         <v>60</v>
       </c>
       <c r="L173" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M173">
         <v>29.9</v>
       </c>
       <c r="R173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S173">
         <v>9</v>
@@ -10217,7 +10218,7 @@
         <v>1</v>
       </c>
       <c r="U173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y173">
         <v>260</v>
@@ -10228,16 +10229,16 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B174">
         <v>11490</v>
       </c>
-      <c r="D174" t="b">
-        <v>1</v>
+      <c r="D174">
+        <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -10246,13 +10247,13 @@
         <v>60</v>
       </c>
       <c r="L174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M174">
         <v>29.2</v>
       </c>
       <c r="R174" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S174">
         <v>9</v>
@@ -10261,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="U174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y174">
         <v>260</v>
@@ -10272,16 +10273,16 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B175">
         <v>11490</v>
       </c>
-      <c r="D175" t="b">
-        <v>1</v>
+      <c r="D175">
+        <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -10290,13 +10291,13 @@
         <v>60</v>
       </c>
       <c r="L175" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M175">
         <v>29.2</v>
       </c>
       <c r="R175" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S175">
         <v>9</v>
@@ -10305,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="U175" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y175">
         <v>285</v>
@@ -10316,16 +10317,16 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B176">
         <v>11490</v>
       </c>
-      <c r="D176" t="b">
-        <v>1</v>
+      <c r="D176">
+        <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -10334,13 +10335,13 @@
         <v>60</v>
       </c>
       <c r="L176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M176">
         <v>29.2</v>
       </c>
       <c r="R176" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S176">
         <v>9</v>
@@ -10349,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="U176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y176">
         <v>270</v>
@@ -10360,16 +10361,16 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B177">
         <v>11490</v>
       </c>
-      <c r="D177" t="b">
-        <v>1</v>
+      <c r="D177">
+        <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -10378,13 +10379,13 @@
         <v>60</v>
       </c>
       <c r="L177" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M177">
         <v>29.2</v>
       </c>
       <c r="R177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S177">
         <v>9</v>
@@ -10393,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="U177" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y177">
         <v>300</v>
@@ -10404,16 +10405,16 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B178">
         <v>12060</v>
       </c>
-      <c r="D178" t="b">
-        <v>1</v>
+      <c r="D178">
+        <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -10422,13 +10423,13 @@
         <v>60</v>
       </c>
       <c r="L178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M178">
         <v>32.4</v>
       </c>
       <c r="R178" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S178">
         <v>9</v>
@@ -10437,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="U178" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y178">
         <v>300</v>
@@ -10448,16 +10449,16 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B179">
         <v>14010</v>
       </c>
-      <c r="D179" t="b">
-        <v>1</v>
+      <c r="D179">
+        <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -10466,13 +10467,13 @@
         <v>60</v>
       </c>
       <c r="L179" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M179">
         <v>34</v>
       </c>
       <c r="R179" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S179">
         <v>9</v>
@@ -10481,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="U179" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y179">
         <v>270</v>
@@ -10492,16 +10493,16 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B180">
         <v>14010</v>
       </c>
-      <c r="D180" t="b">
-        <v>1</v>
+      <c r="D180">
+        <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -10510,13 +10511,13 @@
         <v>60</v>
       </c>
       <c r="L180" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M180">
         <v>34</v>
       </c>
       <c r="R180" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S180">
         <v>9</v>
@@ -10525,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="U180" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y180">
         <v>285</v>
@@ -10536,16 +10537,16 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B181">
         <v>14010</v>
       </c>
-      <c r="D181" t="b">
-        <v>1</v>
+      <c r="D181">
+        <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -10554,13 +10555,13 @@
         <v>60</v>
       </c>
       <c r="L181" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M181">
         <v>36.1</v>
       </c>
       <c r="R181" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S181">
         <v>9</v>
@@ -10569,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="U181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y181">
         <v>285</v>
@@ -10580,16 +10581,16 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B182">
         <v>11250</v>
       </c>
-      <c r="D182" t="b">
-        <v>1</v>
+      <c r="D182">
+        <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -10598,13 +10599,13 @@
         <v>60</v>
       </c>
       <c r="L182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M182">
         <v>34.299999999999997</v>
       </c>
       <c r="R182" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S182">
         <v>11</v>
@@ -10613,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="U182" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y182">
         <v>270</v>
@@ -10624,16 +10625,16 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B183">
         <v>11250</v>
       </c>
-      <c r="D183" t="b">
-        <v>1</v>
+      <c r="D183">
+        <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -10642,13 +10643,13 @@
         <v>60</v>
       </c>
       <c r="L183" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M183">
         <v>36.1</v>
       </c>
       <c r="R183" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S183">
         <v>11</v>
@@ -10657,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="U183" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y183">
         <v>285</v>
@@ -10668,16 +10669,16 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B184">
         <v>11250</v>
       </c>
-      <c r="D184" t="b">
-        <v>1</v>
+      <c r="D184">
+        <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -10686,13 +10687,13 @@
         <v>60</v>
       </c>
       <c r="L184" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M184">
         <v>36.1</v>
       </c>
       <c r="R184" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S184">
         <v>11</v>
@@ -10701,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="U184" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y184">
         <v>325</v>
@@ -10712,16 +10713,16 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B185">
         <v>11250</v>
       </c>
-      <c r="D185" t="b">
-        <v>1</v>
+      <c r="D185">
+        <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -10730,13 +10731,13 @@
         <v>60</v>
       </c>
       <c r="L185" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M185">
         <v>36.1</v>
       </c>
       <c r="R185" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S185">
         <v>11</v>
@@ -10745,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="U185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y185">
         <v>260</v>
@@ -10756,16 +10757,16 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B186">
         <v>12360</v>
       </c>
-      <c r="D186" t="b">
-        <v>1</v>
+      <c r="D186">
+        <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -10774,13 +10775,13 @@
         <v>60</v>
       </c>
       <c r="L186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M186">
         <v>33.799999999999997</v>
       </c>
       <c r="R186" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S186">
         <v>11</v>
@@ -10789,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="U186" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y186">
         <v>260</v>
@@ -10800,16 +10801,16 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B187">
         <v>12360</v>
       </c>
-      <c r="D187" t="b">
-        <v>1</v>
+      <c r="D187">
+        <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -10818,13 +10819,13 @@
         <v>60</v>
       </c>
       <c r="L187" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M187">
         <v>33.799999999999997</v>
       </c>
       <c r="R187" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S187">
         <v>11</v>
@@ -10833,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="U187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y187">
         <v>285</v>
@@ -10844,16 +10845,16 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B188">
         <v>12360</v>
       </c>
-      <c r="D188" t="b">
-        <v>1</v>
+      <c r="D188">
+        <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -10862,13 +10863,13 @@
         <v>60</v>
       </c>
       <c r="L188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M188">
         <v>33.799999999999997</v>
       </c>
       <c r="R188" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S188">
         <v>11</v>
@@ -10877,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="U188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y188">
         <v>270</v>
@@ -10888,16 +10889,16 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B189">
         <v>12360</v>
       </c>
-      <c r="D189" t="b">
-        <v>1</v>
+      <c r="D189">
+        <v>0</v>
       </c>
       <c r="F189" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -10906,13 +10907,13 @@
         <v>60</v>
       </c>
       <c r="L189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M189">
         <v>33.799999999999997</v>
       </c>
       <c r="R189" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S189">
         <v>11</v>
@@ -10921,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="U189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y189">
         <v>300</v>
@@ -10932,16 +10933,16 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B190">
         <v>12990</v>
       </c>
-      <c r="D190" t="b">
-        <v>1</v>
+      <c r="D190">
+        <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -10950,13 +10951,13 @@
         <v>60</v>
       </c>
       <c r="L190" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M190">
         <v>39.1</v>
       </c>
       <c r="R190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S190">
         <v>11</v>
@@ -10965,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="U190" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y190">
         <v>300</v>
@@ -10976,16 +10977,16 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B191">
         <v>15750</v>
       </c>
-      <c r="D191" t="b">
-        <v>1</v>
+      <c r="D191">
+        <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I191">
         <v>0</v>
@@ -10994,13 +10995,13 @@
         <v>60</v>
       </c>
       <c r="L191" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M191">
         <v>39.5</v>
       </c>
       <c r="R191" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S191">
         <v>11</v>
@@ -11009,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="U191" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y191">
         <v>270</v>
@@ -11020,16 +11021,16 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B192">
         <v>15750</v>
       </c>
-      <c r="D192" t="b">
-        <v>1</v>
+      <c r="D192">
+        <v>0</v>
       </c>
       <c r="F192" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -11038,13 +11039,13 @@
         <v>60</v>
       </c>
       <c r="L192" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M192">
         <v>39.5</v>
       </c>
       <c r="R192" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S192">
         <v>11</v>
@@ -11053,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="U192" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y192">
         <v>285</v>
@@ -11064,16 +11065,16 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B193">
         <v>15750</v>
       </c>
-      <c r="D193" t="b">
-        <v>1</v>
+      <c r="D193">
+        <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -11082,13 +11083,13 @@
         <v>60</v>
       </c>
       <c r="L193" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M193">
         <v>41.6</v>
       </c>
       <c r="R193" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S193">
         <v>11</v>
@@ -11097,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="U193" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y193">
         <v>285</v>
@@ -11108,16 +11109,16 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B194">
         <v>12360</v>
       </c>
-      <c r="D194" t="b">
-        <v>1</v>
+      <c r="D194">
+        <v>0</v>
       </c>
       <c r="F194" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -11126,13 +11127,13 @@
         <v>60</v>
       </c>
       <c r="L194" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M194">
         <v>37.200000000000003</v>
       </c>
       <c r="R194" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S194">
         <v>14</v>
@@ -11141,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="U194" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y194">
         <v>270</v>
@@ -11152,16 +11153,16 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B195">
         <v>12360</v>
       </c>
-      <c r="D195" t="b">
-        <v>1</v>
+      <c r="D195">
+        <v>0</v>
       </c>
       <c r="F195" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -11170,13 +11171,13 @@
         <v>60</v>
       </c>
       <c r="L195" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M195">
         <v>39.799999999999997</v>
       </c>
       <c r="R195" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S195">
         <v>14</v>
@@ -11185,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="U195" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y195">
         <v>285</v>
@@ -11196,16 +11197,16 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B196">
         <v>12360</v>
       </c>
-      <c r="D196" t="b">
-        <v>1</v>
+      <c r="D196">
+        <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -11214,13 +11215,13 @@
         <v>60</v>
       </c>
       <c r="L196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M196">
         <v>39.799999999999997</v>
       </c>
       <c r="R196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S196">
         <v>14</v>
@@ -11229,7 +11230,7 @@
         <v>1</v>
       </c>
       <c r="U196" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y196">
         <v>325</v>
@@ -11240,16 +11241,16 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B197">
         <v>12360</v>
       </c>
-      <c r="D197" t="b">
-        <v>1</v>
+      <c r="D197">
+        <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -11258,13 +11259,13 @@
         <v>60</v>
       </c>
       <c r="L197" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M197">
         <v>39.799999999999997</v>
       </c>
       <c r="R197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S197">
         <v>14</v>
@@ -11273,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="U197" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y197">
         <v>260</v>
@@ -11284,16 +11285,16 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B198">
         <v>13590</v>
       </c>
-      <c r="D198" t="b">
-        <v>1</v>
+      <c r="D198">
+        <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -11302,13 +11303,13 @@
         <v>60</v>
       </c>
       <c r="L198" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M198">
         <v>37</v>
       </c>
       <c r="R198" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S198">
         <v>14</v>
@@ -11317,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="U198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y198">
         <v>260</v>
@@ -11328,16 +11329,16 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B199">
         <v>13590</v>
       </c>
-      <c r="D199" t="b">
-        <v>1</v>
+      <c r="D199">
+        <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -11346,13 +11347,13 @@
         <v>60</v>
       </c>
       <c r="L199" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M199">
         <v>37</v>
       </c>
       <c r="R199" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S199">
         <v>14</v>
@@ -11361,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="U199" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y199">
         <v>285</v>
@@ -11372,16 +11373,16 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B200">
         <v>13590</v>
       </c>
-      <c r="D200" t="b">
-        <v>1</v>
+      <c r="D200">
+        <v>0</v>
       </c>
       <c r="F200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -11390,13 +11391,13 @@
         <v>60</v>
       </c>
       <c r="L200" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M200">
         <v>37</v>
       </c>
       <c r="R200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S200">
         <v>14</v>
@@ -11405,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="U200" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y200">
         <v>270</v>
@@ -11416,16 +11417,16 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B201">
         <v>13590</v>
       </c>
-      <c r="D201" t="b">
-        <v>1</v>
+      <c r="D201">
+        <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -11434,13 +11435,13 @@
         <v>60</v>
       </c>
       <c r="L201" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M201">
         <v>37</v>
       </c>
       <c r="R201" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S201">
         <v>14</v>
@@ -11449,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="U201" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y201">
         <v>300</v>
@@ -11460,16 +11461,16 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B202">
         <v>14940</v>
       </c>
-      <c r="D202" t="b">
-        <v>1</v>
+      <c r="D202">
+        <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -11478,13 +11479,13 @@
         <v>60</v>
       </c>
       <c r="L202" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M202">
         <v>48</v>
       </c>
       <c r="R202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S202">
         <v>14</v>
@@ -11493,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="U202" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y202">
         <v>300</v>
@@ -11504,16 +11505,16 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B203">
         <v>17280</v>
       </c>
-      <c r="D203" t="b">
-        <v>1</v>
+      <c r="D203">
+        <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -11522,13 +11523,13 @@
         <v>60</v>
       </c>
       <c r="L203" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M203">
         <v>44</v>
       </c>
       <c r="R203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S203">
         <v>14</v>
@@ -11537,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="U203" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y203">
         <v>270</v>
@@ -11548,16 +11549,16 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B204">
         <v>17280</v>
       </c>
-      <c r="D204" t="b">
-        <v>1</v>
+      <c r="D204">
+        <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -11566,13 +11567,13 @@
         <v>60</v>
       </c>
       <c r="L204" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M204">
         <v>44</v>
       </c>
       <c r="R204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S204">
         <v>14</v>
@@ -11581,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="U204" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y204">
         <v>285</v>
@@ -11592,16 +11593,16 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B205">
         <v>17280</v>
       </c>
-      <c r="D205" t="b">
-        <v>1</v>
+      <c r="D205">
+        <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -11610,13 +11611,13 @@
         <v>60</v>
       </c>
       <c r="L205" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M205">
         <v>45.8</v>
       </c>
       <c r="R205" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S205">
         <v>14</v>
@@ -11625,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="U205" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y205">
         <v>285</v>
@@ -11636,16 +11637,16 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B206">
         <v>14850</v>
       </c>
-      <c r="D206" t="b">
-        <v>1</v>
+      <c r="D206">
+        <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -11654,13 +11655,13 @@
         <v>60</v>
       </c>
       <c r="L206" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M206">
         <v>49.6</v>
       </c>
       <c r="R206" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S206">
         <v>18</v>
@@ -11669,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="U206" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y206">
         <v>270</v>
@@ -11680,16 +11681,16 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B207">
         <v>14850</v>
       </c>
-      <c r="D207" t="b">
-        <v>1</v>
+      <c r="D207">
+        <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -11698,13 +11699,13 @@
         <v>60</v>
       </c>
       <c r="L207" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M207">
         <v>52.3</v>
       </c>
       <c r="R207" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S207">
         <v>18</v>
@@ -11713,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="U207" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y207">
         <v>285</v>
@@ -11724,16 +11725,16 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B208">
         <v>14850</v>
       </c>
-      <c r="D208" t="b">
-        <v>1</v>
+      <c r="D208">
+        <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -11742,13 +11743,13 @@
         <v>60</v>
       </c>
       <c r="L208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M208">
         <v>52.3</v>
       </c>
       <c r="R208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S208">
         <v>18</v>
@@ -11757,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="U208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y208">
         <v>325</v>
@@ -11768,16 +11769,16 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B209">
         <v>14850</v>
       </c>
-      <c r="D209" t="b">
-        <v>1</v>
+      <c r="D209">
+        <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -11786,13 +11787,13 @@
         <v>60</v>
       </c>
       <c r="L209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M209">
         <v>52.3</v>
       </c>
       <c r="R209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S209">
         <v>18</v>
@@ -11801,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="U209" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y209">
         <v>260</v>
@@ -11812,16 +11813,16 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B210">
         <v>16350</v>
       </c>
-      <c r="D210" t="b">
-        <v>1</v>
+      <c r="D210">
+        <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -11830,13 +11831,13 @@
         <v>60</v>
       </c>
       <c r="L210" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M210">
         <v>50.1</v>
       </c>
       <c r="R210" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S210">
         <v>18</v>
@@ -11845,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="U210" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y210">
         <v>260</v>
@@ -11856,16 +11857,16 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B211">
         <v>16350</v>
       </c>
-      <c r="D211" t="b">
-        <v>1</v>
+      <c r="D211">
+        <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -11874,13 +11875,13 @@
         <v>60</v>
       </c>
       <c r="L211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M211">
         <v>50.1</v>
       </c>
       <c r="R211" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S211">
         <v>18</v>
@@ -11889,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="U211" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y211">
         <v>285</v>
@@ -11900,16 +11901,16 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B212">
         <v>16350</v>
       </c>
-      <c r="D212" t="b">
-        <v>1</v>
+      <c r="D212">
+        <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -11918,13 +11919,13 @@
         <v>60</v>
       </c>
       <c r="L212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M212">
         <v>50.1</v>
       </c>
       <c r="R212" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S212">
         <v>18</v>
@@ -11933,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="U212" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y212">
         <v>270</v>
@@ -11944,16 +11945,16 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B213">
         <v>16110</v>
       </c>
-      <c r="D213" t="b">
-        <v>1</v>
+      <c r="D213">
+        <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -11962,13 +11963,13 @@
         <v>60</v>
       </c>
       <c r="L213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M213">
         <v>52.1</v>
       </c>
       <c r="R213" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S213">
         <v>22</v>
@@ -11977,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="U213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y213">
         <v>270</v>
@@ -11988,16 +11989,16 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B214">
         <v>16110</v>
       </c>
-      <c r="D214" t="b">
-        <v>1</v>
+      <c r="D214">
+        <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -12006,13 +12007,13 @@
         <v>60</v>
       </c>
       <c r="L214" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M214">
         <v>61.9</v>
       </c>
       <c r="R214" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S214">
         <v>22</v>
@@ -12021,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="U214" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y214">
         <v>285</v>
@@ -12032,16 +12033,16 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B215">
         <v>16110</v>
       </c>
-      <c r="D215" t="b">
-        <v>1</v>
+      <c r="D215">
+        <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -12050,13 +12051,13 @@
         <v>60</v>
       </c>
       <c r="L215" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M215">
         <v>61.9</v>
       </c>
       <c r="R215" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S215">
         <v>22</v>
@@ -12065,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="U215" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y215">
         <v>325</v>
@@ -12076,16 +12077,16 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B216">
         <v>16110</v>
       </c>
-      <c r="D216" t="b">
-        <v>1</v>
+      <c r="D216">
+        <v>0</v>
       </c>
       <c r="F216" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -12094,13 +12095,13 @@
         <v>60</v>
       </c>
       <c r="L216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M216">
         <v>61.9</v>
       </c>
       <c r="R216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S216">
         <v>22</v>
@@ -12109,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="U216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y216">
         <v>260</v>
@@ -12120,16 +12121,16 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B217">
         <v>17730</v>
       </c>
-      <c r="D217" t="b">
-        <v>1</v>
+      <c r="D217">
+        <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -12138,13 +12139,13 @@
         <v>60</v>
       </c>
       <c r="L217" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M217">
         <v>53.7</v>
       </c>
       <c r="R217" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S217">
         <v>22</v>
@@ -12153,7 +12154,7 @@
         <v>1</v>
       </c>
       <c r="U217" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y217">
         <v>260</v>
@@ -12164,16 +12165,16 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B218">
         <v>17730</v>
       </c>
-      <c r="D218" t="b">
-        <v>1</v>
+      <c r="D218">
+        <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -12182,13 +12183,13 @@
         <v>60</v>
       </c>
       <c r="L218" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M218">
         <v>53.7</v>
       </c>
       <c r="R218" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S218">
         <v>22</v>
@@ -12197,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="U218" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y218">
         <v>285</v>
@@ -12208,16 +12209,16 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B219">
         <v>17730</v>
       </c>
-      <c r="D219" t="b">
-        <v>1</v>
+      <c r="D219">
+        <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -12226,13 +12227,13 @@
         <v>60</v>
       </c>
       <c r="L219" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M219">
         <v>53.7</v>
       </c>
       <c r="R219" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S219">
         <v>22</v>
@@ -12241,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="U219" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y219">
         <v>270</v>
@@ -12252,16 +12253,16 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B220">
         <v>22830</v>
       </c>
-      <c r="D220" t="b">
-        <v>1</v>
+      <c r="D220">
+        <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -12270,13 +12271,13 @@
         <v>60</v>
       </c>
       <c r="L220" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M220">
         <v>52.1</v>
       </c>
       <c r="R220" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S220">
         <v>22</v>
@@ -12285,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="U220" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y220">
         <v>270</v>
@@ -12296,16 +12297,16 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B221">
         <v>22830</v>
       </c>
-      <c r="D221" t="b">
-        <v>1</v>
+      <c r="D221">
+        <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -12314,13 +12315,13 @@
         <v>60</v>
       </c>
       <c r="L221" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M221">
         <v>61.9</v>
       </c>
       <c r="R221" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S221">
         <v>22</v>
@@ -12329,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="U221" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y221">
         <v>285</v>
@@ -12340,16 +12341,16 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B222">
         <v>22830</v>
       </c>
-      <c r="D222" t="b">
-        <v>1</v>
+      <c r="D222">
+        <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -12358,13 +12359,13 @@
         <v>60</v>
       </c>
       <c r="L222" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M222">
         <v>61.9</v>
       </c>
       <c r="R222" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S222">
         <v>22</v>
@@ -12373,7 +12374,7 @@
         <v>1</v>
       </c>
       <c r="U222" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y222">
         <v>325</v>
@@ -12384,16 +12385,16 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B223">
         <v>22830</v>
       </c>
-      <c r="D223" t="b">
-        <v>1</v>
+      <c r="D223">
+        <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -12402,13 +12403,13 @@
         <v>60</v>
       </c>
       <c r="L223" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M223">
         <v>61.9</v>
       </c>
       <c r="R223" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S223">
         <v>22</v>
@@ -12417,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="U223" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y223">
         <v>260</v>
@@ -12428,16 +12429,16 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B224">
         <v>24890</v>
       </c>
-      <c r="D224" t="b">
-        <v>1</v>
+      <c r="D224">
+        <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -12446,13 +12447,13 @@
         <v>60</v>
       </c>
       <c r="L224" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M224">
         <v>53.7</v>
       </c>
       <c r="R224" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S224">
         <v>22</v>
@@ -12461,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="U224" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y224">
         <v>260</v>
@@ -12472,16 +12473,16 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B225">
         <v>24890</v>
       </c>
-      <c r="D225" t="b">
-        <v>1</v>
+      <c r="D225">
+        <v>0</v>
       </c>
       <c r="F225" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -12490,13 +12491,13 @@
         <v>60</v>
       </c>
       <c r="L225" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M225">
         <v>53.7</v>
       </c>
       <c r="R225" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S225">
         <v>22</v>
@@ -12505,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="U225" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y225">
         <v>285</v>
@@ -12516,16 +12517,16 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B226">
         <v>24890</v>
       </c>
-      <c r="D226" t="b">
-        <v>1</v>
+      <c r="D226">
+        <v>0</v>
       </c>
       <c r="F226" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -12534,13 +12535,13 @@
         <v>60</v>
       </c>
       <c r="L226" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M226">
         <v>53.7</v>
       </c>
       <c r="R226" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S226">
         <v>22</v>
@@ -12549,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="U226" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y226">
         <v>270</v>
@@ -12560,16 +12561,16 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B227">
         <v>26640</v>
       </c>
-      <c r="D227" t="b">
-        <v>1</v>
+      <c r="D227">
+        <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -12578,13 +12579,13 @@
         <v>60</v>
       </c>
       <c r="L227" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M227">
         <v>64.400000000000006</v>
       </c>
       <c r="R227" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S227">
         <v>27</v>
@@ -12593,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="U227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y227">
         <v>270</v>
@@ -12604,16 +12605,16 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B228">
         <v>26640</v>
       </c>
-      <c r="D228" t="b">
-        <v>1</v>
+      <c r="D228">
+        <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -12622,13 +12623,13 @@
         <v>60</v>
       </c>
       <c r="L228" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M228">
         <v>66.900000000000006</v>
       </c>
       <c r="R228" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S228">
         <v>27</v>
@@ -12637,7 +12638,7 @@
         <v>1</v>
       </c>
       <c r="U228" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y228">
         <v>285</v>
@@ -12648,16 +12649,16 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B229">
         <v>26640</v>
       </c>
-      <c r="D229" t="b">
-        <v>1</v>
+      <c r="D229">
+        <v>0</v>
       </c>
       <c r="F229" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -12666,13 +12667,13 @@
         <v>60</v>
       </c>
       <c r="L229" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M229">
         <v>66.900000000000006</v>
       </c>
       <c r="R229" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S229">
         <v>27</v>
@@ -12681,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="U229" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y229">
         <v>325</v>
@@ -12692,16 +12693,16 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B230">
         <v>26640</v>
       </c>
-      <c r="D230" t="b">
-        <v>1</v>
+      <c r="D230">
+        <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -12710,13 +12711,13 @@
         <v>60</v>
       </c>
       <c r="L230" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M230">
         <v>66.900000000000006</v>
       </c>
       <c r="R230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S230">
         <v>27</v>
@@ -12725,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="U230" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y230">
         <v>260</v>
@@ -12736,16 +12737,16 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B231">
         <v>29250</v>
       </c>
-      <c r="D231" t="b">
-        <v>1</v>
+      <c r="D231">
+        <v>0</v>
       </c>
       <c r="F231" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -12754,13 +12755,13 @@
         <v>60</v>
       </c>
       <c r="L231" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M231">
         <v>64.599999999999994</v>
       </c>
       <c r="R231" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S231">
         <v>27</v>
@@ -12769,7 +12770,7 @@
         <v>1</v>
       </c>
       <c r="U231" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y231">
         <v>260</v>
@@ -12780,16 +12781,16 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B232">
         <v>29250</v>
       </c>
-      <c r="D232" t="b">
-        <v>1</v>
+      <c r="D232">
+        <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -12798,13 +12799,13 @@
         <v>60</v>
       </c>
       <c r="L232" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M232">
         <v>64.599999999999994</v>
       </c>
       <c r="R232" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S232">
         <v>27</v>
@@ -12813,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="U232" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y232">
         <v>275</v>
@@ -12824,28 +12825,28 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B233">
         <v>115740</v>
       </c>
-      <c r="D233" t="b">
-        <v>1</v>
+      <c r="D233">
+        <v>0</v>
       </c>
       <c r="F233" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J233">
         <v>60</v>
       </c>
       <c r="L233" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M233">
         <v>400</v>
       </c>
       <c r="R233" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S233">
         <v>72</v>
@@ -12854,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="U233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y233">
         <v>270</v>
@@ -12865,28 +12866,28 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B234">
         <v>127590</v>
       </c>
-      <c r="D234" t="b">
-        <v>1</v>
+      <c r="D234">
+        <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J234">
         <v>60</v>
       </c>
       <c r="L234" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M234">
         <v>400</v>
       </c>
       <c r="R234" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S234">
         <v>67.2</v>
@@ -12895,7 +12896,7 @@
         <v>3</v>
       </c>
       <c r="U234" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y234">
         <v>270</v>
@@ -12906,28 +12907,28 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B235">
         <v>127590</v>
       </c>
-      <c r="D235" t="b">
-        <v>1</v>
+      <c r="D235">
+        <v>0</v>
       </c>
       <c r="F235" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J235">
         <v>60</v>
       </c>
       <c r="L235" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M235">
         <v>400</v>
       </c>
       <c r="R235" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S235">
         <v>86.4</v>
@@ -12936,7 +12937,7 @@
         <v>3</v>
       </c>
       <c r="U235" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y235">
         <v>275</v>
@@ -12947,28 +12948,28 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B236">
         <v>163200</v>
       </c>
-      <c r="D236" t="b">
-        <v>1</v>
+      <c r="D236">
+        <v>0</v>
       </c>
       <c r="F236" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J236">
         <v>60</v>
       </c>
       <c r="L236" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M236">
         <v>550</v>
       </c>
       <c r="R236" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S236">
         <v>112.5</v>
@@ -12977,7 +12978,7 @@
         <v>3</v>
       </c>
       <c r="U236" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y236">
         <v>270</v>
@@ -12988,28 +12989,28 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B237">
         <v>179520</v>
       </c>
-      <c r="D237" t="b">
-        <v>1</v>
+      <c r="D237">
+        <v>0</v>
       </c>
       <c r="F237" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J237">
         <v>60</v>
       </c>
       <c r="L237" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M237">
         <v>550</v>
       </c>
       <c r="R237" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S237">
         <v>123.7</v>
@@ -13018,7 +13019,7 @@
         <v>3</v>
       </c>
       <c r="U237" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y237">
         <v>245</v>
@@ -13029,28 +13030,28 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B238">
         <v>179520</v>
       </c>
-      <c r="D238" t="b">
-        <v>1</v>
+      <c r="D238">
+        <v>0</v>
       </c>
       <c r="F238" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J238">
         <v>60</v>
       </c>
       <c r="L238" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M238">
         <v>550</v>
       </c>
       <c r="R238" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S238">
         <v>135</v>
@@ -13059,7 +13060,7 @@
         <v>3</v>
       </c>
       <c r="U238" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y238">
         <v>260</v>
@@ -13070,28 +13071,28 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B239">
         <v>249090</v>
       </c>
-      <c r="D239" t="b">
-        <v>1</v>
+      <c r="D239">
+        <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J239">
         <v>60</v>
       </c>
       <c r="L239" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M239">
         <v>650</v>
       </c>
       <c r="R239" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S239">
         <v>144</v>
@@ -13100,7 +13101,7 @@
         <v>3</v>
       </c>
       <c r="U239" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y239">
         <v>270</v>
@@ -13111,28 +13112,28 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B240">
         <v>274000</v>
       </c>
-      <c r="D240" t="b">
-        <v>1</v>
+      <c r="D240">
+        <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J240">
         <v>60</v>
       </c>
       <c r="L240" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M240">
         <v>650</v>
       </c>
       <c r="R240" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S240">
         <v>158.4</v>
@@ -13141,7 +13142,7 @@
         <v>3</v>
       </c>
       <c r="U240" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y240">
         <v>245</v>
@@ -13152,28 +13153,28 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B241">
         <v>274000</v>
       </c>
-      <c r="D241" t="b">
-        <v>1</v>
+      <c r="D241">
+        <v>0</v>
       </c>
       <c r="F241" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J241">
         <v>60</v>
       </c>
       <c r="L241" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M241">
         <v>650</v>
       </c>
       <c r="R241" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S241">
         <v>172.8</v>
@@ -13182,7 +13183,7 @@
         <v>3</v>
       </c>
       <c r="U241" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y241">
         <v>260</v>
@@ -13193,16 +13194,16 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B242">
         <v>1015</v>
       </c>
-      <c r="D242" t="b">
-        <v>1</v>
+      <c r="D242">
+        <v>0</v>
       </c>
       <c r="F242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -13211,13 +13212,13 @@
         <v>60</v>
       </c>
       <c r="L242" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M242">
         <v>3</v>
       </c>
       <c r="R242" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S242">
         <v>0.25</v>
@@ -13226,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="U242" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y242">
         <v>260</v>
@@ -13237,16 +13238,16 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B243">
         <v>1330</v>
       </c>
-      <c r="D243" t="b">
-        <v>1</v>
+      <c r="D243">
+        <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -13255,13 +13256,13 @@
         <v>60</v>
       </c>
       <c r="L243" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M243">
         <v>4</v>
       </c>
       <c r="R243" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S243">
         <v>0.5</v>
@@ -13270,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="U243" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y243">
         <v>260</v>
@@ -13281,16 +13282,16 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B244">
         <v>1715</v>
       </c>
-      <c r="D244" t="b">
-        <v>1</v>
+      <c r="D244">
+        <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -13299,22 +13300,22 @@
         <v>60</v>
       </c>
       <c r="L244" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M244">
         <v>5</v>
       </c>
       <c r="R244" t="s">
+        <v>351</v>
+      </c>
+      <c r="S244">
+        <v>1</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244" t="s">
         <v>352</v>
-      </c>
-      <c r="S244">
-        <v>1</v>
-      </c>
-      <c r="T244">
-        <v>1</v>
-      </c>
-      <c r="U244" t="s">
-        <v>353</v>
       </c>
       <c r="Y244">
         <v>260</v>
@@ -13325,16 +13326,16 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B245">
         <v>2135</v>
       </c>
-      <c r="D245" t="b">
-        <v>1</v>
+      <c r="D245">
+        <v>0</v>
       </c>
       <c r="F245" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I245">
         <v>0</v>
@@ -13343,13 +13344,13 @@
         <v>60</v>
       </c>
       <c r="L245" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M245">
         <v>10.5</v>
       </c>
       <c r="R245" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S245">
         <v>2.2000000000000002</v>
@@ -13358,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="U245" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y245">
         <v>260</v>
@@ -13369,16 +13370,16 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B246">
         <v>3750</v>
       </c>
-      <c r="D246" t="b">
-        <v>1</v>
+      <c r="D246">
+        <v>0</v>
       </c>
       <c r="F246" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I246">
         <v>0</v>
@@ -13387,13 +13388,13 @@
         <v>60</v>
       </c>
       <c r="L246" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M246">
         <v>22</v>
       </c>
       <c r="R246" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S246">
         <v>3.5</v>
@@ -13402,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="U246" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y246">
         <v>285</v>
@@ -13413,16 +13414,16 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B247">
         <v>4230</v>
       </c>
-      <c r="D247" t="b">
-        <v>1</v>
+      <c r="D247">
+        <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -13431,13 +13432,13 @@
         <v>60</v>
       </c>
       <c r="L247" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M247">
         <v>23</v>
       </c>
       <c r="R247" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S247">
         <v>5.5</v>
@@ -13446,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="U247" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y247">
         <v>285</v>
@@ -13457,16 +13458,16 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B248">
         <v>9720</v>
       </c>
-      <c r="D248" t="b">
-        <v>1</v>
+      <c r="D248">
+        <v>0</v>
       </c>
       <c r="F248" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -13475,19 +13476,19 @@
         <v>60</v>
       </c>
       <c r="L248" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M248">
         <v>26.4</v>
       </c>
       <c r="R248" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S248">
         <v>7</v>
       </c>
       <c r="U248" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y248">
         <v>280</v>
@@ -13495,16 +13496,16 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B249">
         <v>11490</v>
       </c>
-      <c r="D249" t="b">
-        <v>1</v>
+      <c r="D249">
+        <v>0</v>
       </c>
       <c r="F249" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -13513,19 +13514,19 @@
         <v>60</v>
       </c>
       <c r="L249" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M249">
         <v>29.1</v>
       </c>
       <c r="R249" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S249">
         <v>9</v>
       </c>
       <c r="U249" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y249">
         <v>280</v>
@@ -13533,16 +13534,16 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B250">
         <v>12360</v>
       </c>
-      <c r="D250" t="b">
-        <v>1</v>
+      <c r="D250">
+        <v>0</v>
       </c>
       <c r="F250" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -13551,19 +13552,19 @@
         <v>60</v>
       </c>
       <c r="L250" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M250">
         <v>35.4</v>
       </c>
       <c r="R250" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S250">
         <v>11</v>
       </c>
       <c r="U250" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y250">
         <v>280</v>
@@ -13571,16 +13572,16 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B251">
         <v>13590</v>
       </c>
-      <c r="D251" t="b">
-        <v>1</v>
+      <c r="D251">
+        <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -13589,19 +13590,19 @@
         <v>60</v>
       </c>
       <c r="L251" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M251">
         <v>38.6</v>
       </c>
       <c r="R251" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S251">
         <v>14</v>
       </c>
       <c r="U251" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y251">
         <v>280</v>
@@ -13609,16 +13610,16 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B252">
         <v>16350</v>
       </c>
-      <c r="D252" t="b">
-        <v>1</v>
+      <c r="D252">
+        <v>0</v>
       </c>
       <c r="F252" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -13627,19 +13628,19 @@
         <v>60</v>
       </c>
       <c r="L252" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M252">
         <v>51.6</v>
       </c>
       <c r="R252" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S252">
         <v>18</v>
       </c>
       <c r="U252" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y252">
         <v>280</v>
@@ -13647,16 +13648,16 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B253">
         <v>17730</v>
       </c>
-      <c r="D253" t="b">
-        <v>1</v>
+      <c r="D253">
+        <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -13665,19 +13666,19 @@
         <v>60</v>
       </c>
       <c r="L253" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M253">
         <v>59.9</v>
       </c>
       <c r="R253" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S253">
         <v>22</v>
       </c>
       <c r="U253" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y253">
         <v>280</v>
@@ -13685,16 +13686,16 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B254">
         <v>29250</v>
       </c>
-      <c r="D254" t="b">
-        <v>1</v>
+      <c r="D254">
+        <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -13703,19 +13704,19 @@
         <v>60</v>
       </c>
       <c r="L254" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M254">
         <v>65.3</v>
       </c>
       <c r="R254" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S254">
         <v>27</v>
       </c>
       <c r="U254" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y254">
         <v>280</v>
@@ -13723,16 +13724,16 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B255">
         <v>127590</v>
       </c>
-      <c r="D255" t="b">
-        <v>1</v>
+      <c r="D255">
+        <v>0</v>
       </c>
       <c r="F255" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -13741,19 +13742,19 @@
         <v>60</v>
       </c>
       <c r="L255" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M255">
         <v>400</v>
       </c>
       <c r="R255" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S255">
         <v>105</v>
       </c>
       <c r="U255" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y255">
         <v>270</v>
@@ -13761,16 +13762,16 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B256">
         <v>179520</v>
       </c>
-      <c r="D256" t="b">
-        <v>1</v>
+      <c r="D256">
+        <v>0</v>
       </c>
       <c r="F256" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -13779,19 +13780,19 @@
         <v>60</v>
       </c>
       <c r="L256" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M256">
         <v>550</v>
       </c>
       <c r="R256" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S256">
         <v>165</v>
       </c>
       <c r="U256" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y256">
         <v>270</v>
@@ -13799,16 +13800,16 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B257">
         <v>274000</v>
       </c>
-      <c r="D257" t="b">
-        <v>1</v>
+      <c r="D257">
+        <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -13817,19 +13818,19 @@
         <v>60</v>
       </c>
       <c r="L257" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M257">
         <v>650</v>
       </c>
       <c r="R257" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S257">
         <v>210</v>
       </c>
       <c r="U257" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y257">
         <v>270</v>
@@ -13837,16 +13838,16 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B258">
         <v>4848</v>
       </c>
-      <c r="D258" t="b">
-        <v>1</v>
+      <c r="D258">
+        <v>0</v>
       </c>
       <c r="F258" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -13855,19 +13856,19 @@
         <v>60</v>
       </c>
       <c r="L258" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M258">
         <v>21.6</v>
       </c>
       <c r="R258" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S258">
         <v>3.5</v>
       </c>
       <c r="U258" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y258">
         <v>260</v>
@@ -13878,16 +13879,16 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B259">
         <v>5824</v>
       </c>
-      <c r="D259" t="b">
-        <v>1</v>
+      <c r="D259">
+        <v>0</v>
       </c>
       <c r="F259" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -13896,19 +13897,19 @@
         <v>60</v>
       </c>
       <c r="L259" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M259">
         <v>24.6</v>
       </c>
       <c r="R259" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S259">
         <v>5.5</v>
       </c>
       <c r="U259" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y259">
         <v>260</v>
@@ -13919,16 +13920,16 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B260">
         <v>6744</v>
       </c>
-      <c r="D260" t="b">
-        <v>1</v>
+      <c r="D260">
+        <v>0</v>
       </c>
       <c r="F260" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -13937,19 +13938,19 @@
         <v>60</v>
       </c>
       <c r="L260" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M260">
         <v>27.8</v>
       </c>
       <c r="R260" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S260">
         <v>7</v>
       </c>
       <c r="U260" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y260">
         <v>260</v>
@@ -13960,16 +13961,16 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B261">
         <v>7940</v>
       </c>
-      <c r="D261" t="b">
-        <v>1</v>
+      <c r="D261">
+        <v>0</v>
       </c>
       <c r="F261" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -13978,19 +13979,19 @@
         <v>60</v>
       </c>
       <c r="L261" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M261">
         <v>32.1</v>
       </c>
       <c r="R261" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S261">
         <v>9</v>
       </c>
       <c r="U261" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y261">
         <v>260</v>
@@ -14001,16 +14002,16 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B262">
         <v>9000</v>
       </c>
-      <c r="D262" t="b">
-        <v>1</v>
+      <c r="D262">
+        <v>0</v>
       </c>
       <c r="F262" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -14019,19 +14020,19 @@
         <v>60</v>
       </c>
       <c r="L262" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M262">
         <v>34.200000000000003</v>
       </c>
       <c r="R262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S262">
         <v>11</v>
       </c>
       <c r="U262" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y262">
         <v>260</v>

--- a/src/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -2002,15 +2002,16 @@
   <dimension ref="A1:AO262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" customWidth="1"/>
   </cols>
@@ -2159,12 +2160,7 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="I2">
         <v>0</v>
       </c>
@@ -5206,6 +5202,9 @@
       <c r="F51" t="s">
         <v>102</v>
       </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
       <c r="I51">
         <v>3</v>
       </c>
@@ -5255,6 +5254,9 @@
       <c r="F52" t="s">
         <v>102</v>
       </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
       <c r="I52">
         <v>3</v>
       </c>
@@ -5304,6 +5306,9 @@
       <c r="F53" t="s">
         <v>102</v>
       </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
       <c r="I53">
         <v>3</v>
       </c>
@@ -5353,6 +5358,9 @@
       <c r="F54" t="s">
         <v>102</v>
       </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
       <c r="I54">
         <v>3</v>
       </c>
@@ -5402,6 +5410,9 @@
       <c r="F55" t="s">
         <v>102</v>
       </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
       <c r="I55">
         <v>3</v>
       </c>
@@ -5451,6 +5462,9 @@
       <c r="F56" t="s">
         <v>102</v>
       </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
       <c r="I56">
         <v>3</v>
       </c>
@@ -7056,6 +7070,9 @@
       <c r="F98" t="s">
         <v>102</v>
       </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
       <c r="I98">
         <v>0</v>
       </c>
@@ -7625,6 +7642,9 @@
       </c>
       <c r="F113" t="s">
         <v>102</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>

--- a/src/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -2002,8 +2002,8 @@
   <dimension ref="A1:AO262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,6 +5193,9 @@
       <c r="B51">
         <v>68</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51">
         <v>0</v>
       </c>
@@ -5245,6 +5248,9 @@
       <c r="B52">
         <v>75</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52">
         <v>0</v>
       </c>
@@ -5297,6 +5303,9 @@
       <c r="B53">
         <v>97</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53">
         <v>0</v>
       </c>
@@ -5349,6 +5358,9 @@
       <c r="B54">
         <v>130</v>
       </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
       <c r="D54">
         <v>0</v>
       </c>
@@ -5401,6 +5413,9 @@
       <c r="B55">
         <v>225</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55">
         <v>0</v>
       </c>
@@ -5453,6 +5468,9 @@
       <c r="B56">
         <v>310</v>
       </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56">
         <v>0</v>
       </c>
@@ -5505,6 +5523,9 @@
       <c r="B57">
         <v>18</v>
       </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57">
         <v>0</v>
       </c>
@@ -5545,6 +5566,9 @@
       <c r="B58">
         <v>18</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58">
         <v>0</v>
       </c>
@@ -5585,6 +5609,9 @@
       <c r="B59">
         <v>18</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59">
         <v>0</v>
       </c>
@@ -5625,6 +5652,9 @@
       <c r="B60">
         <v>19</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60">
         <v>0</v>
       </c>
@@ -5665,6 +5695,9 @@
       <c r="B61">
         <v>19</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61">
         <v>0</v>
       </c>
@@ -5705,6 +5738,9 @@
       <c r="B62">
         <v>22</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62">
         <v>0</v>
       </c>
@@ -5745,6 +5781,9 @@
       <c r="B63">
         <v>21</v>
       </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
       <c r="D63">
         <v>0</v>
       </c>
@@ -5785,6 +5824,9 @@
       <c r="B64">
         <v>24</v>
       </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64">
         <v>0</v>
       </c>
@@ -5825,6 +5867,9 @@
       <c r="B65">
         <v>17</v>
       </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
       <c r="D65">
         <v>0</v>
       </c>
@@ -5862,6 +5907,9 @@
       <c r="B66">
         <v>22</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66">
         <v>0</v>
       </c>
@@ -5896,6 +5944,9 @@
       <c r="B67">
         <v>23</v>
       </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
       <c r="D67">
         <v>0</v>
       </c>
@@ -5930,6 +5981,9 @@
       <c r="B68">
         <v>22</v>
       </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
       <c r="D68">
         <v>0</v>
       </c>
@@ -5967,6 +6021,9 @@
       <c r="B69">
         <v>23</v>
       </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
       <c r="D69">
         <v>0</v>
       </c>
@@ -6001,6 +6058,9 @@
       <c r="B70">
         <v>25</v>
       </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
       <c r="D70">
         <v>0</v>
       </c>
@@ -6041,6 +6101,9 @@
       <c r="B71">
         <v>28</v>
       </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71">
         <v>0</v>
       </c>
@@ -6078,6 +6141,9 @@
       <c r="B72">
         <v>28.5</v>
       </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
       <c r="D72">
         <v>0</v>
       </c>
@@ -6115,6 +6181,9 @@
       <c r="B73">
         <v>30</v>
       </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73">
         <v>0</v>
       </c>
@@ -6155,6 +6224,9 @@
       <c r="B74">
         <v>35</v>
       </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
       <c r="D74">
         <v>0</v>
       </c>
@@ -6195,6 +6267,9 @@
       <c r="B75">
         <v>38</v>
       </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75">
         <v>0</v>
       </c>
@@ -6232,6 +6307,9 @@
       <c r="B76">
         <v>39</v>
       </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
       <c r="D76">
         <v>0</v>
       </c>
@@ -6269,6 +6347,9 @@
       <c r="B77">
         <v>38</v>
       </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
       <c r="D77">
         <v>0</v>
       </c>
@@ -6306,6 +6387,9 @@
       <c r="B78">
         <v>38</v>
       </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
       <c r="D78">
         <v>0</v>
       </c>
@@ -6343,6 +6427,9 @@
       <c r="B79">
         <v>41</v>
       </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
       <c r="D79">
         <v>0</v>
       </c>
@@ -6380,6 +6467,9 @@
       <c r="B80">
         <v>49</v>
       </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
       <c r="D80">
         <v>0</v>
       </c>
@@ -6420,6 +6510,9 @@
       <c r="B81">
         <v>64</v>
       </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
       <c r="D81">
         <v>0</v>
       </c>
@@ -6457,6 +6550,9 @@
       <c r="B82">
         <v>64</v>
       </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
       <c r="D82">
         <v>0</v>
       </c>
@@ -6494,6 +6590,9 @@
       <c r="B83">
         <v>66</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83">
         <v>0</v>
       </c>
@@ -6531,6 +6630,9 @@
       <c r="B84">
         <v>64</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
       <c r="D84">
         <v>0</v>
       </c>
@@ -6568,6 +6670,9 @@
       <c r="B85">
         <v>68</v>
       </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
       <c r="D85">
         <v>0</v>
       </c>
@@ -6608,6 +6713,9 @@
       <c r="B86">
         <v>70</v>
       </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
       <c r="D86">
         <v>0</v>
       </c>
@@ -6648,6 +6756,9 @@
       <c r="B87">
         <v>82</v>
       </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
       <c r="D87">
         <v>0</v>
       </c>
@@ -6685,6 +6796,9 @@
       <c r="B88">
         <v>82</v>
       </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
       <c r="D88">
         <v>0</v>
       </c>
@@ -6722,6 +6836,9 @@
       <c r="B89">
         <v>82</v>
       </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
       <c r="D89">
         <v>0</v>
       </c>
@@ -6759,6 +6876,9 @@
       <c r="B90">
         <v>85</v>
       </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
       <c r="D90">
         <v>0</v>
       </c>
@@ -6796,6 +6916,9 @@
       <c r="B91">
         <v>110</v>
       </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
       <c r="D91">
         <v>0</v>
       </c>
@@ -6836,6 +6959,9 @@
       <c r="B92">
         <v>155</v>
       </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
       <c r="D92">
         <v>0</v>
       </c>
@@ -6876,6 +7002,9 @@
       <c r="B93">
         <v>160</v>
       </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
       <c r="D93">
         <v>0</v>
       </c>
@@ -6913,6 +7042,9 @@
       <c r="B94">
         <v>160</v>
       </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
       <c r="D94">
         <v>0</v>
       </c>
@@ -6950,6 +7082,9 @@
       <c r="B95">
         <v>150</v>
       </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
       <c r="D95">
         <v>0</v>
       </c>
@@ -6987,6 +7122,9 @@
       <c r="B96">
         <v>160</v>
       </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
       <c r="D96">
         <v>0</v>
       </c>
@@ -7024,6 +7162,9 @@
       <c r="B97">
         <v>163</v>
       </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
       <c r="D97">
         <v>0</v>
       </c>
@@ -7061,6 +7202,9 @@
       <c r="B98">
         <v>188</v>
       </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
       <c r="D98">
         <v>0</v>
       </c>
@@ -7104,6 +7248,9 @@
       <c r="B99">
         <v>290</v>
       </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
       <c r="D99">
         <v>0</v>
       </c>
@@ -7147,6 +7294,9 @@
       <c r="B100">
         <v>330</v>
       </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
       <c r="D100">
         <v>0</v>
       </c>
@@ -7190,6 +7340,9 @@
       <c r="B101">
         <v>35</v>
       </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
       <c r="D101">
         <v>0</v>
       </c>
@@ -7227,6 +7380,9 @@
       <c r="B102">
         <v>54</v>
       </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
       <c r="D102">
         <v>0</v>
       </c>
@@ -7264,6 +7420,9 @@
       <c r="B103">
         <v>65</v>
       </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
       <c r="D103">
         <v>0</v>
       </c>
@@ -7301,6 +7460,9 @@
       <c r="B104">
         <v>155</v>
       </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
       <c r="D104">
         <v>0</v>
       </c>
@@ -7338,6 +7500,9 @@
       <c r="B105">
         <v>120</v>
       </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
       <c r="D105">
         <v>0</v>
       </c>
@@ -7375,6 +7540,9 @@
       <c r="B106">
         <v>160</v>
       </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
       <c r="D106">
         <v>0</v>
       </c>
@@ -7412,6 +7580,9 @@
       <c r="B107">
         <v>190</v>
       </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
       <c r="D107">
         <v>0</v>
       </c>
@@ -7449,6 +7620,9 @@
       <c r="B108">
         <v>220</v>
       </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
       <c r="D108">
         <v>0</v>
       </c>
@@ -7486,6 +7660,9 @@
       <c r="B109">
         <v>220</v>
       </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
       <c r="D109">
         <v>0</v>
       </c>
@@ -7523,6 +7700,9 @@
       <c r="B110">
         <v>235</v>
       </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
       <c r="D110">
         <v>0</v>
       </c>
@@ -7560,6 +7740,9 @@
       <c r="B111">
         <v>237</v>
       </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
       <c r="D111">
         <v>0</v>
       </c>
@@ -7597,6 +7780,9 @@
       <c r="B112">
         <v>235</v>
       </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
       <c r="D112">
         <v>0</v>
       </c>
@@ -7634,6 +7820,9 @@
       <c r="B113">
         <v>240</v>
       </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
       <c r="D113">
         <v>0</v>
       </c>
@@ -7674,6 +7863,9 @@
       <c r="B114">
         <v>390</v>
       </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
       <c r="D114">
         <v>0</v>
       </c>
@@ -7717,6 +7909,9 @@
       <c r="B115">
         <v>475</v>
       </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
       <c r="D115">
         <v>0</v>
       </c>
@@ -7760,6 +7955,9 @@
       <c r="B116">
         <v>370</v>
       </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
       <c r="D116">
         <v>0</v>
       </c>
@@ -7803,6 +8001,9 @@
       <c r="B117">
         <v>420</v>
       </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
       <c r="D117">
         <v>0</v>
       </c>
@@ -7840,6 +8041,9 @@
       <c r="B118">
         <v>520</v>
       </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
       <c r="D118">
         <v>0</v>
       </c>
@@ -7883,6 +8087,9 @@
       <c r="B119">
         <v>550</v>
       </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
       <c r="D119">
         <v>0</v>
       </c>
@@ -7920,6 +8127,9 @@
       <c r="B120">
         <v>750</v>
       </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120">
         <v>1</v>
       </c>
@@ -7963,6 +8173,9 @@
       <c r="B121">
         <v>850</v>
       </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
       <c r="D121">
         <v>1</v>
       </c>
@@ -8006,6 +8219,9 @@
       <c r="B122">
         <v>1350</v>
       </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
       <c r="D122">
         <v>1</v>
       </c>
@@ -8049,6 +8265,9 @@
       <c r="B123">
         <v>3500</v>
       </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
       <c r="D123">
         <v>1</v>
       </c>
@@ -8086,6 +8305,9 @@
       <c r="B124">
         <v>3800</v>
       </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
       <c r="D124">
         <v>1</v>
       </c>
@@ -8123,6 +8345,9 @@
       <c r="B125">
         <v>4000</v>
       </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
       <c r="D125">
         <v>1</v>
       </c>
@@ -8160,6 +8385,9 @@
       <c r="B126">
         <v>5500</v>
       </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
       <c r="D126">
         <v>1</v>
       </c>
@@ -8197,6 +8425,9 @@
       <c r="B127">
         <v>6000</v>
       </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
       <c r="D127">
         <v>1</v>
       </c>
@@ -8233,6 +8464,9 @@
       </c>
       <c r="B128">
         <v>7000</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
       <c r="D128">
         <v>1</v>

--- a/src/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="406">
   <si>
     <t>570×315×235</t>
   </si>
@@ -1226,6 +1226,12 @@
   </si>
   <si>
     <t>TopBuyed</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>OnDemand</t>
   </si>
 </sst>
 </file>
@@ -2005,13 +2011,14 @@
   <dimension ref="A1:AN262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -2148,11 +2155,8 @@
       <c r="B2">
         <v>1050</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>404</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
@@ -2265,8 +2269,8 @@
       <c r="B3">
         <v>1950</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>404</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
@@ -2326,8 +2330,8 @@
       <c r="B4">
         <v>3195</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>404</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -2387,8 +2391,8 @@
       <c r="B5">
         <v>3755</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>404</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -2448,8 +2452,8 @@
       <c r="B6">
         <v>4860</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>404</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -2509,8 +2513,8 @@
       <c r="B7">
         <v>5550</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>404</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -2570,8 +2574,8 @@
       <c r="B8">
         <v>5975</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>404</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -2631,8 +2635,8 @@
       <c r="B9">
         <v>5200</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>404</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -2692,8 +2696,8 @@
       <c r="B10">
         <v>6200</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>404</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2753,8 +2757,8 @@
       <c r="B11">
         <v>7200</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>404</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -2814,8 +2818,8 @@
       <c r="B12">
         <v>9200</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>404</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -2875,8 +2879,8 @@
       <c r="B13">
         <v>10200</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>404</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -2936,8 +2940,8 @@
       <c r="B14">
         <v>16200</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>404</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -2997,8 +3001,8 @@
       <c r="B15">
         <v>18200</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>404</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -3058,8 +3062,8 @@
       <c r="B16">
         <v>5500</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>404</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -3119,8 +3123,8 @@
       <c r="B17">
         <v>6500</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>404</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -3180,8 +3184,8 @@
       <c r="B18">
         <v>7500</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>404</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -3241,8 +3245,8 @@
       <c r="B19">
         <v>9500</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>404</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -3302,8 +3306,8 @@
       <c r="B20">
         <v>10500</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>404</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -3363,8 +3367,8 @@
       <c r="B21">
         <v>17000</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>404</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -3424,8 +3428,8 @@
       <c r="B22">
         <v>19000</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>404</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -3485,8 +3489,8 @@
       <c r="B23">
         <v>5150</v>
       </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="D23" t="s">
+        <v>404</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -3546,8 +3550,8 @@
       <c r="B24">
         <v>5150</v>
       </c>
-      <c r="D24">
-        <v>0</v>
+      <c r="D24" t="s">
+        <v>404</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -3607,8 +3611,8 @@
       <c r="B25">
         <v>5150</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" t="s">
+        <v>404</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -3668,8 +3672,8 @@
       <c r="B26">
         <v>5150</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" t="s">
+        <v>404</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -3729,8 +3733,8 @@
       <c r="B27">
         <v>5950</v>
       </c>
-      <c r="D27">
-        <v>0</v>
+      <c r="D27" t="s">
+        <v>404</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -3790,8 +3794,8 @@
       <c r="B28">
         <v>5950</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" t="s">
+        <v>404</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -3851,8 +3855,8 @@
       <c r="B29">
         <v>5950</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" t="s">
+        <v>404</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -3912,8 +3916,8 @@
       <c r="B30">
         <v>5950</v>
       </c>
-      <c r="D30">
-        <v>0</v>
+      <c r="D30" t="s">
+        <v>404</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -3973,8 +3977,8 @@
       <c r="B31">
         <v>6950</v>
       </c>
-      <c r="D31">
-        <v>0</v>
+      <c r="D31" t="s">
+        <v>404</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -4034,8 +4038,8 @@
       <c r="B32">
         <v>6950</v>
       </c>
-      <c r="D32">
-        <v>0</v>
+      <c r="D32" t="s">
+        <v>404</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -4095,8 +4099,8 @@
       <c r="B33">
         <v>6950</v>
       </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>404</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -4156,8 +4160,8 @@
       <c r="B34">
         <v>6950</v>
       </c>
-      <c r="D34">
-        <v>0</v>
+      <c r="D34" t="s">
+        <v>404</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -4217,8 +4221,8 @@
       <c r="B35">
         <v>8450</v>
       </c>
-      <c r="D35">
-        <v>0</v>
+      <c r="D35" t="s">
+        <v>404</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -4278,8 +4282,8 @@
       <c r="B36">
         <v>8450</v>
       </c>
-      <c r="D36">
-        <v>0</v>
+      <c r="D36" t="s">
+        <v>404</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -4339,8 +4343,8 @@
       <c r="B37">
         <v>8450</v>
       </c>
-      <c r="D37">
-        <v>0</v>
+      <c r="D37" t="s">
+        <v>404</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -4400,8 +4404,8 @@
       <c r="B38">
         <v>8450</v>
       </c>
-      <c r="D38">
-        <v>0</v>
+      <c r="D38" t="s">
+        <v>404</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -4461,8 +4465,8 @@
       <c r="B39">
         <v>9350</v>
       </c>
-      <c r="D39">
-        <v>0</v>
+      <c r="D39" t="s">
+        <v>404</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -4522,8 +4526,8 @@
       <c r="B40">
         <v>9350</v>
       </c>
-      <c r="D40">
-        <v>0</v>
+      <c r="D40" t="s">
+        <v>404</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
@@ -4583,8 +4587,8 @@
       <c r="B41">
         <v>9350</v>
       </c>
-      <c r="D41">
-        <v>0</v>
+      <c r="D41" t="s">
+        <v>404</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -4644,8 +4648,8 @@
       <c r="B42">
         <v>9350</v>
       </c>
-      <c r="D42">
-        <v>0</v>
+      <c r="D42" t="s">
+        <v>404</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -4705,8 +4709,8 @@
       <c r="B43">
         <v>11550</v>
       </c>
-      <c r="D43">
-        <v>0</v>
+      <c r="D43" t="s">
+        <v>404</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -4766,8 +4770,8 @@
       <c r="B44">
         <v>11550</v>
       </c>
-      <c r="D44">
-        <v>0</v>
+      <c r="D44" t="s">
+        <v>404</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -4827,8 +4831,8 @@
       <c r="B45">
         <v>11550</v>
       </c>
-      <c r="D45">
-        <v>0</v>
+      <c r="D45" t="s">
+        <v>404</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
@@ -4888,8 +4892,8 @@
       <c r="B46">
         <v>11550</v>
       </c>
-      <c r="D46">
-        <v>0</v>
+      <c r="D46" t="s">
+        <v>404</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
@@ -4949,8 +4953,8 @@
       <c r="B47">
         <v>12850</v>
       </c>
-      <c r="D47">
-        <v>0</v>
+      <c r="D47" t="s">
+        <v>404</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
@@ -5010,8 +5014,8 @@
       <c r="B48">
         <v>12850</v>
       </c>
-      <c r="D48">
-        <v>0</v>
+      <c r="D48" t="s">
+        <v>404</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
@@ -5071,8 +5075,8 @@
       <c r="B49">
         <v>12850</v>
       </c>
-      <c r="D49">
-        <v>0</v>
+      <c r="D49" t="s">
+        <v>404</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
@@ -5132,8 +5136,8 @@
       <c r="B50">
         <v>12850</v>
       </c>
-      <c r="D50">
-        <v>0</v>
+      <c r="D50" t="s">
+        <v>404</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
@@ -5196,8 +5200,8 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51">
-        <v>0</v>
+      <c r="D51" t="s">
+        <v>404</v>
       </c>
       <c r="E51" t="s">
         <v>99</v>
@@ -5251,8 +5255,8 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52">
-        <v>0</v>
+      <c r="D52" t="s">
+        <v>404</v>
       </c>
       <c r="E52" t="s">
         <v>101</v>
@@ -5306,8 +5310,8 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53">
-        <v>0</v>
+      <c r="D53" t="s">
+        <v>404</v>
       </c>
       <c r="E53" t="s">
         <v>102</v>
@@ -5361,8 +5365,8 @@
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54">
-        <v>0</v>
+      <c r="D54" t="s">
+        <v>404</v>
       </c>
       <c r="E54" t="s">
         <v>103</v>
@@ -5416,8 +5420,8 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55">
-        <v>0</v>
+      <c r="D55" t="s">
+        <v>404</v>
       </c>
       <c r="E55" t="s">
         <v>104</v>
@@ -5471,8 +5475,8 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56">
-        <v>0</v>
+      <c r="D56" t="s">
+        <v>404</v>
       </c>
       <c r="E56" t="s">
         <v>106</v>
@@ -5526,8 +5530,8 @@
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57">
-        <v>0</v>
+      <c r="D57" t="s">
+        <v>404</v>
       </c>
       <c r="E57" t="s">
         <v>379</v>
@@ -5569,8 +5573,8 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58">
-        <v>0</v>
+      <c r="D58" t="s">
+        <v>404</v>
       </c>
       <c r="E58" t="s">
         <v>384</v>
@@ -5612,8 +5616,8 @@
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59">
-        <v>0</v>
+      <c r="D59" t="s">
+        <v>404</v>
       </c>
       <c r="E59" t="s">
         <v>109</v>
@@ -5655,8 +5659,8 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60">
-        <v>0</v>
+      <c r="D60" t="s">
+        <v>404</v>
       </c>
       <c r="E60" t="s">
         <v>380</v>
@@ -5698,8 +5702,8 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61">
-        <v>0</v>
+      <c r="D61" t="s">
+        <v>404</v>
       </c>
       <c r="E61" t="s">
         <v>385</v>
@@ -5741,8 +5745,8 @@
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62">
-        <v>0</v>
+      <c r="D62" t="s">
+        <v>404</v>
       </c>
       <c r="E62" t="s">
         <v>112</v>
@@ -5784,8 +5788,8 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63">
-        <v>0</v>
+      <c r="D63" t="s">
+        <v>404</v>
       </c>
       <c r="E63" t="s">
         <v>113</v>
@@ -5827,8 +5831,8 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64">
-        <v>0</v>
+      <c r="D64" t="s">
+        <v>404</v>
       </c>
       <c r="E64" t="s">
         <v>386</v>
@@ -5870,8 +5874,8 @@
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65">
-        <v>0</v>
+      <c r="D65" t="s">
+        <v>404</v>
       </c>
       <c r="E65" t="s">
         <v>115</v>
@@ -5910,8 +5914,8 @@
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66">
-        <v>0</v>
+      <c r="D66" t="s">
+        <v>404</v>
       </c>
       <c r="E66" t="s">
         <v>116</v>
@@ -5947,8 +5951,8 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67">
-        <v>0</v>
+      <c r="D67" t="s">
+        <v>404</v>
       </c>
       <c r="E67" t="s">
         <v>117</v>
@@ -5984,8 +5988,8 @@
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68">
-        <v>0</v>
+      <c r="D68" t="s">
+        <v>404</v>
       </c>
       <c r="E68" t="s">
         <v>118</v>
@@ -6024,8 +6028,8 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69">
-        <v>0</v>
+      <c r="D69" t="s">
+        <v>404</v>
       </c>
       <c r="E69" t="s">
         <v>119</v>
@@ -6061,8 +6065,8 @@
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70">
-        <v>0</v>
+      <c r="D70" t="s">
+        <v>404</v>
       </c>
       <c r="E70" t="s">
         <v>120</v>
@@ -6104,8 +6108,8 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71">
-        <v>0</v>
+      <c r="D71" t="s">
+        <v>404</v>
       </c>
       <c r="E71" t="s">
         <v>387</v>
@@ -6144,8 +6148,8 @@
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72">
-        <v>0</v>
+      <c r="D72" t="s">
+        <v>404</v>
       </c>
       <c r="E72" t="s">
         <v>388</v>
@@ -6184,8 +6188,8 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73">
-        <v>0</v>
+      <c r="D73" t="s">
+        <v>404</v>
       </c>
       <c r="E73" t="s">
         <v>123</v>
@@ -6227,8 +6231,8 @@
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74">
-        <v>0</v>
+      <c r="D74" t="s">
+        <v>404</v>
       </c>
       <c r="E74" t="s">
         <v>124</v>
@@ -6270,8 +6274,8 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75">
-        <v>0</v>
+      <c r="D75" t="s">
+        <v>404</v>
       </c>
       <c r="E75" t="s">
         <v>125</v>
@@ -6310,8 +6314,8 @@
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76">
-        <v>0</v>
+      <c r="D76" t="s">
+        <v>404</v>
       </c>
       <c r="E76" t="s">
         <v>389</v>
@@ -6350,8 +6354,8 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77">
-        <v>0</v>
+      <c r="D77" t="s">
+        <v>404</v>
       </c>
       <c r="E77" t="s">
         <v>381</v>
@@ -6390,8 +6394,8 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78">
-        <v>0</v>
+      <c r="D78" t="s">
+        <v>404</v>
       </c>
       <c r="E78" t="s">
         <v>390</v>
@@ -6430,8 +6434,8 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>0</v>
+      <c r="D79" t="s">
+        <v>404</v>
       </c>
       <c r="E79" t="s">
         <v>129</v>
@@ -6470,8 +6474,8 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80">
-        <v>0</v>
+      <c r="D80" t="s">
+        <v>404</v>
       </c>
       <c r="E80" t="s">
         <v>130</v>
@@ -6513,8 +6517,8 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81">
-        <v>0</v>
+      <c r="D81" t="s">
+        <v>404</v>
       </c>
       <c r="E81" t="s">
         <v>131</v>
@@ -6553,8 +6557,8 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82">
-        <v>0</v>
+      <c r="D82" t="s">
+        <v>404</v>
       </c>
       <c r="E82" t="s">
         <v>132</v>
@@ -6593,8 +6597,8 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83">
-        <v>0</v>
+      <c r="D83" t="s">
+        <v>404</v>
       </c>
       <c r="E83" t="s">
         <v>391</v>
@@ -6633,8 +6637,8 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84">
-        <v>0</v>
+      <c r="D84" t="s">
+        <v>404</v>
       </c>
       <c r="E84" t="s">
         <v>134</v>
@@ -6673,8 +6677,8 @@
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85">
-        <v>0</v>
+      <c r="D85" t="s">
+        <v>404</v>
       </c>
       <c r="E85" t="s">
         <v>135</v>
@@ -6716,8 +6720,8 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86">
-        <v>0</v>
+      <c r="D86" t="s">
+        <v>404</v>
       </c>
       <c r="E86" t="s">
         <v>392</v>
@@ -6759,8 +6763,8 @@
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>0</v>
+      <c r="D87" t="s">
+        <v>404</v>
       </c>
       <c r="E87" t="s">
         <v>137</v>
@@ -6799,8 +6803,8 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88">
-        <v>0</v>
+      <c r="D88" t="s">
+        <v>404</v>
       </c>
       <c r="E88" t="s">
         <v>138</v>
@@ -6839,8 +6843,8 @@
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89">
-        <v>0</v>
+      <c r="D89" t="s">
+        <v>404</v>
       </c>
       <c r="E89" t="s">
         <v>393</v>
@@ -6879,8 +6883,8 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90">
-        <v>0</v>
+      <c r="D90" t="s">
+        <v>404</v>
       </c>
       <c r="E90" t="s">
         <v>140</v>
@@ -6919,8 +6923,8 @@
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91">
-        <v>0</v>
+      <c r="D91" t="s">
+        <v>404</v>
       </c>
       <c r="E91" t="s">
         <v>394</v>
@@ -6962,8 +6966,8 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92">
-        <v>0</v>
+      <c r="D92" t="s">
+        <v>404</v>
       </c>
       <c r="E92" t="s">
         <v>395</v>
@@ -7005,8 +7009,8 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93">
-        <v>0</v>
+      <c r="D93" t="s">
+        <v>404</v>
       </c>
       <c r="E93" t="s">
         <v>382</v>
@@ -7045,8 +7049,8 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94">
-        <v>0</v>
+      <c r="D94" t="s">
+        <v>404</v>
       </c>
       <c r="E94" t="s">
         <v>396</v>
@@ -7085,8 +7089,8 @@
       <c r="C95">
         <v>1</v>
       </c>
-      <c r="D95">
-        <v>0</v>
+      <c r="D95" t="s">
+        <v>404</v>
       </c>
       <c r="E95" t="s">
         <v>145</v>
@@ -7125,8 +7129,8 @@
       <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96">
-        <v>0</v>
+      <c r="D96" t="s">
+        <v>404</v>
       </c>
       <c r="E96" t="s">
         <v>146</v>
@@ -7165,8 +7169,8 @@
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97">
-        <v>0</v>
+      <c r="D97" t="s">
+        <v>404</v>
       </c>
       <c r="E97" t="s">
         <v>397</v>
@@ -7205,8 +7209,8 @@
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98">
-        <v>0</v>
+      <c r="D98" t="s">
+        <v>404</v>
       </c>
       <c r="E98" t="s">
         <v>398</v>
@@ -7251,8 +7255,8 @@
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99">
-        <v>0</v>
+      <c r="D99" t="s">
+        <v>404</v>
       </c>
       <c r="E99" t="s">
         <v>149</v>
@@ -7297,8 +7301,8 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100">
-        <v>0</v>
+      <c r="D100" t="s">
+        <v>404</v>
       </c>
       <c r="E100" t="s">
         <v>151</v>
@@ -7343,8 +7347,8 @@
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101">
-        <v>0</v>
+      <c r="D101" t="s">
+        <v>404</v>
       </c>
       <c r="E101" t="s">
         <v>152</v>
@@ -7383,8 +7387,8 @@
       <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102">
-        <v>0</v>
+      <c r="D102" t="s">
+        <v>404</v>
       </c>
       <c r="E102" t="s">
         <v>153</v>
@@ -7423,8 +7427,8 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103">
-        <v>0</v>
+      <c r="D103" t="s">
+        <v>404</v>
       </c>
       <c r="E103" t="s">
         <v>154</v>
@@ -7463,8 +7467,8 @@
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104">
-        <v>0</v>
+      <c r="D104" t="s">
+        <v>404</v>
       </c>
       <c r="E104" t="s">
         <v>155</v>
@@ -7503,8 +7507,8 @@
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105">
-        <v>0</v>
+      <c r="D105" t="s">
+        <v>404</v>
       </c>
       <c r="E105" t="s">
         <v>156</v>
@@ -7543,8 +7547,8 @@
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106">
-        <v>0</v>
+      <c r="D106" t="s">
+        <v>404</v>
       </c>
       <c r="E106" t="s">
         <v>157</v>
@@ -7583,8 +7587,8 @@
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107">
-        <v>0</v>
+      <c r="D107" t="s">
+        <v>404</v>
       </c>
       <c r="E107" t="s">
         <v>158</v>
@@ -7623,8 +7627,8 @@
       <c r="C108">
         <v>1</v>
       </c>
-      <c r="D108">
-        <v>0</v>
+      <c r="D108" t="s">
+        <v>404</v>
       </c>
       <c r="E108" t="s">
         <v>383</v>
@@ -7663,8 +7667,8 @@
       <c r="C109">
         <v>1</v>
       </c>
-      <c r="D109">
-        <v>0</v>
+      <c r="D109" t="s">
+        <v>404</v>
       </c>
       <c r="E109" t="s">
         <v>399</v>
@@ -7703,8 +7707,8 @@
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110">
-        <v>0</v>
+      <c r="D110" t="s">
+        <v>404</v>
       </c>
       <c r="E110" t="s">
         <v>161</v>
@@ -7743,8 +7747,8 @@
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111">
-        <v>0</v>
+      <c r="D111" t="s">
+        <v>404</v>
       </c>
       <c r="E111" t="s">
         <v>162</v>
@@ -7783,8 +7787,8 @@
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112">
-        <v>0</v>
+      <c r="D112" t="s">
+        <v>404</v>
       </c>
       <c r="E112" t="s">
         <v>163</v>
@@ -7823,8 +7827,8 @@
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113">
-        <v>0</v>
+      <c r="D113" t="s">
+        <v>404</v>
       </c>
       <c r="E113" t="s">
         <v>164</v>
@@ -7866,8 +7870,8 @@
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114">
-        <v>0</v>
+      <c r="D114" t="s">
+        <v>404</v>
       </c>
       <c r="E114" t="s">
         <v>165</v>
@@ -7912,8 +7916,8 @@
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115">
-        <v>0</v>
+      <c r="D115" t="s">
+        <v>404</v>
       </c>
       <c r="E115" t="s">
         <v>167</v>
@@ -7958,8 +7962,8 @@
       <c r="C116">
         <v>1</v>
       </c>
-      <c r="D116">
-        <v>0</v>
+      <c r="D116" t="s">
+        <v>404</v>
       </c>
       <c r="E116" t="s">
         <v>168</v>
@@ -8004,8 +8008,8 @@
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117">
-        <v>0</v>
+      <c r="D117" t="s">
+        <v>404</v>
       </c>
       <c r="E117" t="s">
         <v>170</v>
@@ -8044,8 +8048,8 @@
       <c r="C118">
         <v>1</v>
       </c>
-      <c r="D118">
-        <v>0</v>
+      <c r="D118" t="s">
+        <v>404</v>
       </c>
       <c r="E118" t="s">
         <v>171</v>
@@ -8090,8 +8094,8 @@
       <c r="C119">
         <v>1</v>
       </c>
-      <c r="D119">
-        <v>0</v>
+      <c r="D119" t="s">
+        <v>404</v>
       </c>
       <c r="E119" t="s">
         <v>173</v>
@@ -8130,8 +8134,8 @@
       <c r="C120">
         <v>1</v>
       </c>
-      <c r="D120">
-        <v>1</v>
+      <c r="D120" t="s">
+        <v>405</v>
       </c>
       <c r="E120" t="s">
         <v>174</v>
@@ -8176,8 +8180,8 @@
       <c r="C121">
         <v>1</v>
       </c>
-      <c r="D121">
-        <v>1</v>
+      <c r="D121" t="s">
+        <v>405</v>
       </c>
       <c r="E121" t="s">
         <v>176</v>
@@ -8222,8 +8226,8 @@
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122">
-        <v>1</v>
+      <c r="D122" t="s">
+        <v>405</v>
       </c>
       <c r="E122" t="s">
         <v>178</v>
@@ -8268,8 +8272,8 @@
       <c r="C123">
         <v>1</v>
       </c>
-      <c r="D123">
-        <v>1</v>
+      <c r="D123" t="s">
+        <v>405</v>
       </c>
       <c r="E123" t="s">
         <v>179</v>
@@ -8308,8 +8312,8 @@
       <c r="C124">
         <v>1</v>
       </c>
-      <c r="D124">
-        <v>1</v>
+      <c r="D124" t="s">
+        <v>405</v>
       </c>
       <c r="E124" t="s">
         <v>180</v>
@@ -8348,8 +8352,8 @@
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="D125">
-        <v>1</v>
+      <c r="D125" t="s">
+        <v>405</v>
       </c>
       <c r="E125" t="s">
         <v>181</v>
@@ -8388,8 +8392,8 @@
       <c r="C126">
         <v>1</v>
       </c>
-      <c r="D126">
-        <v>1</v>
+      <c r="D126" t="s">
+        <v>405</v>
       </c>
       <c r="E126" t="s">
         <v>182</v>
@@ -8428,8 +8432,8 @@
       <c r="C127">
         <v>1</v>
       </c>
-      <c r="D127">
-        <v>1</v>
+      <c r="D127" t="s">
+        <v>405</v>
       </c>
       <c r="E127" t="s">
         <v>183</v>
@@ -8468,8 +8472,8 @@
       <c r="C128">
         <v>1</v>
       </c>
-      <c r="D128">
-        <v>1</v>
+      <c r="D128" t="s">
+        <v>405</v>
       </c>
       <c r="E128" t="s">
         <v>184</v>
@@ -8508,8 +8512,8 @@
       <c r="B129">
         <v>3360</v>
       </c>
-      <c r="D129">
-        <v>0</v>
+      <c r="D129" t="s">
+        <v>404</v>
       </c>
       <c r="F129" t="s">
         <v>332</v>
@@ -8552,8 +8556,8 @@
       <c r="B130">
         <v>3360</v>
       </c>
-      <c r="D130">
-        <v>0</v>
+      <c r="D130" t="s">
+        <v>404</v>
       </c>
       <c r="F130" t="s">
         <v>332</v>
@@ -8596,8 +8600,8 @@
       <c r="B131">
         <v>3870</v>
       </c>
-      <c r="D131">
-        <v>0</v>
+      <c r="D131" t="s">
+        <v>404</v>
       </c>
       <c r="F131" t="s">
         <v>332</v>
@@ -8640,8 +8644,8 @@
       <c r="B132">
         <v>3840</v>
       </c>
-      <c r="D132">
-        <v>0</v>
+      <c r="D132" t="s">
+        <v>404</v>
       </c>
       <c r="F132" t="s">
         <v>332</v>
@@ -8684,8 +8688,8 @@
       <c r="B133">
         <v>3840</v>
       </c>
-      <c r="D133">
-        <v>0</v>
+      <c r="D133" t="s">
+        <v>404</v>
       </c>
       <c r="F133" t="s">
         <v>332</v>
@@ -8728,8 +8732,8 @@
       <c r="B134">
         <v>5550</v>
       </c>
-      <c r="D134">
-        <v>0</v>
+      <c r="D134" t="s">
+        <v>404</v>
       </c>
       <c r="F134" t="s">
         <v>332</v>
@@ -8772,8 +8776,8 @@
       <c r="B135">
         <v>6060</v>
       </c>
-      <c r="D135">
-        <v>0</v>
+      <c r="D135" t="s">
+        <v>404</v>
       </c>
       <c r="F135" t="s">
         <v>332</v>
@@ -8816,8 +8820,8 @@
       <c r="B136">
         <v>6060</v>
       </c>
-      <c r="D136">
-        <v>0</v>
+      <c r="D136" t="s">
+        <v>404</v>
       </c>
       <c r="F136" t="s">
         <v>332</v>
@@ -8860,8 +8864,8 @@
       <c r="B137">
         <v>6060</v>
       </c>
-      <c r="D137">
-        <v>0</v>
+      <c r="D137" t="s">
+        <v>404</v>
       </c>
       <c r="F137" t="s">
         <v>332</v>
@@ -8904,8 +8908,8 @@
       <c r="B138">
         <v>6060</v>
       </c>
-      <c r="D138">
-        <v>0</v>
+      <c r="D138" t="s">
+        <v>404</v>
       </c>
       <c r="F138" t="s">
         <v>332</v>
@@ -8948,8 +8952,8 @@
       <c r="B139">
         <v>6990</v>
       </c>
-      <c r="D139">
-        <v>0</v>
+      <c r="D139" t="s">
+        <v>404</v>
       </c>
       <c r="F139" t="s">
         <v>332</v>
@@ -8992,8 +8996,8 @@
       <c r="B140">
         <v>6990</v>
       </c>
-      <c r="D140">
-        <v>0</v>
+      <c r="D140" t="s">
+        <v>404</v>
       </c>
       <c r="F140" t="s">
         <v>332</v>
@@ -9036,8 +9040,8 @@
       <c r="B141">
         <v>6990</v>
       </c>
-      <c r="D141">
-        <v>0</v>
+      <c r="D141" t="s">
+        <v>404</v>
       </c>
       <c r="F141" t="s">
         <v>332</v>
@@ -9080,8 +9084,8 @@
       <c r="B142">
         <v>6990</v>
       </c>
-      <c r="D142">
-        <v>0</v>
+      <c r="D142" t="s">
+        <v>404</v>
       </c>
       <c r="F142" t="s">
         <v>332</v>
@@ -9124,8 +9128,8 @@
       <c r="B143">
         <v>7890</v>
       </c>
-      <c r="D143">
-        <v>0</v>
+      <c r="D143" t="s">
+        <v>404</v>
       </c>
       <c r="F143" t="s">
         <v>332</v>
@@ -9168,8 +9172,8 @@
       <c r="B144">
         <v>7890</v>
       </c>
-      <c r="D144">
-        <v>0</v>
+      <c r="D144" t="s">
+        <v>404</v>
       </c>
       <c r="F144" t="s">
         <v>332</v>
@@ -9212,8 +9216,8 @@
       <c r="B145">
         <v>7890</v>
       </c>
-      <c r="D145">
-        <v>0</v>
+      <c r="D145" t="s">
+        <v>404</v>
       </c>
       <c r="F145" t="s">
         <v>332</v>
@@ -9256,8 +9260,8 @@
       <c r="B146">
         <v>7380</v>
       </c>
-      <c r="D146">
-        <v>0</v>
+      <c r="D146" t="s">
+        <v>404</v>
       </c>
       <c r="F146" t="s">
         <v>332</v>
@@ -9300,8 +9304,8 @@
       <c r="B147">
         <v>7380</v>
       </c>
-      <c r="D147">
-        <v>0</v>
+      <c r="D147" t="s">
+        <v>404</v>
       </c>
       <c r="F147" t="s">
         <v>332</v>
@@ -9344,8 +9348,8 @@
       <c r="B148">
         <v>7380</v>
       </c>
-      <c r="D148">
-        <v>0</v>
+      <c r="D148" t="s">
+        <v>404</v>
       </c>
       <c r="F148" t="s">
         <v>332</v>
@@ -9388,8 +9392,8 @@
       <c r="B149">
         <v>7380</v>
       </c>
-      <c r="D149">
-        <v>0</v>
+      <c r="D149" t="s">
+        <v>404</v>
       </c>
       <c r="F149" t="s">
         <v>332</v>
@@ -9432,8 +9436,8 @@
       <c r="B150">
         <v>8460</v>
       </c>
-      <c r="D150">
-        <v>0</v>
+      <c r="D150" t="s">
+        <v>404</v>
       </c>
       <c r="F150" t="s">
         <v>332</v>
@@ -9476,8 +9480,8 @@
       <c r="B151">
         <v>8460</v>
       </c>
-      <c r="D151">
-        <v>0</v>
+      <c r="D151" t="s">
+        <v>404</v>
       </c>
       <c r="F151" t="s">
         <v>332</v>
@@ -9520,8 +9524,8 @@
       <c r="B152">
         <v>8460</v>
       </c>
-      <c r="D152">
-        <v>0</v>
+      <c r="D152" t="s">
+        <v>404</v>
       </c>
       <c r="F152" t="s">
         <v>332</v>
@@ -9564,8 +9568,8 @@
       <c r="B153">
         <v>8460</v>
       </c>
-      <c r="D153">
-        <v>0</v>
+      <c r="D153" t="s">
+        <v>404</v>
       </c>
       <c r="F153" t="s">
         <v>332</v>
@@ -9608,8 +9612,8 @@
       <c r="B154">
         <v>8910</v>
       </c>
-      <c r="D154">
-        <v>0</v>
+      <c r="D154" t="s">
+        <v>404</v>
       </c>
       <c r="F154" t="s">
         <v>332</v>
@@ -9652,8 +9656,8 @@
       <c r="B155">
         <v>9600</v>
       </c>
-      <c r="D155">
-        <v>0</v>
+      <c r="D155" t="s">
+        <v>404</v>
       </c>
       <c r="F155" t="s">
         <v>332</v>
@@ -9696,8 +9700,8 @@
       <c r="B156">
         <v>9600</v>
       </c>
-      <c r="D156">
-        <v>0</v>
+      <c r="D156" t="s">
+        <v>404</v>
       </c>
       <c r="F156" t="s">
         <v>332</v>
@@ -9740,8 +9744,8 @@
       <c r="B157">
         <v>9600</v>
       </c>
-      <c r="D157">
-        <v>0</v>
+      <c r="D157" t="s">
+        <v>404</v>
       </c>
       <c r="F157" t="s">
         <v>332</v>
@@ -9784,8 +9788,8 @@
       <c r="B158">
         <v>8430</v>
       </c>
-      <c r="D158">
-        <v>0</v>
+      <c r="D158" t="s">
+        <v>404</v>
       </c>
       <c r="F158" t="s">
         <v>332</v>
@@ -9828,8 +9832,8 @@
       <c r="B159">
         <v>8430</v>
       </c>
-      <c r="D159">
-        <v>0</v>
+      <c r="D159" t="s">
+        <v>404</v>
       </c>
       <c r="F159" t="s">
         <v>332</v>
@@ -9872,8 +9876,8 @@
       <c r="B160">
         <v>8430</v>
       </c>
-      <c r="D160">
-        <v>0</v>
+      <c r="D160" t="s">
+        <v>404</v>
       </c>
       <c r="F160" t="s">
         <v>332</v>
@@ -9916,8 +9920,8 @@
       <c r="B161">
         <v>8430</v>
       </c>
-      <c r="D161">
-        <v>0</v>
+      <c r="D161" t="s">
+        <v>404</v>
       </c>
       <c r="F161" t="s">
         <v>332</v>
@@ -9960,8 +9964,8 @@
       <c r="B162">
         <v>9720</v>
       </c>
-      <c r="D162">
-        <v>0</v>
+      <c r="D162" t="s">
+        <v>404</v>
       </c>
       <c r="F162" t="s">
         <v>332</v>
@@ -10004,8 +10008,8 @@
       <c r="B163">
         <v>9720</v>
       </c>
-      <c r="D163">
-        <v>0</v>
+      <c r="D163" t="s">
+        <v>404</v>
       </c>
       <c r="F163" t="s">
         <v>332</v>
@@ -10048,8 +10052,8 @@
       <c r="B164">
         <v>9720</v>
       </c>
-      <c r="D164">
-        <v>0</v>
+      <c r="D164" t="s">
+        <v>404</v>
       </c>
       <c r="F164" t="s">
         <v>332</v>
@@ -10092,8 +10096,8 @@
       <c r="B165">
         <v>9720</v>
       </c>
-      <c r="D165">
-        <v>0</v>
+      <c r="D165" t="s">
+        <v>404</v>
       </c>
       <c r="F165" t="s">
         <v>332</v>
@@ -10136,8 +10140,8 @@
       <c r="B166">
         <v>10230</v>
       </c>
-      <c r="D166">
-        <v>0</v>
+      <c r="D166" t="s">
+        <v>404</v>
       </c>
       <c r="F166" t="s">
         <v>332</v>
@@ -10180,8 +10184,8 @@
       <c r="B167">
         <v>10950</v>
       </c>
-      <c r="D167">
-        <v>0</v>
+      <c r="D167" t="s">
+        <v>404</v>
       </c>
       <c r="F167" t="s">
         <v>332</v>
@@ -10224,8 +10228,8 @@
       <c r="B168">
         <v>10950</v>
       </c>
-      <c r="D168">
-        <v>0</v>
+      <c r="D168" t="s">
+        <v>404</v>
       </c>
       <c r="F168" t="s">
         <v>332</v>
@@ -10268,8 +10272,8 @@
       <c r="B169">
         <v>10950</v>
       </c>
-      <c r="D169">
-        <v>0</v>
+      <c r="D169" t="s">
+        <v>404</v>
       </c>
       <c r="F169" t="s">
         <v>332</v>
@@ -10312,8 +10316,8 @@
       <c r="B170">
         <v>9990</v>
       </c>
-      <c r="D170">
-        <v>0</v>
+      <c r="D170" t="s">
+        <v>404</v>
       </c>
       <c r="F170" t="s">
         <v>332</v>
@@ -10356,8 +10360,8 @@
       <c r="B171">
         <v>9990</v>
       </c>
-      <c r="D171">
-        <v>0</v>
+      <c r="D171" t="s">
+        <v>404</v>
       </c>
       <c r="F171" t="s">
         <v>332</v>
@@ -10400,8 +10404,8 @@
       <c r="B172">
         <v>9990</v>
       </c>
-      <c r="D172">
-        <v>0</v>
+      <c r="D172" t="s">
+        <v>404</v>
       </c>
       <c r="F172" t="s">
         <v>332</v>
@@ -10444,8 +10448,8 @@
       <c r="B173">
         <v>9990</v>
       </c>
-      <c r="D173">
-        <v>0</v>
+      <c r="D173" t="s">
+        <v>404</v>
       </c>
       <c r="F173" t="s">
         <v>332</v>
@@ -10488,8 +10492,8 @@
       <c r="B174">
         <v>11490</v>
       </c>
-      <c r="D174">
-        <v>0</v>
+      <c r="D174" t="s">
+        <v>404</v>
       </c>
       <c r="F174" t="s">
         <v>332</v>
@@ -10532,8 +10536,8 @@
       <c r="B175">
         <v>11490</v>
       </c>
-      <c r="D175">
-        <v>0</v>
+      <c r="D175" t="s">
+        <v>404</v>
       </c>
       <c r="F175" t="s">
         <v>332</v>
@@ -10576,8 +10580,8 @@
       <c r="B176">
         <v>11490</v>
       </c>
-      <c r="D176">
-        <v>0</v>
+      <c r="D176" t="s">
+        <v>404</v>
       </c>
       <c r="F176" t="s">
         <v>332</v>
@@ -10620,8 +10624,8 @@
       <c r="B177">
         <v>11490</v>
       </c>
-      <c r="D177">
-        <v>0</v>
+      <c r="D177" t="s">
+        <v>404</v>
       </c>
       <c r="F177" t="s">
         <v>332</v>
@@ -10664,8 +10668,8 @@
       <c r="B178">
         <v>12060</v>
       </c>
-      <c r="D178">
-        <v>0</v>
+      <c r="D178" t="s">
+        <v>404</v>
       </c>
       <c r="F178" t="s">
         <v>332</v>
@@ -10708,8 +10712,8 @@
       <c r="B179">
         <v>14010</v>
       </c>
-      <c r="D179">
-        <v>0</v>
+      <c r="D179" t="s">
+        <v>404</v>
       </c>
       <c r="F179" t="s">
         <v>332</v>
@@ -10752,8 +10756,8 @@
       <c r="B180">
         <v>14010</v>
       </c>
-      <c r="D180">
-        <v>0</v>
+      <c r="D180" t="s">
+        <v>404</v>
       </c>
       <c r="F180" t="s">
         <v>332</v>
@@ -10796,8 +10800,8 @@
       <c r="B181">
         <v>14010</v>
       </c>
-      <c r="D181">
-        <v>0</v>
+      <c r="D181" t="s">
+        <v>404</v>
       </c>
       <c r="F181" t="s">
         <v>332</v>
@@ -10840,8 +10844,8 @@
       <c r="B182">
         <v>11250</v>
       </c>
-      <c r="D182">
-        <v>0</v>
+      <c r="D182" t="s">
+        <v>404</v>
       </c>
       <c r="F182" t="s">
         <v>332</v>
@@ -10884,8 +10888,8 @@
       <c r="B183">
         <v>11250</v>
       </c>
-      <c r="D183">
-        <v>0</v>
+      <c r="D183" t="s">
+        <v>404</v>
       </c>
       <c r="F183" t="s">
         <v>332</v>
@@ -10928,8 +10932,8 @@
       <c r="B184">
         <v>11250</v>
       </c>
-      <c r="D184">
-        <v>0</v>
+      <c r="D184" t="s">
+        <v>404</v>
       </c>
       <c r="F184" t="s">
         <v>332</v>
@@ -10972,8 +10976,8 @@
       <c r="B185">
         <v>11250</v>
       </c>
-      <c r="D185">
-        <v>0</v>
+      <c r="D185" t="s">
+        <v>404</v>
       </c>
       <c r="F185" t="s">
         <v>332</v>
@@ -11016,8 +11020,8 @@
       <c r="B186">
         <v>12360</v>
       </c>
-      <c r="D186">
-        <v>0</v>
+      <c r="D186" t="s">
+        <v>404</v>
       </c>
       <c r="F186" t="s">
         <v>332</v>
@@ -11060,8 +11064,8 @@
       <c r="B187">
         <v>12360</v>
       </c>
-      <c r="D187">
-        <v>0</v>
+      <c r="D187" t="s">
+        <v>404</v>
       </c>
       <c r="F187" t="s">
         <v>332</v>
@@ -11104,8 +11108,8 @@
       <c r="B188">
         <v>12360</v>
       </c>
-      <c r="D188">
-        <v>0</v>
+      <c r="D188" t="s">
+        <v>404</v>
       </c>
       <c r="F188" t="s">
         <v>332</v>
@@ -11148,8 +11152,8 @@
       <c r="B189">
         <v>12360</v>
       </c>
-      <c r="D189">
-        <v>0</v>
+      <c r="D189" t="s">
+        <v>404</v>
       </c>
       <c r="F189" t="s">
         <v>332</v>
@@ -11192,8 +11196,8 @@
       <c r="B190">
         <v>12990</v>
       </c>
-      <c r="D190">
-        <v>0</v>
+      <c r="D190" t="s">
+        <v>404</v>
       </c>
       <c r="F190" t="s">
         <v>332</v>
@@ -11236,8 +11240,8 @@
       <c r="B191">
         <v>15750</v>
       </c>
-      <c r="D191">
-        <v>0</v>
+      <c r="D191" t="s">
+        <v>404</v>
       </c>
       <c r="F191" t="s">
         <v>332</v>
@@ -11280,8 +11284,8 @@
       <c r="B192">
         <v>15750</v>
       </c>
-      <c r="D192">
-        <v>0</v>
+      <c r="D192" t="s">
+        <v>404</v>
       </c>
       <c r="F192" t="s">
         <v>332</v>
@@ -11324,8 +11328,8 @@
       <c r="B193">
         <v>15750</v>
       </c>
-      <c r="D193">
-        <v>0</v>
+      <c r="D193" t="s">
+        <v>404</v>
       </c>
       <c r="F193" t="s">
         <v>332</v>
@@ -11368,8 +11372,8 @@
       <c r="B194">
         <v>12360</v>
       </c>
-      <c r="D194">
-        <v>0</v>
+      <c r="D194" t="s">
+        <v>404</v>
       </c>
       <c r="F194" t="s">
         <v>332</v>
@@ -11412,8 +11416,8 @@
       <c r="B195">
         <v>12360</v>
       </c>
-      <c r="D195">
-        <v>0</v>
+      <c r="D195" t="s">
+        <v>404</v>
       </c>
       <c r="F195" t="s">
         <v>332</v>
@@ -11456,8 +11460,8 @@
       <c r="B196">
         <v>12360</v>
       </c>
-      <c r="D196">
-        <v>0</v>
+      <c r="D196" t="s">
+        <v>404</v>
       </c>
       <c r="F196" t="s">
         <v>332</v>
@@ -11500,8 +11504,8 @@
       <c r="B197">
         <v>12360</v>
       </c>
-      <c r="D197">
-        <v>0</v>
+      <c r="D197" t="s">
+        <v>404</v>
       </c>
       <c r="F197" t="s">
         <v>332</v>
@@ -11544,8 +11548,8 @@
       <c r="B198">
         <v>13590</v>
       </c>
-      <c r="D198">
-        <v>0</v>
+      <c r="D198" t="s">
+        <v>404</v>
       </c>
       <c r="F198" t="s">
         <v>332</v>
@@ -11588,8 +11592,8 @@
       <c r="B199">
         <v>13590</v>
       </c>
-      <c r="D199">
-        <v>0</v>
+      <c r="D199" t="s">
+        <v>404</v>
       </c>
       <c r="F199" t="s">
         <v>332</v>
@@ -11632,8 +11636,8 @@
       <c r="B200">
         <v>13590</v>
       </c>
-      <c r="D200">
-        <v>0</v>
+      <c r="D200" t="s">
+        <v>404</v>
       </c>
       <c r="F200" t="s">
         <v>332</v>
@@ -11676,8 +11680,8 @@
       <c r="B201">
         <v>13590</v>
       </c>
-      <c r="D201">
-        <v>0</v>
+      <c r="D201" t="s">
+        <v>404</v>
       </c>
       <c r="F201" t="s">
         <v>332</v>
@@ -11720,8 +11724,8 @@
       <c r="B202">
         <v>14940</v>
       </c>
-      <c r="D202">
-        <v>0</v>
+      <c r="D202" t="s">
+        <v>404</v>
       </c>
       <c r="F202" t="s">
         <v>332</v>
@@ -11764,8 +11768,8 @@
       <c r="B203">
         <v>17280</v>
       </c>
-      <c r="D203">
-        <v>0</v>
+      <c r="D203" t="s">
+        <v>404</v>
       </c>
       <c r="F203" t="s">
         <v>332</v>
@@ -11808,8 +11812,8 @@
       <c r="B204">
         <v>17280</v>
       </c>
-      <c r="D204">
-        <v>0</v>
+      <c r="D204" t="s">
+        <v>404</v>
       </c>
       <c r="F204" t="s">
         <v>332</v>
@@ -11852,8 +11856,8 @@
       <c r="B205">
         <v>17280</v>
       </c>
-      <c r="D205">
-        <v>0</v>
+      <c r="D205" t="s">
+        <v>404</v>
       </c>
       <c r="F205" t="s">
         <v>332</v>
@@ -11896,8 +11900,8 @@
       <c r="B206">
         <v>14850</v>
       </c>
-      <c r="D206">
-        <v>0</v>
+      <c r="D206" t="s">
+        <v>404</v>
       </c>
       <c r="F206" t="s">
         <v>332</v>
@@ -11940,8 +11944,8 @@
       <c r="B207">
         <v>14850</v>
       </c>
-      <c r="D207">
-        <v>0</v>
+      <c r="D207" t="s">
+        <v>404</v>
       </c>
       <c r="F207" t="s">
         <v>332</v>
@@ -11984,8 +11988,8 @@
       <c r="B208">
         <v>14850</v>
       </c>
-      <c r="D208">
-        <v>0</v>
+      <c r="D208" t="s">
+        <v>404</v>
       </c>
       <c r="F208" t="s">
         <v>332</v>
@@ -12028,8 +12032,8 @@
       <c r="B209">
         <v>14850</v>
       </c>
-      <c r="D209">
-        <v>0</v>
+      <c r="D209" t="s">
+        <v>404</v>
       </c>
       <c r="F209" t="s">
         <v>332</v>
@@ -12072,8 +12076,8 @@
       <c r="B210">
         <v>16350</v>
       </c>
-      <c r="D210">
-        <v>0</v>
+      <c r="D210" t="s">
+        <v>404</v>
       </c>
       <c r="F210" t="s">
         <v>332</v>
@@ -12116,8 +12120,8 @@
       <c r="B211">
         <v>16350</v>
       </c>
-      <c r="D211">
-        <v>0</v>
+      <c r="D211" t="s">
+        <v>404</v>
       </c>
       <c r="F211" t="s">
         <v>332</v>
@@ -12160,8 +12164,8 @@
       <c r="B212">
         <v>16350</v>
       </c>
-      <c r="D212">
-        <v>0</v>
+      <c r="D212" t="s">
+        <v>404</v>
       </c>
       <c r="F212" t="s">
         <v>332</v>
@@ -12204,8 +12208,8 @@
       <c r="B213">
         <v>16110</v>
       </c>
-      <c r="D213">
-        <v>0</v>
+      <c r="D213" t="s">
+        <v>404</v>
       </c>
       <c r="F213" t="s">
         <v>332</v>
@@ -12248,8 +12252,8 @@
       <c r="B214">
         <v>16110</v>
       </c>
-      <c r="D214">
-        <v>0</v>
+      <c r="D214" t="s">
+        <v>404</v>
       </c>
       <c r="F214" t="s">
         <v>332</v>
@@ -12292,8 +12296,8 @@
       <c r="B215">
         <v>16110</v>
       </c>
-      <c r="D215">
-        <v>0</v>
+      <c r="D215" t="s">
+        <v>404</v>
       </c>
       <c r="F215" t="s">
         <v>332</v>
@@ -12336,8 +12340,8 @@
       <c r="B216">
         <v>16110</v>
       </c>
-      <c r="D216">
-        <v>0</v>
+      <c r="D216" t="s">
+        <v>404</v>
       </c>
       <c r="F216" t="s">
         <v>332</v>
@@ -12380,8 +12384,8 @@
       <c r="B217">
         <v>17730</v>
       </c>
-      <c r="D217">
-        <v>0</v>
+      <c r="D217" t="s">
+        <v>404</v>
       </c>
       <c r="F217" t="s">
         <v>332</v>
@@ -12424,8 +12428,8 @@
       <c r="B218">
         <v>17730</v>
       </c>
-      <c r="D218">
-        <v>0</v>
+      <c r="D218" t="s">
+        <v>404</v>
       </c>
       <c r="F218" t="s">
         <v>332</v>
@@ -12468,8 +12472,8 @@
       <c r="B219">
         <v>17730</v>
       </c>
-      <c r="D219">
-        <v>0</v>
+      <c r="D219" t="s">
+        <v>404</v>
       </c>
       <c r="F219" t="s">
         <v>332</v>
@@ -12512,8 +12516,8 @@
       <c r="B220">
         <v>22830</v>
       </c>
-      <c r="D220">
-        <v>0</v>
+      <c r="D220" t="s">
+        <v>404</v>
       </c>
       <c r="F220" t="s">
         <v>332</v>
@@ -12556,8 +12560,8 @@
       <c r="B221">
         <v>22830</v>
       </c>
-      <c r="D221">
-        <v>0</v>
+      <c r="D221" t="s">
+        <v>404</v>
       </c>
       <c r="F221" t="s">
         <v>332</v>
@@ -12600,8 +12604,8 @@
       <c r="B222">
         <v>22830</v>
       </c>
-      <c r="D222">
-        <v>0</v>
+      <c r="D222" t="s">
+        <v>404</v>
       </c>
       <c r="F222" t="s">
         <v>332</v>
@@ -12644,8 +12648,8 @@
       <c r="B223">
         <v>22830</v>
       </c>
-      <c r="D223">
-        <v>0</v>
+      <c r="D223" t="s">
+        <v>404</v>
       </c>
       <c r="F223" t="s">
         <v>332</v>
@@ -12688,8 +12692,8 @@
       <c r="B224">
         <v>24890</v>
       </c>
-      <c r="D224">
-        <v>0</v>
+      <c r="D224" t="s">
+        <v>404</v>
       </c>
       <c r="F224" t="s">
         <v>332</v>
@@ -12732,8 +12736,8 @@
       <c r="B225">
         <v>24890</v>
       </c>
-      <c r="D225">
-        <v>0</v>
+      <c r="D225" t="s">
+        <v>404</v>
       </c>
       <c r="F225" t="s">
         <v>332</v>
@@ -12776,8 +12780,8 @@
       <c r="B226">
         <v>24890</v>
       </c>
-      <c r="D226">
-        <v>0</v>
+      <c r="D226" t="s">
+        <v>404</v>
       </c>
       <c r="F226" t="s">
         <v>332</v>
@@ -12820,8 +12824,8 @@
       <c r="B227">
         <v>26640</v>
       </c>
-      <c r="D227">
-        <v>0</v>
+      <c r="D227" t="s">
+        <v>404</v>
       </c>
       <c r="F227" t="s">
         <v>332</v>
@@ -12864,8 +12868,8 @@
       <c r="B228">
         <v>26640</v>
       </c>
-      <c r="D228">
-        <v>0</v>
+      <c r="D228" t="s">
+        <v>404</v>
       </c>
       <c r="F228" t="s">
         <v>332</v>
@@ -12908,8 +12912,8 @@
       <c r="B229">
         <v>26640</v>
       </c>
-      <c r="D229">
-        <v>0</v>
+      <c r="D229" t="s">
+        <v>404</v>
       </c>
       <c r="F229" t="s">
         <v>332</v>
@@ -12952,8 +12956,8 @@
       <c r="B230">
         <v>26640</v>
       </c>
-      <c r="D230">
-        <v>0</v>
+      <c r="D230" t="s">
+        <v>404</v>
       </c>
       <c r="F230" t="s">
         <v>332</v>
@@ -12996,8 +13000,8 @@
       <c r="B231">
         <v>29250</v>
       </c>
-      <c r="D231">
-        <v>0</v>
+      <c r="D231" t="s">
+        <v>404</v>
       </c>
       <c r="F231" t="s">
         <v>332</v>
@@ -13040,8 +13044,8 @@
       <c r="B232">
         <v>29250</v>
       </c>
-      <c r="D232">
-        <v>0</v>
+      <c r="D232" t="s">
+        <v>404</v>
       </c>
       <c r="F232" t="s">
         <v>332</v>
@@ -13084,8 +13088,8 @@
       <c r="B233">
         <v>115740</v>
       </c>
-      <c r="D233">
-        <v>0</v>
+      <c r="D233" t="s">
+        <v>404</v>
       </c>
       <c r="F233" t="s">
         <v>332</v>
@@ -13125,8 +13129,8 @@
       <c r="B234">
         <v>127590</v>
       </c>
-      <c r="D234">
-        <v>0</v>
+      <c r="D234" t="s">
+        <v>404</v>
       </c>
       <c r="F234" t="s">
         <v>332</v>
@@ -13166,8 +13170,8 @@
       <c r="B235">
         <v>127590</v>
       </c>
-      <c r="D235">
-        <v>0</v>
+      <c r="D235" t="s">
+        <v>404</v>
       </c>
       <c r="F235" t="s">
         <v>332</v>
@@ -13207,8 +13211,8 @@
       <c r="B236">
         <v>163200</v>
       </c>
-      <c r="D236">
-        <v>0</v>
+      <c r="D236" t="s">
+        <v>404</v>
       </c>
       <c r="F236" t="s">
         <v>332</v>
@@ -13248,8 +13252,8 @@
       <c r="B237">
         <v>179520</v>
       </c>
-      <c r="D237">
-        <v>0</v>
+      <c r="D237" t="s">
+        <v>404</v>
       </c>
       <c r="F237" t="s">
         <v>332</v>
@@ -13289,8 +13293,8 @@
       <c r="B238">
         <v>179520</v>
       </c>
-      <c r="D238">
-        <v>0</v>
+      <c r="D238" t="s">
+        <v>404</v>
       </c>
       <c r="F238" t="s">
         <v>332</v>
@@ -13330,8 +13334,8 @@
       <c r="B239">
         <v>249090</v>
       </c>
-      <c r="D239">
-        <v>0</v>
+      <c r="D239" t="s">
+        <v>404</v>
       </c>
       <c r="F239" t="s">
         <v>332</v>
@@ -13371,8 +13375,8 @@
       <c r="B240">
         <v>274000</v>
       </c>
-      <c r="D240">
-        <v>0</v>
+      <c r="D240" t="s">
+        <v>404</v>
       </c>
       <c r="F240" t="s">
         <v>332</v>
@@ -13412,8 +13416,8 @@
       <c r="B241">
         <v>274000</v>
       </c>
-      <c r="D241">
-        <v>0</v>
+      <c r="D241" t="s">
+        <v>404</v>
       </c>
       <c r="F241" t="s">
         <v>332</v>
@@ -13453,8 +13457,8 @@
       <c r="B242">
         <v>1015</v>
       </c>
-      <c r="D242">
-        <v>0</v>
+      <c r="D242" t="s">
+        <v>404</v>
       </c>
       <c r="F242" t="s">
         <v>332</v>
@@ -13497,8 +13501,8 @@
       <c r="B243">
         <v>1330</v>
       </c>
-      <c r="D243">
-        <v>0</v>
+      <c r="D243" t="s">
+        <v>404</v>
       </c>
       <c r="F243" t="s">
         <v>332</v>
@@ -13541,8 +13545,8 @@
       <c r="B244">
         <v>1715</v>
       </c>
-      <c r="D244">
-        <v>0</v>
+      <c r="D244" t="s">
+        <v>404</v>
       </c>
       <c r="F244" t="s">
         <v>332</v>
@@ -13585,8 +13589,8 @@
       <c r="B245">
         <v>2135</v>
       </c>
-      <c r="D245">
-        <v>0</v>
+      <c r="D245" t="s">
+        <v>404</v>
       </c>
       <c r="F245" t="s">
         <v>332</v>
@@ -13629,8 +13633,8 @@
       <c r="B246">
         <v>3750</v>
       </c>
-      <c r="D246">
-        <v>0</v>
+      <c r="D246" t="s">
+        <v>404</v>
       </c>
       <c r="F246" t="s">
         <v>332</v>
@@ -13673,8 +13677,8 @@
       <c r="B247">
         <v>4230</v>
       </c>
-      <c r="D247">
-        <v>0</v>
+      <c r="D247" t="s">
+        <v>404</v>
       </c>
       <c r="F247" t="s">
         <v>332</v>
@@ -13717,8 +13721,8 @@
       <c r="B248">
         <v>9720</v>
       </c>
-      <c r="D248">
-        <v>0</v>
+      <c r="D248" t="s">
+        <v>404</v>
       </c>
       <c r="F248" t="s">
         <v>332</v>
@@ -13755,8 +13759,8 @@
       <c r="B249">
         <v>11490</v>
       </c>
-      <c r="D249">
-        <v>0</v>
+      <c r="D249" t="s">
+        <v>404</v>
       </c>
       <c r="F249" t="s">
         <v>332</v>
@@ -13793,8 +13797,8 @@
       <c r="B250">
         <v>12360</v>
       </c>
-      <c r="D250">
-        <v>0</v>
+      <c r="D250" t="s">
+        <v>404</v>
       </c>
       <c r="F250" t="s">
         <v>332</v>
@@ -13831,8 +13835,8 @@
       <c r="B251">
         <v>13590</v>
       </c>
-      <c r="D251">
-        <v>0</v>
+      <c r="D251" t="s">
+        <v>404</v>
       </c>
       <c r="F251" t="s">
         <v>332</v>
@@ -13869,8 +13873,8 @@
       <c r="B252">
         <v>16350</v>
       </c>
-      <c r="D252">
-        <v>0</v>
+      <c r="D252" t="s">
+        <v>404</v>
       </c>
       <c r="F252" t="s">
         <v>332</v>
@@ -13907,8 +13911,8 @@
       <c r="B253">
         <v>17730</v>
       </c>
-      <c r="D253">
-        <v>0</v>
+      <c r="D253" t="s">
+        <v>404</v>
       </c>
       <c r="F253" t="s">
         <v>332</v>
@@ -13945,8 +13949,8 @@
       <c r="B254">
         <v>29250</v>
       </c>
-      <c r="D254">
-        <v>0</v>
+      <c r="D254" t="s">
+        <v>404</v>
       </c>
       <c r="F254" t="s">
         <v>332</v>
@@ -13983,8 +13987,8 @@
       <c r="B255">
         <v>127590</v>
       </c>
-      <c r="D255">
-        <v>0</v>
+      <c r="D255" t="s">
+        <v>404</v>
       </c>
       <c r="F255" t="s">
         <v>332</v>
@@ -14021,8 +14025,8 @@
       <c r="B256">
         <v>179520</v>
       </c>
-      <c r="D256">
-        <v>0</v>
+      <c r="D256" t="s">
+        <v>404</v>
       </c>
       <c r="F256" t="s">
         <v>332</v>
@@ -14059,8 +14063,8 @@
       <c r="B257">
         <v>274000</v>
       </c>
-      <c r="D257">
-        <v>0</v>
+      <c r="D257" t="s">
+        <v>404</v>
       </c>
       <c r="F257" t="s">
         <v>332</v>
@@ -14097,8 +14101,8 @@
       <c r="B258">
         <v>4848</v>
       </c>
-      <c r="D258">
-        <v>0</v>
+      <c r="D258" t="s">
+        <v>404</v>
       </c>
       <c r="F258" t="s">
         <v>332</v>
@@ -14138,8 +14142,8 @@
       <c r="B259">
         <v>5824</v>
       </c>
-      <c r="D259">
-        <v>0</v>
+      <c r="D259" t="s">
+        <v>404</v>
       </c>
       <c r="F259" t="s">
         <v>332</v>
@@ -14179,8 +14183,8 @@
       <c r="B260">
         <v>6744</v>
       </c>
-      <c r="D260">
-        <v>0</v>
+      <c r="D260" t="s">
+        <v>404</v>
       </c>
       <c r="F260" t="s">
         <v>332</v>
@@ -14220,8 +14224,8 @@
       <c r="B261">
         <v>7940</v>
       </c>
-      <c r="D261">
-        <v>0</v>
+      <c r="D261" t="s">
+        <v>404</v>
       </c>
       <c r="F261" t="s">
         <v>332</v>
@@ -14261,8 +14265,8 @@
       <c r="B262">
         <v>9000</v>
       </c>
-      <c r="D262">
-        <v>0</v>
+      <c r="D262" t="s">
+        <v>404</v>
       </c>
       <c r="F262" t="s">
         <v>332</v>
@@ -14297,6 +14301,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -2011,8 +2011,8 @@
   <dimension ref="A1:AN262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121:D128"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J130" sqref="J130:J262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,6 +2155,9 @@
       <c r="B2">
         <v>1050</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
       <c r="D2" t="s">
         <v>404</v>
       </c>
@@ -2269,6 +2272,9 @@
       <c r="B3">
         <v>1950</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
         <v>404</v>
       </c>
@@ -2330,6 +2336,9 @@
       <c r="B4">
         <v>3195</v>
       </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
       <c r="D4" t="s">
         <v>404</v>
       </c>
@@ -2391,6 +2400,9 @@
       <c r="B5">
         <v>3755</v>
       </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5" t="s">
         <v>404</v>
       </c>
@@ -2452,6 +2464,9 @@
       <c r="B6">
         <v>4860</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>404</v>
       </c>
@@ -2513,6 +2528,9 @@
       <c r="B7">
         <v>5550</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>404</v>
       </c>
@@ -2574,6 +2592,9 @@
       <c r="B8">
         <v>5975</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
         <v>404</v>
       </c>
@@ -2635,6 +2656,9 @@
       <c r="B9">
         <v>5200</v>
       </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
       <c r="D9" t="s">
         <v>404</v>
       </c>
@@ -2696,6 +2720,9 @@
       <c r="B10">
         <v>6200</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
       <c r="D10" t="s">
         <v>404</v>
       </c>
@@ -2757,6 +2784,9 @@
       <c r="B11">
         <v>7200</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
       <c r="D11" t="s">
         <v>404</v>
       </c>
@@ -2818,6 +2848,9 @@
       <c r="B12">
         <v>9200</v>
       </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
       <c r="D12" t="s">
         <v>404</v>
       </c>
@@ -2879,6 +2912,9 @@
       <c r="B13">
         <v>10200</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="D13" t="s">
         <v>404</v>
       </c>
@@ -2940,6 +2976,9 @@
       <c r="B14">
         <v>16200</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="D14" t="s">
         <v>404</v>
       </c>
@@ -3001,6 +3040,9 @@
       <c r="B15">
         <v>18200</v>
       </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
       <c r="D15" t="s">
         <v>404</v>
       </c>
@@ -3062,6 +3104,9 @@
       <c r="B16">
         <v>5500</v>
       </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
       <c r="D16" t="s">
         <v>404</v>
       </c>
@@ -3123,6 +3168,9 @@
       <c r="B17">
         <v>6500</v>
       </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
       <c r="D17" t="s">
         <v>404</v>
       </c>
@@ -3184,6 +3232,9 @@
       <c r="B18">
         <v>7500</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="D18" t="s">
         <v>404</v>
       </c>
@@ -3245,6 +3296,9 @@
       <c r="B19">
         <v>9500</v>
       </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
       <c r="D19" t="s">
         <v>404</v>
       </c>
@@ -3306,6 +3360,9 @@
       <c r="B20">
         <v>10500</v>
       </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
       <c r="D20" t="s">
         <v>404</v>
       </c>
@@ -3367,6 +3424,9 @@
       <c r="B21">
         <v>17000</v>
       </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
       <c r="D21" t="s">
         <v>404</v>
       </c>
@@ -3428,6 +3488,9 @@
       <c r="B22">
         <v>19000</v>
       </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
       <c r="D22" t="s">
         <v>404</v>
       </c>
@@ -3489,6 +3552,9 @@
       <c r="B23">
         <v>5150</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23" t="s">
         <v>404</v>
       </c>
@@ -3550,6 +3616,9 @@
       <c r="B24">
         <v>5150</v>
       </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
       <c r="D24" t="s">
         <v>404</v>
       </c>
@@ -3611,6 +3680,9 @@
       <c r="B25">
         <v>5150</v>
       </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
       <c r="D25" t="s">
         <v>404</v>
       </c>
@@ -3672,6 +3744,9 @@
       <c r="B26">
         <v>5150</v>
       </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
       <c r="D26" t="s">
         <v>404</v>
       </c>
@@ -3733,6 +3808,9 @@
       <c r="B27">
         <v>5950</v>
       </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
       <c r="D27" t="s">
         <v>404</v>
       </c>
@@ -3794,6 +3872,9 @@
       <c r="B28">
         <v>5950</v>
       </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
       <c r="D28" t="s">
         <v>404</v>
       </c>
@@ -3855,6 +3936,9 @@
       <c r="B29">
         <v>5950</v>
       </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
       <c r="D29" t="s">
         <v>404</v>
       </c>
@@ -3916,6 +4000,9 @@
       <c r="B30">
         <v>5950</v>
       </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
       <c r="D30" t="s">
         <v>404</v>
       </c>
@@ -3977,6 +4064,9 @@
       <c r="B31">
         <v>6950</v>
       </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
       <c r="D31" t="s">
         <v>404</v>
       </c>
@@ -4038,6 +4128,9 @@
       <c r="B32">
         <v>6950</v>
       </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
       <c r="D32" t="s">
         <v>404</v>
       </c>
@@ -4099,6 +4192,9 @@
       <c r="B33">
         <v>6950</v>
       </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
       <c r="D33" t="s">
         <v>404</v>
       </c>
@@ -4160,6 +4256,9 @@
       <c r="B34">
         <v>6950</v>
       </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
       <c r="D34" t="s">
         <v>404</v>
       </c>
@@ -4221,6 +4320,9 @@
       <c r="B35">
         <v>8450</v>
       </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
       <c r="D35" t="s">
         <v>404</v>
       </c>
@@ -4282,6 +4384,9 @@
       <c r="B36">
         <v>8450</v>
       </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
       <c r="D36" t="s">
         <v>404</v>
       </c>
@@ -4343,6 +4448,9 @@
       <c r="B37">
         <v>8450</v>
       </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
       <c r="D37" t="s">
         <v>404</v>
       </c>
@@ -4404,6 +4512,9 @@
       <c r="B38">
         <v>8450</v>
       </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
       <c r="D38" t="s">
         <v>404</v>
       </c>
@@ -4465,6 +4576,9 @@
       <c r="B39">
         <v>9350</v>
       </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
       <c r="D39" t="s">
         <v>404</v>
       </c>
@@ -4526,6 +4640,9 @@
       <c r="B40">
         <v>9350</v>
       </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
       <c r="D40" t="s">
         <v>404</v>
       </c>
@@ -4587,6 +4704,9 @@
       <c r="B41">
         <v>9350</v>
       </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
       <c r="D41" t="s">
         <v>404</v>
       </c>
@@ -4648,6 +4768,9 @@
       <c r="B42">
         <v>9350</v>
       </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
       <c r="D42" t="s">
         <v>404</v>
       </c>
@@ -4709,6 +4832,9 @@
       <c r="B43">
         <v>11550</v>
       </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
       <c r="D43" t="s">
         <v>404</v>
       </c>
@@ -4770,6 +4896,9 @@
       <c r="B44">
         <v>11550</v>
       </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
       <c r="D44" t="s">
         <v>404</v>
       </c>
@@ -4831,6 +4960,9 @@
       <c r="B45">
         <v>11550</v>
       </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
       <c r="D45" t="s">
         <v>404</v>
       </c>
@@ -4892,6 +5024,9 @@
       <c r="B46">
         <v>11550</v>
       </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
       <c r="D46" t="s">
         <v>404</v>
       </c>
@@ -4953,6 +5088,9 @@
       <c r="B47">
         <v>12850</v>
       </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
       <c r="D47" t="s">
         <v>404</v>
       </c>
@@ -5013,6 +5151,9 @@
       </c>
       <c r="B48">
         <v>12850</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
       <c r="D48" t="s">
         <v>404</v>
@@ -5075,6 +5216,9 @@
       <c r="B49">
         <v>12850</v>
       </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
       <c r="D49" t="s">
         <v>404</v>
       </c>
@@ -5136,6 +5280,9 @@
       <c r="B50">
         <v>12850</v>
       </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
       <c r="D50" t="s">
         <v>404</v>
       </c>
@@ -8512,6 +8659,9 @@
       <c r="B129">
         <v>3360</v>
       </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
       <c r="D129" t="s">
         <v>404</v>
       </c>
@@ -8523,6 +8673,9 @@
       </c>
       <c r="I129">
         <v>60</v>
+      </c>
+      <c r="J129">
+        <v>5</v>
       </c>
       <c r="K129" t="s">
         <v>315</v>
@@ -8556,6 +8709,9 @@
       <c r="B130">
         <v>3360</v>
       </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
       <c r="D130" t="s">
         <v>404</v>
       </c>
@@ -8567,6 +8723,9 @@
       </c>
       <c r="I130">
         <v>60</v>
+      </c>
+      <c r="J130">
+        <v>5</v>
       </c>
       <c r="K130" t="s">
         <v>315</v>
@@ -8600,6 +8759,9 @@
       <c r="B131">
         <v>3870</v>
       </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
       <c r="D131" t="s">
         <v>404</v>
       </c>
@@ -8611,6 +8773,9 @@
       </c>
       <c r="I131">
         <v>60</v>
+      </c>
+      <c r="J131">
+        <v>5</v>
       </c>
       <c r="K131" t="s">
         <v>316</v>
@@ -8644,6 +8809,9 @@
       <c r="B132">
         <v>3840</v>
       </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
       <c r="D132" t="s">
         <v>404</v>
       </c>
@@ -8655,6 +8823,9 @@
       </c>
       <c r="I132">
         <v>60</v>
+      </c>
+      <c r="J132">
+        <v>5</v>
       </c>
       <c r="K132" t="s">
         <v>315</v>
@@ -8688,6 +8859,9 @@
       <c r="B133">
         <v>3840</v>
       </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
       <c r="D133" t="s">
         <v>404</v>
       </c>
@@ -8699,6 +8873,9 @@
       </c>
       <c r="I133">
         <v>60</v>
+      </c>
+      <c r="J133">
+        <v>5</v>
       </c>
       <c r="K133" t="s">
         <v>315</v>
@@ -8732,6 +8909,9 @@
       <c r="B134">
         <v>5550</v>
       </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
       <c r="D134" t="s">
         <v>404</v>
       </c>
@@ -8743,6 +8923,9 @@
       </c>
       <c r="I134">
         <v>60</v>
+      </c>
+      <c r="J134">
+        <v>5</v>
       </c>
       <c r="K134" t="s">
         <v>317</v>
@@ -8776,6 +8959,9 @@
       <c r="B135">
         <v>6060</v>
       </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
       <c r="D135" t="s">
         <v>404</v>
       </c>
@@ -8787,6 +8973,9 @@
       </c>
       <c r="I135">
         <v>60</v>
+      </c>
+      <c r="J135">
+        <v>5</v>
       </c>
       <c r="K135" t="s">
         <v>318</v>
@@ -8820,6 +9009,9 @@
       <c r="B136">
         <v>6060</v>
       </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
       <c r="D136" t="s">
         <v>404</v>
       </c>
@@ -8831,6 +9023,9 @@
       </c>
       <c r="I136">
         <v>60</v>
+      </c>
+      <c r="J136">
+        <v>5</v>
       </c>
       <c r="K136" t="s">
         <v>318</v>
@@ -8864,6 +9059,9 @@
       <c r="B137">
         <v>6060</v>
       </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
       <c r="D137" t="s">
         <v>404</v>
       </c>
@@ -8875,6 +9073,9 @@
       </c>
       <c r="I137">
         <v>60</v>
+      </c>
+      <c r="J137">
+        <v>5</v>
       </c>
       <c r="K137" t="s">
         <v>318</v>
@@ -8908,6 +9109,9 @@
       <c r="B138">
         <v>6060</v>
       </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
       <c r="D138" t="s">
         <v>404</v>
       </c>
@@ -8919,6 +9123,9 @@
       </c>
       <c r="I138">
         <v>60</v>
+      </c>
+      <c r="J138">
+        <v>5</v>
       </c>
       <c r="K138" t="s">
         <v>318</v>
@@ -8952,6 +9159,9 @@
       <c r="B139">
         <v>6990</v>
       </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
       <c r="D139" t="s">
         <v>404</v>
       </c>
@@ -8963,6 +9173,9 @@
       </c>
       <c r="I139">
         <v>60</v>
+      </c>
+      <c r="J139">
+        <v>5</v>
       </c>
       <c r="K139" t="s">
         <v>318</v>
@@ -8996,6 +9209,9 @@
       <c r="B140">
         <v>6990</v>
       </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
       <c r="D140" t="s">
         <v>404</v>
       </c>
@@ -9007,6 +9223,9 @@
       </c>
       <c r="I140">
         <v>60</v>
+      </c>
+      <c r="J140">
+        <v>5</v>
       </c>
       <c r="K140" t="s">
         <v>318</v>
@@ -9040,6 +9259,9 @@
       <c r="B141">
         <v>6990</v>
       </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
       <c r="D141" t="s">
         <v>404</v>
       </c>
@@ -9051,6 +9273,9 @@
       </c>
       <c r="I141">
         <v>60</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
       </c>
       <c r="K141" t="s">
         <v>318</v>
@@ -9084,6 +9309,9 @@
       <c r="B142">
         <v>6990</v>
       </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
       <c r="D142" t="s">
         <v>404</v>
       </c>
@@ -9095,6 +9323,9 @@
       </c>
       <c r="I142">
         <v>60</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
       </c>
       <c r="K142" t="s">
         <v>318</v>
@@ -9128,6 +9359,9 @@
       <c r="B143">
         <v>7890</v>
       </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
       <c r="D143" t="s">
         <v>404</v>
       </c>
@@ -9139,6 +9373,9 @@
       </c>
       <c r="I143">
         <v>60</v>
+      </c>
+      <c r="J143">
+        <v>5</v>
       </c>
       <c r="K143" t="s">
         <v>318</v>
@@ -9172,6 +9409,9 @@
       <c r="B144">
         <v>7890</v>
       </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
       <c r="D144" t="s">
         <v>404</v>
       </c>
@@ -9183,6 +9423,9 @@
       </c>
       <c r="I144">
         <v>60</v>
+      </c>
+      <c r="J144">
+        <v>5</v>
       </c>
       <c r="K144" t="s">
         <v>318</v>
@@ -9216,6 +9459,9 @@
       <c r="B145">
         <v>7890</v>
       </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
       <c r="D145" t="s">
         <v>404</v>
       </c>
@@ -9227,6 +9473,9 @@
       </c>
       <c r="I145">
         <v>60</v>
+      </c>
+      <c r="J145">
+        <v>5</v>
       </c>
       <c r="K145" t="s">
         <v>318</v>
@@ -9260,6 +9509,9 @@
       <c r="B146">
         <v>7380</v>
       </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
       <c r="D146" t="s">
         <v>404</v>
       </c>
@@ -9271,6 +9523,9 @@
       </c>
       <c r="I146">
         <v>60</v>
+      </c>
+      <c r="J146">
+        <v>5</v>
       </c>
       <c r="K146" t="s">
         <v>318</v>
@@ -9304,6 +9559,9 @@
       <c r="B147">
         <v>7380</v>
       </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
       <c r="D147" t="s">
         <v>404</v>
       </c>
@@ -9315,6 +9573,9 @@
       </c>
       <c r="I147">
         <v>60</v>
+      </c>
+      <c r="J147">
+        <v>5</v>
       </c>
       <c r="K147" t="s">
         <v>318</v>
@@ -9348,6 +9609,9 @@
       <c r="B148">
         <v>7380</v>
       </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
       <c r="D148" t="s">
         <v>404</v>
       </c>
@@ -9359,6 +9623,9 @@
       </c>
       <c r="I148">
         <v>60</v>
+      </c>
+      <c r="J148">
+        <v>5</v>
       </c>
       <c r="K148" t="s">
         <v>318</v>
@@ -9392,6 +9659,9 @@
       <c r="B149">
         <v>7380</v>
       </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
       <c r="D149" t="s">
         <v>404</v>
       </c>
@@ -9403,6 +9673,9 @@
       </c>
       <c r="I149">
         <v>60</v>
+      </c>
+      <c r="J149">
+        <v>5</v>
       </c>
       <c r="K149" t="s">
         <v>318</v>
@@ -9436,6 +9709,9 @@
       <c r="B150">
         <v>8460</v>
       </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
       <c r="D150" t="s">
         <v>404</v>
       </c>
@@ -9447,6 +9723,9 @@
       </c>
       <c r="I150">
         <v>60</v>
+      </c>
+      <c r="J150">
+        <v>5</v>
       </c>
       <c r="K150" t="s">
         <v>318</v>
@@ -9480,6 +9759,9 @@
       <c r="B151">
         <v>8460</v>
       </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
       <c r="D151" t="s">
         <v>404</v>
       </c>
@@ -9491,6 +9773,9 @@
       </c>
       <c r="I151">
         <v>60</v>
+      </c>
+      <c r="J151">
+        <v>5</v>
       </c>
       <c r="K151" t="s">
         <v>318</v>
@@ -9524,6 +9809,9 @@
       <c r="B152">
         <v>8460</v>
       </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
       <c r="D152" t="s">
         <v>404</v>
       </c>
@@ -9535,6 +9823,9 @@
       </c>
       <c r="I152">
         <v>60</v>
+      </c>
+      <c r="J152">
+        <v>5</v>
       </c>
       <c r="K152" t="s">
         <v>318</v>
@@ -9568,6 +9859,9 @@
       <c r="B153">
         <v>8460</v>
       </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
       <c r="D153" t="s">
         <v>404</v>
       </c>
@@ -9579,6 +9873,9 @@
       </c>
       <c r="I153">
         <v>60</v>
+      </c>
+      <c r="J153">
+        <v>5</v>
       </c>
       <c r="K153" t="s">
         <v>318</v>
@@ -9612,6 +9909,9 @@
       <c r="B154">
         <v>8910</v>
       </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
       <c r="D154" t="s">
         <v>404</v>
       </c>
@@ -9623,6 +9923,9 @@
       </c>
       <c r="I154">
         <v>60</v>
+      </c>
+      <c r="J154">
+        <v>5</v>
       </c>
       <c r="K154" t="s">
         <v>318</v>
@@ -9656,6 +9959,9 @@
       <c r="B155">
         <v>9600</v>
       </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
       <c r="D155" t="s">
         <v>404</v>
       </c>
@@ -9667,6 +9973,9 @@
       </c>
       <c r="I155">
         <v>60</v>
+      </c>
+      <c r="J155">
+        <v>5</v>
       </c>
       <c r="K155" t="s">
         <v>318</v>
@@ -9700,6 +10009,9 @@
       <c r="B156">
         <v>9600</v>
       </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
       <c r="D156" t="s">
         <v>404</v>
       </c>
@@ -9711,6 +10023,9 @@
       </c>
       <c r="I156">
         <v>60</v>
+      </c>
+      <c r="J156">
+        <v>5</v>
       </c>
       <c r="K156" t="s">
         <v>318</v>
@@ -9744,6 +10059,9 @@
       <c r="B157">
         <v>9600</v>
       </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
       <c r="D157" t="s">
         <v>404</v>
       </c>
@@ -9755,6 +10073,9 @@
       </c>
       <c r="I157">
         <v>60</v>
+      </c>
+      <c r="J157">
+        <v>5</v>
       </c>
       <c r="K157" t="s">
         <v>318</v>
@@ -9788,6 +10109,9 @@
       <c r="B158">
         <v>8430</v>
       </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
       <c r="D158" t="s">
         <v>404</v>
       </c>
@@ -9799,6 +10123,9 @@
       </c>
       <c r="I158">
         <v>60</v>
+      </c>
+      <c r="J158">
+        <v>5</v>
       </c>
       <c r="K158" t="s">
         <v>318</v>
@@ -9832,6 +10159,9 @@
       <c r="B159">
         <v>8430</v>
       </c>
+      <c r="C159">
+        <v>5</v>
+      </c>
       <c r="D159" t="s">
         <v>404</v>
       </c>
@@ -9843,6 +10173,9 @@
       </c>
       <c r="I159">
         <v>60</v>
+      </c>
+      <c r="J159">
+        <v>5</v>
       </c>
       <c r="K159" t="s">
         <v>318</v>
@@ -9876,6 +10209,9 @@
       <c r="B160">
         <v>8430</v>
       </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
       <c r="D160" t="s">
         <v>404</v>
       </c>
@@ -9887,6 +10223,9 @@
       </c>
       <c r="I160">
         <v>60</v>
+      </c>
+      <c r="J160">
+        <v>5</v>
       </c>
       <c r="K160" t="s">
         <v>318</v>
@@ -9920,6 +10259,9 @@
       <c r="B161">
         <v>8430</v>
       </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
       <c r="D161" t="s">
         <v>404</v>
       </c>
@@ -9931,6 +10273,9 @@
       </c>
       <c r="I161">
         <v>60</v>
+      </c>
+      <c r="J161">
+        <v>5</v>
       </c>
       <c r="K161" t="s">
         <v>318</v>
@@ -9964,6 +10309,9 @@
       <c r="B162">
         <v>9720</v>
       </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
       <c r="D162" t="s">
         <v>404</v>
       </c>
@@ -9975,6 +10323,9 @@
       </c>
       <c r="I162">
         <v>60</v>
+      </c>
+      <c r="J162">
+        <v>5</v>
       </c>
       <c r="K162" t="s">
         <v>318</v>
@@ -10008,6 +10359,9 @@
       <c r="B163">
         <v>9720</v>
       </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
       <c r="D163" t="s">
         <v>404</v>
       </c>
@@ -10019,6 +10373,9 @@
       </c>
       <c r="I163">
         <v>60</v>
+      </c>
+      <c r="J163">
+        <v>5</v>
       </c>
       <c r="K163" t="s">
         <v>318</v>
@@ -10052,6 +10409,9 @@
       <c r="B164">
         <v>9720</v>
       </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
       <c r="D164" t="s">
         <v>404</v>
       </c>
@@ -10063,6 +10423,9 @@
       </c>
       <c r="I164">
         <v>60</v>
+      </c>
+      <c r="J164">
+        <v>5</v>
       </c>
       <c r="K164" t="s">
         <v>318</v>
@@ -10096,6 +10459,9 @@
       <c r="B165">
         <v>9720</v>
       </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
       <c r="D165" t="s">
         <v>404</v>
       </c>
@@ -10107,6 +10473,9 @@
       </c>
       <c r="I165">
         <v>60</v>
+      </c>
+      <c r="J165">
+        <v>5</v>
       </c>
       <c r="K165" t="s">
         <v>318</v>
@@ -10140,6 +10509,9 @@
       <c r="B166">
         <v>10230</v>
       </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
       <c r="D166" t="s">
         <v>404</v>
       </c>
@@ -10151,6 +10523,9 @@
       </c>
       <c r="I166">
         <v>60</v>
+      </c>
+      <c r="J166">
+        <v>5</v>
       </c>
       <c r="K166" t="s">
         <v>318</v>
@@ -10184,6 +10559,9 @@
       <c r="B167">
         <v>10950</v>
       </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
       <c r="D167" t="s">
         <v>404</v>
       </c>
@@ -10195,6 +10573,9 @@
       </c>
       <c r="I167">
         <v>60</v>
+      </c>
+      <c r="J167">
+        <v>5</v>
       </c>
       <c r="K167" t="s">
         <v>318</v>
@@ -10228,6 +10609,9 @@
       <c r="B168">
         <v>10950</v>
       </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
       <c r="D168" t="s">
         <v>404</v>
       </c>
@@ -10239,6 +10623,9 @@
       </c>
       <c r="I168">
         <v>60</v>
+      </c>
+      <c r="J168">
+        <v>5</v>
       </c>
       <c r="K168" t="s">
         <v>318</v>
@@ -10272,6 +10659,9 @@
       <c r="B169">
         <v>10950</v>
       </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
       <c r="D169" t="s">
         <v>404</v>
       </c>
@@ -10283,6 +10673,9 @@
       </c>
       <c r="I169">
         <v>60</v>
+      </c>
+      <c r="J169">
+        <v>5</v>
       </c>
       <c r="K169" t="s">
         <v>318</v>
@@ -10316,6 +10709,9 @@
       <c r="B170">
         <v>9990</v>
       </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
       <c r="D170" t="s">
         <v>404</v>
       </c>
@@ -10327,6 +10723,9 @@
       </c>
       <c r="I170">
         <v>60</v>
+      </c>
+      <c r="J170">
+        <v>5</v>
       </c>
       <c r="K170" t="s">
         <v>318</v>
@@ -10360,6 +10759,9 @@
       <c r="B171">
         <v>9990</v>
       </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
       <c r="D171" t="s">
         <v>404</v>
       </c>
@@ -10371,6 +10773,9 @@
       </c>
       <c r="I171">
         <v>60</v>
+      </c>
+      <c r="J171">
+        <v>5</v>
       </c>
       <c r="K171" t="s">
         <v>318</v>
@@ -10404,6 +10809,9 @@
       <c r="B172">
         <v>9990</v>
       </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
       <c r="D172" t="s">
         <v>404</v>
       </c>
@@ -10415,6 +10823,9 @@
       </c>
       <c r="I172">
         <v>60</v>
+      </c>
+      <c r="J172">
+        <v>5</v>
       </c>
       <c r="K172" t="s">
         <v>318</v>
@@ -10448,6 +10859,9 @@
       <c r="B173">
         <v>9990</v>
       </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
       <c r="D173" t="s">
         <v>404</v>
       </c>
@@ -10459,6 +10873,9 @@
       </c>
       <c r="I173">
         <v>60</v>
+      </c>
+      <c r="J173">
+        <v>5</v>
       </c>
       <c r="K173" t="s">
         <v>318</v>
@@ -10492,6 +10909,9 @@
       <c r="B174">
         <v>11490</v>
       </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
       <c r="D174" t="s">
         <v>404</v>
       </c>
@@ -10503,6 +10923,9 @@
       </c>
       <c r="I174">
         <v>60</v>
+      </c>
+      <c r="J174">
+        <v>5</v>
       </c>
       <c r="K174" t="s">
         <v>318</v>
@@ -10536,6 +10959,9 @@
       <c r="B175">
         <v>11490</v>
       </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
       <c r="D175" t="s">
         <v>404</v>
       </c>
@@ -10547,6 +10973,9 @@
       </c>
       <c r="I175">
         <v>60</v>
+      </c>
+      <c r="J175">
+        <v>5</v>
       </c>
       <c r="K175" t="s">
         <v>318</v>
@@ -10580,6 +11009,9 @@
       <c r="B176">
         <v>11490</v>
       </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
       <c r="D176" t="s">
         <v>404</v>
       </c>
@@ -10591,6 +11023,9 @@
       </c>
       <c r="I176">
         <v>60</v>
+      </c>
+      <c r="J176">
+        <v>5</v>
       </c>
       <c r="K176" t="s">
         <v>318</v>
@@ -10624,6 +11059,9 @@
       <c r="B177">
         <v>11490</v>
       </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
       <c r="D177" t="s">
         <v>404</v>
       </c>
@@ -10635,6 +11073,9 @@
       </c>
       <c r="I177">
         <v>60</v>
+      </c>
+      <c r="J177">
+        <v>5</v>
       </c>
       <c r="K177" t="s">
         <v>318</v>
@@ -10668,6 +11109,9 @@
       <c r="B178">
         <v>12060</v>
       </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
       <c r="D178" t="s">
         <v>404</v>
       </c>
@@ -10679,6 +11123,9 @@
       </c>
       <c r="I178">
         <v>60</v>
+      </c>
+      <c r="J178">
+        <v>5</v>
       </c>
       <c r="K178" t="s">
         <v>318</v>
@@ -10712,6 +11159,9 @@
       <c r="B179">
         <v>14010</v>
       </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
       <c r="D179" t="s">
         <v>404</v>
       </c>
@@ -10723,6 +11173,9 @@
       </c>
       <c r="I179">
         <v>60</v>
+      </c>
+      <c r="J179">
+        <v>5</v>
       </c>
       <c r="K179" t="s">
         <v>319</v>
@@ -10756,6 +11209,9 @@
       <c r="B180">
         <v>14010</v>
       </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
       <c r="D180" t="s">
         <v>404</v>
       </c>
@@ -10767,6 +11223,9 @@
       </c>
       <c r="I180">
         <v>60</v>
+      </c>
+      <c r="J180">
+        <v>5</v>
       </c>
       <c r="K180" t="s">
         <v>319</v>
@@ -10800,6 +11259,9 @@
       <c r="B181">
         <v>14010</v>
       </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
       <c r="D181" t="s">
         <v>404</v>
       </c>
@@ -10811,6 +11273,9 @@
       </c>
       <c r="I181">
         <v>60</v>
+      </c>
+      <c r="J181">
+        <v>5</v>
       </c>
       <c r="K181" t="s">
         <v>319</v>
@@ -10844,6 +11309,9 @@
       <c r="B182">
         <v>11250</v>
       </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
       <c r="D182" t="s">
         <v>404</v>
       </c>
@@ -10855,6 +11323,9 @@
       </c>
       <c r="I182">
         <v>60</v>
+      </c>
+      <c r="J182">
+        <v>5</v>
       </c>
       <c r="K182" t="s">
         <v>320</v>
@@ -10888,6 +11359,9 @@
       <c r="B183">
         <v>11250</v>
       </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
       <c r="D183" t="s">
         <v>404</v>
       </c>
@@ -10899,6 +11373,9 @@
       </c>
       <c r="I183">
         <v>60</v>
+      </c>
+      <c r="J183">
+        <v>5</v>
       </c>
       <c r="K183" t="s">
         <v>320</v>
@@ -10932,6 +11409,9 @@
       <c r="B184">
         <v>11250</v>
       </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
       <c r="D184" t="s">
         <v>404</v>
       </c>
@@ -10943,6 +11423,9 @@
       </c>
       <c r="I184">
         <v>60</v>
+      </c>
+      <c r="J184">
+        <v>5</v>
       </c>
       <c r="K184" t="s">
         <v>320</v>
@@ -10976,6 +11459,9 @@
       <c r="B185">
         <v>11250</v>
       </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
       <c r="D185" t="s">
         <v>404</v>
       </c>
@@ -10987,6 +11473,9 @@
       </c>
       <c r="I185">
         <v>60</v>
+      </c>
+      <c r="J185">
+        <v>5</v>
       </c>
       <c r="K185" t="s">
         <v>320</v>
@@ -11020,6 +11509,9 @@
       <c r="B186">
         <v>12360</v>
       </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
       <c r="D186" t="s">
         <v>404</v>
       </c>
@@ -11031,6 +11523,9 @@
       </c>
       <c r="I186">
         <v>60</v>
+      </c>
+      <c r="J186">
+        <v>5</v>
       </c>
       <c r="K186" t="s">
         <v>320</v>
@@ -11064,6 +11559,9 @@
       <c r="B187">
         <v>12360</v>
       </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
       <c r="D187" t="s">
         <v>404</v>
       </c>
@@ -11075,6 +11573,9 @@
       </c>
       <c r="I187">
         <v>60</v>
+      </c>
+      <c r="J187">
+        <v>5</v>
       </c>
       <c r="K187" t="s">
         <v>320</v>
@@ -11108,6 +11609,9 @@
       <c r="B188">
         <v>12360</v>
       </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
       <c r="D188" t="s">
         <v>404</v>
       </c>
@@ -11119,6 +11623,9 @@
       </c>
       <c r="I188">
         <v>60</v>
+      </c>
+      <c r="J188">
+        <v>5</v>
       </c>
       <c r="K188" t="s">
         <v>320</v>
@@ -11152,6 +11659,9 @@
       <c r="B189">
         <v>12360</v>
       </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
       <c r="D189" t="s">
         <v>404</v>
       </c>
@@ -11163,6 +11673,9 @@
       </c>
       <c r="I189">
         <v>60</v>
+      </c>
+      <c r="J189">
+        <v>5</v>
       </c>
       <c r="K189" t="s">
         <v>320</v>
@@ -11196,6 +11709,9 @@
       <c r="B190">
         <v>12990</v>
       </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
       <c r="D190" t="s">
         <v>404</v>
       </c>
@@ -11207,6 +11723,9 @@
       </c>
       <c r="I190">
         <v>60</v>
+      </c>
+      <c r="J190">
+        <v>5</v>
       </c>
       <c r="K190" t="s">
         <v>320</v>
@@ -11240,6 +11759,9 @@
       <c r="B191">
         <v>15750</v>
       </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
       <c r="D191" t="s">
         <v>404</v>
       </c>
@@ -11251,6 +11773,9 @@
       </c>
       <c r="I191">
         <v>60</v>
+      </c>
+      <c r="J191">
+        <v>5</v>
       </c>
       <c r="K191" t="s">
         <v>319</v>
@@ -11284,6 +11809,9 @@
       <c r="B192">
         <v>15750</v>
       </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
       <c r="D192" t="s">
         <v>404</v>
       </c>
@@ -11295,6 +11823,9 @@
       </c>
       <c r="I192">
         <v>60</v>
+      </c>
+      <c r="J192">
+        <v>5</v>
       </c>
       <c r="K192" t="s">
         <v>319</v>
@@ -11328,6 +11859,9 @@
       <c r="B193">
         <v>15750</v>
       </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
       <c r="D193" t="s">
         <v>404</v>
       </c>
@@ -11339,6 +11873,9 @@
       </c>
       <c r="I193">
         <v>60</v>
+      </c>
+      <c r="J193">
+        <v>5</v>
       </c>
       <c r="K193" t="s">
         <v>319</v>
@@ -11372,6 +11909,9 @@
       <c r="B194">
         <v>12360</v>
       </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
       <c r="D194" t="s">
         <v>404</v>
       </c>
@@ -11383,6 +11923,9 @@
       </c>
       <c r="I194">
         <v>60</v>
+      </c>
+      <c r="J194">
+        <v>5</v>
       </c>
       <c r="K194" t="s">
         <v>320</v>
@@ -11416,6 +11959,9 @@
       <c r="B195">
         <v>12360</v>
       </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
       <c r="D195" t="s">
         <v>404</v>
       </c>
@@ -11427,6 +11973,9 @@
       </c>
       <c r="I195">
         <v>60</v>
+      </c>
+      <c r="J195">
+        <v>5</v>
       </c>
       <c r="K195" t="s">
         <v>320</v>
@@ -11460,6 +12009,9 @@
       <c r="B196">
         <v>12360</v>
       </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
       <c r="D196" t="s">
         <v>404</v>
       </c>
@@ -11471,6 +12023,9 @@
       </c>
       <c r="I196">
         <v>60</v>
+      </c>
+      <c r="J196">
+        <v>5</v>
       </c>
       <c r="K196" t="s">
         <v>320</v>
@@ -11504,6 +12059,9 @@
       <c r="B197">
         <v>12360</v>
       </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
       <c r="D197" t="s">
         <v>404</v>
       </c>
@@ -11515,6 +12073,9 @@
       </c>
       <c r="I197">
         <v>60</v>
+      </c>
+      <c r="J197">
+        <v>5</v>
       </c>
       <c r="K197" t="s">
         <v>320</v>
@@ -11548,6 +12109,9 @@
       <c r="B198">
         <v>13590</v>
       </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
       <c r="D198" t="s">
         <v>404</v>
       </c>
@@ -11559,6 +12123,9 @@
       </c>
       <c r="I198">
         <v>60</v>
+      </c>
+      <c r="J198">
+        <v>5</v>
       </c>
       <c r="K198" t="s">
         <v>320</v>
@@ -11592,6 +12159,9 @@
       <c r="B199">
         <v>13590</v>
       </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
       <c r="D199" t="s">
         <v>404</v>
       </c>
@@ -11603,6 +12173,9 @@
       </c>
       <c r="I199">
         <v>60</v>
+      </c>
+      <c r="J199">
+        <v>5</v>
       </c>
       <c r="K199" t="s">
         <v>320</v>
@@ -11636,6 +12209,9 @@
       <c r="B200">
         <v>13590</v>
       </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
       <c r="D200" t="s">
         <v>404</v>
       </c>
@@ -11647,6 +12223,9 @@
       </c>
       <c r="I200">
         <v>60</v>
+      </c>
+      <c r="J200">
+        <v>5</v>
       </c>
       <c r="K200" t="s">
         <v>320</v>
@@ -11680,6 +12259,9 @@
       <c r="B201">
         <v>13590</v>
       </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
       <c r="D201" t="s">
         <v>404</v>
       </c>
@@ -11691,6 +12273,9 @@
       </c>
       <c r="I201">
         <v>60</v>
+      </c>
+      <c r="J201">
+        <v>5</v>
       </c>
       <c r="K201" t="s">
         <v>320</v>
@@ -11724,6 +12309,9 @@
       <c r="B202">
         <v>14940</v>
       </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
       <c r="D202" t="s">
         <v>404</v>
       </c>
@@ -11735,6 +12323,9 @@
       </c>
       <c r="I202">
         <v>60</v>
+      </c>
+      <c r="J202">
+        <v>5</v>
       </c>
       <c r="K202" t="s">
         <v>319</v>
@@ -11768,6 +12359,9 @@
       <c r="B203">
         <v>17280</v>
       </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
       <c r="D203" t="s">
         <v>404</v>
       </c>
@@ -11779,6 +12373,9 @@
       </c>
       <c r="I203">
         <v>60</v>
+      </c>
+      <c r="J203">
+        <v>5</v>
       </c>
       <c r="K203" t="s">
         <v>319</v>
@@ -11812,6 +12409,9 @@
       <c r="B204">
         <v>17280</v>
       </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
       <c r="D204" t="s">
         <v>404</v>
       </c>
@@ -11823,6 +12423,9 @@
       </c>
       <c r="I204">
         <v>60</v>
+      </c>
+      <c r="J204">
+        <v>5</v>
       </c>
       <c r="K204" t="s">
         <v>319</v>
@@ -11856,6 +12459,9 @@
       <c r="B205">
         <v>17280</v>
       </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
       <c r="D205" t="s">
         <v>404</v>
       </c>
@@ -11867,6 +12473,9 @@
       </c>
       <c r="I205">
         <v>60</v>
+      </c>
+      <c r="J205">
+        <v>5</v>
       </c>
       <c r="K205" t="s">
         <v>319</v>
@@ -11900,6 +12509,9 @@
       <c r="B206">
         <v>14850</v>
       </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
       <c r="D206" t="s">
         <v>404</v>
       </c>
@@ -11911,6 +12523,9 @@
       </c>
       <c r="I206">
         <v>60</v>
+      </c>
+      <c r="J206">
+        <v>5</v>
       </c>
       <c r="K206" t="s">
         <v>321</v>
@@ -11944,6 +12559,9 @@
       <c r="B207">
         <v>14850</v>
       </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
       <c r="D207" t="s">
         <v>404</v>
       </c>
@@ -11955,6 +12573,9 @@
       </c>
       <c r="I207">
         <v>60</v>
+      </c>
+      <c r="J207">
+        <v>5</v>
       </c>
       <c r="K207" t="s">
         <v>321</v>
@@ -11988,6 +12609,9 @@
       <c r="B208">
         <v>14850</v>
       </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
       <c r="D208" t="s">
         <v>404</v>
       </c>
@@ -11999,6 +12623,9 @@
       </c>
       <c r="I208">
         <v>60</v>
+      </c>
+      <c r="J208">
+        <v>5</v>
       </c>
       <c r="K208" t="s">
         <v>321</v>
@@ -12032,6 +12659,9 @@
       <c r="B209">
         <v>14850</v>
       </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
       <c r="D209" t="s">
         <v>404</v>
       </c>
@@ -12043,6 +12673,9 @@
       </c>
       <c r="I209">
         <v>60</v>
+      </c>
+      <c r="J209">
+        <v>5</v>
       </c>
       <c r="K209" t="s">
         <v>321</v>
@@ -12076,6 +12709,9 @@
       <c r="B210">
         <v>16350</v>
       </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
       <c r="D210" t="s">
         <v>404</v>
       </c>
@@ -12087,6 +12723,9 @@
       </c>
       <c r="I210">
         <v>60</v>
+      </c>
+      <c r="J210">
+        <v>5</v>
       </c>
       <c r="K210" t="s">
         <v>321</v>
@@ -12120,6 +12759,9 @@
       <c r="B211">
         <v>16350</v>
       </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
       <c r="D211" t="s">
         <v>404</v>
       </c>
@@ -12131,6 +12773,9 @@
       </c>
       <c r="I211">
         <v>60</v>
+      </c>
+      <c r="J211">
+        <v>5</v>
       </c>
       <c r="K211" t="s">
         <v>321</v>
@@ -12164,6 +12809,9 @@
       <c r="B212">
         <v>16350</v>
       </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
       <c r="D212" t="s">
         <v>404</v>
       </c>
@@ -12175,6 +12823,9 @@
       </c>
       <c r="I212">
         <v>60</v>
+      </c>
+      <c r="J212">
+        <v>5</v>
       </c>
       <c r="K212" t="s">
         <v>321</v>
@@ -12208,6 +12859,9 @@
       <c r="B213">
         <v>16110</v>
       </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
       <c r="D213" t="s">
         <v>404</v>
       </c>
@@ -12219,6 +12873,9 @@
       </c>
       <c r="I213">
         <v>60</v>
+      </c>
+      <c r="J213">
+        <v>5</v>
       </c>
       <c r="K213" t="s">
         <v>321</v>
@@ -12252,6 +12909,9 @@
       <c r="B214">
         <v>16110</v>
       </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
       <c r="D214" t="s">
         <v>404</v>
       </c>
@@ -12263,6 +12923,9 @@
       </c>
       <c r="I214">
         <v>60</v>
+      </c>
+      <c r="J214">
+        <v>5</v>
       </c>
       <c r="K214" t="s">
         <v>321</v>
@@ -12296,6 +12959,9 @@
       <c r="B215">
         <v>16110</v>
       </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
       <c r="D215" t="s">
         <v>404</v>
       </c>
@@ -12307,6 +12973,9 @@
       </c>
       <c r="I215">
         <v>60</v>
+      </c>
+      <c r="J215">
+        <v>5</v>
       </c>
       <c r="K215" t="s">
         <v>321</v>
@@ -12340,6 +13009,9 @@
       <c r="B216">
         <v>16110</v>
       </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
       <c r="D216" t="s">
         <v>404</v>
       </c>
@@ -12351,6 +13023,9 @@
       </c>
       <c r="I216">
         <v>60</v>
+      </c>
+      <c r="J216">
+        <v>5</v>
       </c>
       <c r="K216" t="s">
         <v>321</v>
@@ -12384,6 +13059,9 @@
       <c r="B217">
         <v>17730</v>
       </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
       <c r="D217" t="s">
         <v>404</v>
       </c>
@@ -12395,6 +13073,9 @@
       </c>
       <c r="I217">
         <v>60</v>
+      </c>
+      <c r="J217">
+        <v>5</v>
       </c>
       <c r="K217" t="s">
         <v>321</v>
@@ -12428,6 +13109,9 @@
       <c r="B218">
         <v>17730</v>
       </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
       <c r="D218" t="s">
         <v>404</v>
       </c>
@@ -12439,6 +13123,9 @@
       </c>
       <c r="I218">
         <v>60</v>
+      </c>
+      <c r="J218">
+        <v>5</v>
       </c>
       <c r="K218" t="s">
         <v>321</v>
@@ -12472,6 +13159,9 @@
       <c r="B219">
         <v>17730</v>
       </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
       <c r="D219" t="s">
         <v>404</v>
       </c>
@@ -12483,6 +13173,9 @@
       </c>
       <c r="I219">
         <v>60</v>
+      </c>
+      <c r="J219">
+        <v>5</v>
       </c>
       <c r="K219" t="s">
         <v>321</v>
@@ -12516,6 +13209,9 @@
       <c r="B220">
         <v>22830</v>
       </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
       <c r="D220" t="s">
         <v>404</v>
       </c>
@@ -12527,6 +13223,9 @@
       </c>
       <c r="I220">
         <v>60</v>
+      </c>
+      <c r="J220">
+        <v>5</v>
       </c>
       <c r="K220" t="s">
         <v>321</v>
@@ -12560,6 +13259,9 @@
       <c r="B221">
         <v>22830</v>
       </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
       <c r="D221" t="s">
         <v>404</v>
       </c>
@@ -12571,6 +13273,9 @@
       </c>
       <c r="I221">
         <v>60</v>
+      </c>
+      <c r="J221">
+        <v>5</v>
       </c>
       <c r="K221" t="s">
         <v>321</v>
@@ -12604,6 +13309,9 @@
       <c r="B222">
         <v>22830</v>
       </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
       <c r="D222" t="s">
         <v>404</v>
       </c>
@@ -12615,6 +13323,9 @@
       </c>
       <c r="I222">
         <v>60</v>
+      </c>
+      <c r="J222">
+        <v>5</v>
       </c>
       <c r="K222" t="s">
         <v>321</v>
@@ -12648,6 +13359,9 @@
       <c r="B223">
         <v>22830</v>
       </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
       <c r="D223" t="s">
         <v>404</v>
       </c>
@@ -12659,6 +13373,9 @@
       </c>
       <c r="I223">
         <v>60</v>
+      </c>
+      <c r="J223">
+        <v>5</v>
       </c>
       <c r="K223" t="s">
         <v>321</v>
@@ -12692,6 +13409,9 @@
       <c r="B224">
         <v>24890</v>
       </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
       <c r="D224" t="s">
         <v>404</v>
       </c>
@@ -12703,6 +13423,9 @@
       </c>
       <c r="I224">
         <v>60</v>
+      </c>
+      <c r="J224">
+        <v>5</v>
       </c>
       <c r="K224" t="s">
         <v>321</v>
@@ -12736,6 +13459,9 @@
       <c r="B225">
         <v>24890</v>
       </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
       <c r="D225" t="s">
         <v>404</v>
       </c>
@@ -12747,6 +13473,9 @@
       </c>
       <c r="I225">
         <v>60</v>
+      </c>
+      <c r="J225">
+        <v>5</v>
       </c>
       <c r="K225" t="s">
         <v>321</v>
@@ -12780,6 +13509,9 @@
       <c r="B226">
         <v>24890</v>
       </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
       <c r="D226" t="s">
         <v>404</v>
       </c>
@@ -12791,6 +13523,9 @@
       </c>
       <c r="I226">
         <v>60</v>
+      </c>
+      <c r="J226">
+        <v>5</v>
       </c>
       <c r="K226" t="s">
         <v>321</v>
@@ -12824,6 +13559,9 @@
       <c r="B227">
         <v>26640</v>
       </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
       <c r="D227" t="s">
         <v>404</v>
       </c>
@@ -12835,6 +13573,9 @@
       </c>
       <c r="I227">
         <v>60</v>
+      </c>
+      <c r="J227">
+        <v>5</v>
       </c>
       <c r="K227" t="s">
         <v>321</v>
@@ -12868,6 +13609,9 @@
       <c r="B228">
         <v>26640</v>
       </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
       <c r="D228" t="s">
         <v>404</v>
       </c>
@@ -12879,6 +13623,9 @@
       </c>
       <c r="I228">
         <v>60</v>
+      </c>
+      <c r="J228">
+        <v>5</v>
       </c>
       <c r="K228" t="s">
         <v>321</v>
@@ -12912,6 +13659,9 @@
       <c r="B229">
         <v>26640</v>
       </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
       <c r="D229" t="s">
         <v>404</v>
       </c>
@@ -12923,6 +13673,9 @@
       </c>
       <c r="I229">
         <v>60</v>
+      </c>
+      <c r="J229">
+        <v>5</v>
       </c>
       <c r="K229" t="s">
         <v>321</v>
@@ -12956,6 +13709,9 @@
       <c r="B230">
         <v>26640</v>
       </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
       <c r="D230" t="s">
         <v>404</v>
       </c>
@@ -12967,6 +13723,9 @@
       </c>
       <c r="I230">
         <v>60</v>
+      </c>
+      <c r="J230">
+        <v>5</v>
       </c>
       <c r="K230" t="s">
         <v>321</v>
@@ -13000,6 +13759,9 @@
       <c r="B231">
         <v>29250</v>
       </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
       <c r="D231" t="s">
         <v>404</v>
       </c>
@@ -13011,6 +13773,9 @@
       </c>
       <c r="I231">
         <v>60</v>
+      </c>
+      <c r="J231">
+        <v>5</v>
       </c>
       <c r="K231" t="s">
         <v>321</v>
@@ -13044,6 +13809,9 @@
       <c r="B232">
         <v>29250</v>
       </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
       <c r="D232" t="s">
         <v>404</v>
       </c>
@@ -13055,6 +13823,9 @@
       </c>
       <c r="I232">
         <v>60</v>
+      </c>
+      <c r="J232">
+        <v>5</v>
       </c>
       <c r="K232" t="s">
         <v>321</v>
@@ -13088,6 +13859,9 @@
       <c r="B233">
         <v>115740</v>
       </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
       <c r="D233" t="s">
         <v>404</v>
       </c>
@@ -13096,6 +13870,9 @@
       </c>
       <c r="I233">
         <v>60</v>
+      </c>
+      <c r="J233">
+        <v>5</v>
       </c>
       <c r="K233" t="s">
         <v>334</v>
@@ -13129,6 +13906,9 @@
       <c r="B234">
         <v>127590</v>
       </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
       <c r="D234" t="s">
         <v>404</v>
       </c>
@@ -13137,6 +13917,9 @@
       </c>
       <c r="I234">
         <v>60</v>
+      </c>
+      <c r="J234">
+        <v>5</v>
       </c>
       <c r="K234" t="s">
         <v>334</v>
@@ -13170,6 +13953,9 @@
       <c r="B235">
         <v>127590</v>
       </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
       <c r="D235" t="s">
         <v>404</v>
       </c>
@@ -13178,6 +13964,9 @@
       </c>
       <c r="I235">
         <v>60</v>
+      </c>
+      <c r="J235">
+        <v>5</v>
       </c>
       <c r="K235" t="s">
         <v>334</v>
@@ -13211,6 +14000,9 @@
       <c r="B236">
         <v>163200</v>
       </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
       <c r="D236" t="s">
         <v>404</v>
       </c>
@@ -13219,6 +14011,9 @@
       </c>
       <c r="I236">
         <v>60</v>
+      </c>
+      <c r="J236">
+        <v>5</v>
       </c>
       <c r="K236" t="s">
         <v>340</v>
@@ -13252,6 +14047,9 @@
       <c r="B237">
         <v>179520</v>
       </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
       <c r="D237" t="s">
         <v>404</v>
       </c>
@@ -13260,6 +14058,9 @@
       </c>
       <c r="I237">
         <v>60</v>
+      </c>
+      <c r="J237">
+        <v>5</v>
       </c>
       <c r="K237" t="s">
         <v>340</v>
@@ -13293,6 +14094,9 @@
       <c r="B238">
         <v>179520</v>
       </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
       <c r="D238" t="s">
         <v>404</v>
       </c>
@@ -13301,6 +14105,9 @@
       </c>
       <c r="I238">
         <v>60</v>
+      </c>
+      <c r="J238">
+        <v>5</v>
       </c>
       <c r="K238" t="s">
         <v>340</v>
@@ -13334,6 +14141,9 @@
       <c r="B239">
         <v>249090</v>
       </c>
+      <c r="C239">
+        <v>5</v>
+      </c>
       <c r="D239" t="s">
         <v>404</v>
       </c>
@@ -13342,6 +14152,9 @@
       </c>
       <c r="I239">
         <v>60</v>
+      </c>
+      <c r="J239">
+        <v>5</v>
       </c>
       <c r="K239" t="s">
         <v>340</v>
@@ -13375,6 +14188,9 @@
       <c r="B240">
         <v>274000</v>
       </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
       <c r="D240" t="s">
         <v>404</v>
       </c>
@@ -13383,6 +14199,9 @@
       </c>
       <c r="I240">
         <v>60</v>
+      </c>
+      <c r="J240">
+        <v>5</v>
       </c>
       <c r="K240" t="s">
         <v>340</v>
@@ -13416,6 +14235,9 @@
       <c r="B241">
         <v>274000</v>
       </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
       <c r="D241" t="s">
         <v>404</v>
       </c>
@@ -13424,6 +14246,9 @@
       </c>
       <c r="I241">
         <v>60</v>
+      </c>
+      <c r="J241">
+        <v>5</v>
       </c>
       <c r="K241" t="s">
         <v>340</v>
@@ -13457,6 +14282,9 @@
       <c r="B242">
         <v>1015</v>
       </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
       <c r="D242" t="s">
         <v>404</v>
       </c>
@@ -13468,6 +14296,9 @@
       </c>
       <c r="I242">
         <v>60</v>
+      </c>
+      <c r="J242">
+        <v>5</v>
       </c>
       <c r="K242" t="s">
         <v>351</v>
@@ -13501,6 +14332,9 @@
       <c r="B243">
         <v>1330</v>
       </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
       <c r="D243" t="s">
         <v>404</v>
       </c>
@@ -13512,6 +14346,9 @@
       </c>
       <c r="I243">
         <v>60</v>
+      </c>
+      <c r="J243">
+        <v>5</v>
       </c>
       <c r="K243" t="s">
         <v>351</v>
@@ -13545,6 +14382,9 @@
       <c r="B244">
         <v>1715</v>
       </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
       <c r="D244" t="s">
         <v>404</v>
       </c>
@@ -13556,6 +14396,9 @@
       </c>
       <c r="I244">
         <v>60</v>
+      </c>
+      <c r="J244">
+        <v>5</v>
       </c>
       <c r="K244" t="s">
         <v>351</v>
@@ -13589,6 +14432,9 @@
       <c r="B245">
         <v>2135</v>
       </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
       <c r="D245" t="s">
         <v>404</v>
       </c>
@@ -13600,6 +14446,9 @@
       </c>
       <c r="I245">
         <v>60</v>
+      </c>
+      <c r="J245">
+        <v>5</v>
       </c>
       <c r="K245" t="s">
         <v>355</v>
@@ -13633,6 +14482,9 @@
       <c r="B246">
         <v>3750</v>
       </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
       <c r="D246" t="s">
         <v>404</v>
       </c>
@@ -13644,6 +14496,9 @@
       </c>
       <c r="I246">
         <v>60</v>
+      </c>
+      <c r="J246">
+        <v>5</v>
       </c>
       <c r="K246" t="s">
         <v>357</v>
@@ -13677,6 +14532,9 @@
       <c r="B247">
         <v>4230</v>
       </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
       <c r="D247" t="s">
         <v>404</v>
       </c>
@@ -13688,6 +14546,9 @@
       </c>
       <c r="I247">
         <v>60</v>
+      </c>
+      <c r="J247">
+        <v>5</v>
       </c>
       <c r="K247" t="s">
         <v>357</v>
@@ -13721,6 +14582,9 @@
       <c r="B248">
         <v>9720</v>
       </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
       <c r="D248" t="s">
         <v>404</v>
       </c>
@@ -13732,6 +14596,9 @@
       </c>
       <c r="I248">
         <v>60</v>
+      </c>
+      <c r="J248">
+        <v>5</v>
       </c>
       <c r="K248" t="s">
         <v>318</v>
@@ -13759,6 +14626,9 @@
       <c r="B249">
         <v>11490</v>
       </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
       <c r="D249" t="s">
         <v>404</v>
       </c>
@@ -13770,6 +14640,9 @@
       </c>
       <c r="I249">
         <v>60</v>
+      </c>
+      <c r="J249">
+        <v>5</v>
       </c>
       <c r="K249" t="s">
         <v>318</v>
@@ -13797,6 +14670,9 @@
       <c r="B250">
         <v>12360</v>
       </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
       <c r="D250" t="s">
         <v>404</v>
       </c>
@@ -13808,6 +14684,9 @@
       </c>
       <c r="I250">
         <v>60</v>
+      </c>
+      <c r="J250">
+        <v>5</v>
       </c>
       <c r="K250" t="s">
         <v>320</v>
@@ -13835,6 +14714,9 @@
       <c r="B251">
         <v>13590</v>
       </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
       <c r="D251" t="s">
         <v>404</v>
       </c>
@@ -13846,6 +14728,9 @@
       </c>
       <c r="I251">
         <v>60</v>
+      </c>
+      <c r="J251">
+        <v>5</v>
       </c>
       <c r="K251" t="s">
         <v>320</v>
@@ -13873,6 +14758,9 @@
       <c r="B252">
         <v>16350</v>
       </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
       <c r="D252" t="s">
         <v>404</v>
       </c>
@@ -13884,6 +14772,9 @@
       </c>
       <c r="I252">
         <v>60</v>
+      </c>
+      <c r="J252">
+        <v>5</v>
       </c>
       <c r="K252" t="s">
         <v>321</v>
@@ -13911,6 +14802,9 @@
       <c r="B253">
         <v>17730</v>
       </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
       <c r="D253" t="s">
         <v>404</v>
       </c>
@@ -13922,6 +14816,9 @@
       </c>
       <c r="I253">
         <v>60</v>
+      </c>
+      <c r="J253">
+        <v>5</v>
       </c>
       <c r="K253" t="s">
         <v>321</v>
@@ -13949,6 +14846,9 @@
       <c r="B254">
         <v>29250</v>
       </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
       <c r="D254" t="s">
         <v>404</v>
       </c>
@@ -13960,6 +14860,9 @@
       </c>
       <c r="I254">
         <v>60</v>
+      </c>
+      <c r="J254">
+        <v>5</v>
       </c>
       <c r="K254" t="s">
         <v>321</v>
@@ -13987,6 +14890,9 @@
       <c r="B255">
         <v>127590</v>
       </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
       <c r="D255" t="s">
         <v>404</v>
       </c>
@@ -13998,6 +14904,9 @@
       </c>
       <c r="I255">
         <v>60</v>
+      </c>
+      <c r="J255">
+        <v>5</v>
       </c>
       <c r="K255" t="s">
         <v>334</v>
@@ -14025,6 +14934,9 @@
       <c r="B256">
         <v>179520</v>
       </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
       <c r="D256" t="s">
         <v>404</v>
       </c>
@@ -14036,6 +14948,9 @@
       </c>
       <c r="I256">
         <v>60</v>
+      </c>
+      <c r="J256">
+        <v>5</v>
       </c>
       <c r="K256" t="s">
         <v>340</v>
@@ -14063,6 +14978,9 @@
       <c r="B257">
         <v>274000</v>
       </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
       <c r="D257" t="s">
         <v>404</v>
       </c>
@@ -14074,6 +14992,9 @@
       </c>
       <c r="I257">
         <v>60</v>
+      </c>
+      <c r="J257">
+        <v>5</v>
       </c>
       <c r="K257" t="s">
         <v>340</v>
@@ -14101,6 +15022,9 @@
       <c r="B258">
         <v>4848</v>
       </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
       <c r="D258" t="s">
         <v>404</v>
       </c>
@@ -14112,6 +15036,9 @@
       </c>
       <c r="I258">
         <v>60</v>
+      </c>
+      <c r="J258">
+        <v>5</v>
       </c>
       <c r="K258" t="s">
         <v>374</v>
@@ -14142,6 +15069,9 @@
       <c r="B259">
         <v>5824</v>
       </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
       <c r="D259" t="s">
         <v>404</v>
       </c>
@@ -14153,6 +15083,9 @@
       </c>
       <c r="I259">
         <v>60</v>
+      </c>
+      <c r="J259">
+        <v>5</v>
       </c>
       <c r="K259" t="s">
         <v>374</v>
@@ -14183,6 +15116,9 @@
       <c r="B260">
         <v>6744</v>
       </c>
+      <c r="C260">
+        <v>5</v>
+      </c>
       <c r="D260" t="s">
         <v>404</v>
       </c>
@@ -14194,6 +15130,9 @@
       </c>
       <c r="I260">
         <v>60</v>
+      </c>
+      <c r="J260">
+        <v>5</v>
       </c>
       <c r="K260" t="s">
         <v>374</v>
@@ -14224,6 +15163,9 @@
       <c r="B261">
         <v>7940</v>
       </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
       <c r="D261" t="s">
         <v>404</v>
       </c>
@@ -14235,6 +15177,9 @@
       </c>
       <c r="I261">
         <v>60</v>
+      </c>
+      <c r="J261">
+        <v>5</v>
       </c>
       <c r="K261" t="s">
         <v>374</v>
@@ -14265,6 +15210,9 @@
       <c r="B262">
         <v>9000</v>
       </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
       <c r="D262" t="s">
         <v>404</v>
       </c>
@@ -14276,6 +15224,9 @@
       </c>
       <c r="I262">
         <v>60</v>
+      </c>
+      <c r="J262">
+        <v>5</v>
       </c>
       <c r="K262" t="s">
         <v>374</v>

--- a/src/WebMarket/WebMarket/App_Data/Avr.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Avr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Avr" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <definedName name="DisplayClassList">metadata!$B$2:$B$30</definedName>
     <definedName name="Producers" localSheetId="1">metadata!$A$2:$A$9</definedName>
     <definedName name="ProducersList">metadata!$A$2:$A$31</definedName>
+    <definedName name="Type">metadata!$D$2:$D$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2031,15 +2032,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DisplayClass" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Producers" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Producers" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Availability" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Availability" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DisplayClass" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,8 +2336,8 @@
   <dimension ref="A1:AN265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5675,7 +5676,7 @@
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
     </row>
-    <row r="51" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>99</v>
       </c>
@@ -5742,7 +5743,7 @@
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
@@ -5809,7 +5810,7 @@
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>102</v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>103</v>
       </c>
@@ -5943,7 +5944,7 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>104</v>
       </c>
@@ -6010,7 +6011,7 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>105</v>
       </c>
@@ -6077,7 +6078,7 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>107</v>
       </c>
@@ -6129,7 +6130,7 @@
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>108</v>
       </c>
@@ -6181,7 +6182,7 @@
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>109</v>
       </c>
@@ -6233,7 +6234,7 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>261</v>
       </c>
@@ -6294,7 +6295,7 @@
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>262</v>
       </c>
@@ -6355,7 +6356,7 @@
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>263</v>
       </c>
@@ -6414,7 +6415,7 @@
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
     </row>
-    <row r="63" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>110</v>
       </c>
@@ -6466,7 +6467,7 @@
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
     </row>
-    <row r="64" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>111</v>
       </c>
@@ -6518,7 +6519,7 @@
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>112</v>
       </c>
@@ -6570,7 +6571,7 @@
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>113</v>
       </c>
@@ -6622,7 +6623,7 @@
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>114</v>
       </c>
@@ -6674,7 +6675,7 @@
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>115</v>
       </c>
@@ -6720,7 +6721,7 @@
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>116</v>
       </c>
@@ -6766,7 +6767,7 @@
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>117</v>
       </c>
@@ -6815,7 +6816,7 @@
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>118</v>
       </c>
@@ -6861,7 +6862,7 @@
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
     </row>
-    <row r="72" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>119</v>
       </c>
@@ -6913,7 +6914,7 @@
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>120</v>
       </c>
@@ -6962,7 +6963,7 @@
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>121</v>
       </c>
@@ -7011,7 +7012,7 @@
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
     </row>
-    <row r="75" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>122</v>
       </c>
@@ -7063,7 +7064,7 @@
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
     </row>
-    <row r="76" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>123</v>
       </c>
@@ -7115,7 +7116,7 @@
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
     </row>
-    <row r="77" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>124</v>
       </c>
@@ -7164,7 +7165,7 @@
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
     </row>
-    <row r="78" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>125</v>
       </c>
@@ -7213,7 +7214,7 @@
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
     </row>
-    <row r="79" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>126</v>
       </c>
@@ -7262,7 +7263,7 @@
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
     </row>
-    <row r="80" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>127</v>
       </c>
@@ -7311,7 +7312,7 @@
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
     </row>
-    <row r="81" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>128</v>
       </c>
@@ -7360,7 +7361,7 @@
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
     </row>
-    <row r="82" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>129</v>
       </c>
@@ -7412,7 +7413,7 @@
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
     </row>
-    <row r="83" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>130</v>
       </c>
@@ -7461,7 +7462,7 @@
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
     </row>
-    <row r="84" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>131</v>
       </c>
@@ -7510,7 +7511,7 @@
       <c r="AJ84" s="1"/>
       <c r="AK84" s="1"/>
     </row>
-    <row r="85" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>132</v>
       </c>
@@ -7559,7 +7560,7 @@
       <c r="AJ85" s="1"/>
       <c r="AK85" s="1"/>
     </row>
-    <row r="86" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>133</v>
       </c>
@@ -7608,7 +7609,7 @@
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
     </row>
-    <row r="87" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>134</v>
       </c>
@@ -7660,7 +7661,7 @@
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
     </row>
-    <row r="88" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>135</v>
       </c>
@@ -7709,7 +7710,7 @@
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
     </row>
-    <row r="89" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>136</v>
       </c>
@@ -7758,7 +7759,7 @@
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
     </row>
-    <row r="90" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>137</v>
       </c>
@@ -7810,7 +7811,7 @@
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
     </row>
-    <row r="91" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>138</v>
       </c>
@@ -7862,7 +7863,7 @@
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
     </row>
-    <row r="92" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>139</v>
       </c>
@@ -7914,7 +7915,7 @@
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
     </row>
-    <row r="93" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>140</v>
       </c>
@@ -7966,7 +7967,7 @@
       <c r="AJ93" s="1"/>
       <c r="AK93" s="1"/>
     </row>
-    <row r="94" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>141</v>
       </c>
@@ -8015,7 +8016,7 @@
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
     </row>
-    <row r="95" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>142</v>
       </c>
@@ -8064,7 +8065,7 @@
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
     </row>
-    <row r="96" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>143</v>
       </c>
@@ -8113,7 +8114,7 @@
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
     </row>
-    <row r="97" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>144</v>
       </c>
@@ -8162,7 +8163,7 @@
       <c r="AJ97" s="1"/>
       <c r="AK97" s="1"/>
     </row>
-    <row r="98" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>145</v>
       </c>
@@ -8211,7 +8212,7 @@
       <c r="AJ98" s="1"/>
       <c r="AK98" s="1"/>
     </row>
-    <row r="99" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>146</v>
       </c>
@@ -8266,7 +8267,7 @@
       <c r="AJ99" s="1"/>
       <c r="AK99" s="1"/>
     </row>
-    <row r="100" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>264</v>
       </c>
@@ -8312,7 +8313,7 @@
       <c r="AJ100" s="1"/>
       <c r="AK100" s="1"/>
     </row>
-    <row r="101" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>147</v>
       </c>
@@ -8367,7 +8368,7 @@
       <c r="AJ101" s="1"/>
       <c r="AK101" s="1"/>
     </row>
-    <row r="102" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>149</v>
       </c>
@@ -8422,7 +8423,7 @@
       <c r="AJ102" s="1"/>
       <c r="AK102" s="1"/>
     </row>
-    <row r="103" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>150</v>
       </c>
@@ -8471,7 +8472,7 @@
       <c r="AJ103" s="1"/>
       <c r="AK103" s="1"/>
     </row>
-    <row r="104" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>151</v>
       </c>
@@ -8520,7 +8521,7 @@
       <c r="AJ104" s="1"/>
       <c r="AK104" s="1"/>
     </row>
-    <row r="105" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>152</v>
       </c>
@@ -8569,7 +8570,7 @@
       <c r="AJ105" s="1"/>
       <c r="AK105" s="1"/>
     </row>
-    <row r="106" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>153</v>
       </c>
@@ -8618,7 +8619,7 @@
       <c r="AJ106" s="1"/>
       <c r="AK106" s="1"/>
     </row>
-    <row r="107" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>154</v>
       </c>
@@ -8670,7 +8671,7 @@
       <c r="AJ107" s="1"/>
       <c r="AK107" s="1"/>
     </row>
-    <row r="108" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>155</v>
       </c>
@@ -8722,7 +8723,7 @@
       <c r="AJ108" s="1"/>
       <c r="AK108" s="1"/>
     </row>
-    <row r="109" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>156</v>
       </c>
@@ -8771,7 +8772,7 @@
       <c r="AJ109" s="1"/>
       <c r="AK109" s="1"/>
     </row>
-    <row r="110" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>157</v>
       </c>
@@ -8823,7 +8824,7 @@
       <c r="AJ110" s="1"/>
       <c r="AK110" s="1"/>
     </row>
-    <row r="111" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>158</v>
       </c>
@@ -8878,7 +8879,7 @@
       <c r="AJ111" s="1"/>
       <c r="AK111" s="1"/>
     </row>
-    <row r="112" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>160</v>
       </c>
@@ -8933,7 +8934,7 @@
       <c r="AJ112" s="1"/>
       <c r="AK112" s="1"/>
     </row>
-    <row r="113" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>161</v>
       </c>
@@ -8988,7 +8989,7 @@
       <c r="AJ113" s="1"/>
       <c r="AK113" s="1"/>
     </row>
-    <row r="114" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>163</v>
       </c>
@@ -9037,7 +9038,7 @@
       <c r="AJ114" s="1"/>
       <c r="AK114" s="1"/>
     </row>
-    <row r="115" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>164</v>
       </c>
@@ -9092,7 +9093,7 @@
       <c r="AJ115" s="1"/>
       <c r="AK115" s="1"/>
     </row>
-    <row r="116" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>166</v>
       </c>
@@ -9141,7 +9142,7 @@
       <c r="AJ116" s="1"/>
       <c r="AK116" s="1"/>
     </row>
-    <row r="117" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>167</v>
       </c>
@@ -9196,7 +9197,7 @@
       <c r="AJ117" s="1"/>
       <c r="AK117" s="1"/>
     </row>
-    <row r="118" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>169</v>
       </c>
@@ -9251,7 +9252,7 @@
       <c r="AJ118" s="1"/>
       <c r="AK118" s="1"/>
     </row>
-    <row r="119" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>171</v>
       </c>
@@ -9306,7 +9307,7 @@
       <c r="AJ119" s="1"/>
       <c r="AK119" s="1"/>
     </row>
-    <row r="120" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>172</v>
       </c>
@@ -9355,7 +9356,7 @@
       <c r="AJ120" s="1"/>
       <c r="AK120" s="1"/>
     </row>
-    <row r="121" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>173</v>
       </c>
@@ -9404,7 +9405,7 @@
       <c r="AJ121" s="1"/>
       <c r="AK121" s="1"/>
     </row>
-    <row r="122" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>174</v>
       </c>
@@ -9453,7 +9454,7 @@
       <c r="AJ122" s="1"/>
       <c r="AK122" s="1"/>
     </row>
-    <row r="123" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>175</v>
       </c>
@@ -9502,7 +9503,7 @@
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1"/>
     </row>
-    <row r="124" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>176</v>
       </c>
@@ -9551,7 +9552,7 @@
       <c r="AJ124" s="1"/>
       <c r="AK124" s="1"/>
     </row>
-    <row r="125" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" s="6" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>177</v>
       </c>
@@ -9603,7 +9604,7 @@
       <c r="AJ125" s="7"/>
       <c r="AK125" s="7"/>
     </row>
-    <row r="126" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>293</v>
       </c>
@@ -9656,7 +9657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>294</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>295</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>296</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>297</v>
       </c>
@@ -9868,7 +9869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>298</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>310</v>
       </c>
@@ -9974,7 +9975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>299</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>300</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>301</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>302</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>303</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>304</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>305</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>306</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>307</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>308</v>
       </c>
@@ -10504,7 +10505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>309</v>
       </c>
@@ -10557,7 +10558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>313</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>316</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>315</v>
       </c>
@@ -10713,7 +10714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>317</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>318</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>319</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>320</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>321</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>322</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>323</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>324</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>325</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>326</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>328</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>342</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>330</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>331</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>332</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>333</v>
       </c>
@@ -11561,7 +11562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>334</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>335</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>336</v>
       </c>
@@ -11720,7 +11721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>337</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>356</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>338</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>339</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>355</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="173" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>343</v>
       </c>
@@ -12135,7 +12136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>344</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>345</v>
       </c>
@@ -12241,7 +12242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>346</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>347</v>
       </c>
@@ -12347,7 +12348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>348</v>
       </c>
@@ -12400,7 +12401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>349</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>350</v>
       </c>
@@ -12506,7 +12507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>358</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>351</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>352</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>353</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>354</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>371</v>
       </c>
@@ -12812,7 +12813,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>359</v>
       </c>
@@ -12865,7 +12866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>360</v>
       </c>
@@ -12918,7 +12919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>361</v>
       </c>
@@ -12971,7 +12972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>362</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>363</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>364</v>
       </c>
@@ -13130,7 +13131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>365</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>366</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>372</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="196" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>367</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>368</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>369</v>
       </c>
@@ -13442,7 +13443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>370</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>373</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>374</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>375</v>
       </c>
@@ -13654,7 +13655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>376</v>
       </c>
@@ -13707,7 +13708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>377</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>378</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>379</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>380</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>381</v>
       </c>
@@ -13972,7 +13973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>382</v>
       </c>
@@ -14025,7 +14026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>383</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>384</v>
       </c>
@@ -14131,7 +14132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>385</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>386</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>387</v>
       </c>
@@ -14290,7 +14291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>388</v>
       </c>
@@ -14343,7 +14344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>389</v>
       </c>
@@ -14396,7 +14397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>398</v>
       </c>
@@ -14449,7 +14450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>390</v>
       </c>
@@ -14502,7 +14503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>391</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>392</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>393</v>
       </c>
@@ -14661,7 +14662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>394</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>395</v>
       </c>
@@ -14767,7 +14768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>396</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>397</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>399</v>
       </c>
@@ -14926,7 +14927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>400</v>
       </c>
@@ -14979,7 +14980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>401</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>402</v>
       </c>
@@ -15085,7 +15086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>403</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>404</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>405</v>
       </c>
@@ -15244,7 +15245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>406</v>
       </c>
@@ -15297,7 +15298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>407</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>408</v>
       </c>
@@ -15403,7 +15404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>410</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>411</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>412</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>413</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>414</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>415</v>
       </c>
@@ -15721,7 +15722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>416</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>417</v>
       </c>
@@ -15827,7 +15828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>418</v>
       </c>
@@ -15880,7 +15881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>419</v>
       </c>
@@ -15933,7 +15934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>426</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>420</v>
       </c>
@@ -16036,7 +16037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>421</v>
       </c>
@@ -16089,7 +16090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>422</v>
       </c>
@@ -16142,7 +16143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>427</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>423</v>
       </c>
@@ -16245,7 +16246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>424</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>425</v>
       </c>
@@ -16351,7 +16352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>428</v>
       </c>
@@ -16401,7 +16402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>429</v>
       </c>
@@ -16424,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="I255">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J255">
         <v>5</v>
@@ -16454,7 +16455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>430</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="I256">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J256">
         <v>5</v>
@@ -16507,7 +16508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:31" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>431</v>
       </c>
@@ -16530,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="I257">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J257">
         <v>5</v>
@@ -16560,7 +16561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:31" s="6" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="21" t="s">
         <v>432</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="I258" s="6">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J258" s="6">
         <v>5</v>
@@ -16991,7 +16992,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>AvailabilityList</formula1>
     </dataValidation>
@@ -17000,6 +17001,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>ProducersList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17013,7 +17017,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
